--- a/Doc/00管理文書/40_詳細設計/画面系/PGUSERD080_地方作成処理.xlsx
+++ b/Doc/00管理文書/40_詳細設計/画面系/PGUSERD080_地方作成処理.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\MyCentOS\pythonGames\Doc\00管理文書\40_詳細設計\画面系\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A09E0DD-71AD-4E58-B4D6-349295EAA0A4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4090B2FD-6A81-4C5B-9285-9D60DCDFE811}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="2" activeTab="2" xr2:uid="{CFAEB6AA-FC9D-49F8-8BE6-86D0FBA28B0C}"/>
+    <workbookView xWindow="8748" yWindow="3432" windowWidth="13320" windowHeight="8916" firstSheet="2" activeTab="2" xr2:uid="{CFAEB6AA-FC9D-49F8-8BE6-86D0FBA28B0C}"/>
   </bookViews>
   <sheets>
     <sheet name="表紙" sheetId="6" r:id="rId1"/>
@@ -38,6 +38,7 @@
     <definedName name="_xlnm.Print_Area" localSheetId="0">表紙!$A$1:$AT$19</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -3779,6 +3780,45 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -3809,45 +3849,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -3872,24 +3873,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="27" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="21" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="22" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="13" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -3906,6 +3889,24 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="20" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="27" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="21" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="22" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -13220,132 +13221,132 @@
   <sheetFormatPr defaultColWidth="3.09765625" defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <sheetData>
     <row r="1" spans="1:48" x14ac:dyDescent="0.45">
-      <c r="A1" s="86" t="str">
+      <c r="A1" s="99" t="str">
         <f ca="1">RIGHT(CELL("filename",A1),LEN(CELL("filename",A1))-FIND("]",CELL("filename",A1)))</f>
         <v>DBアクセス</v>
       </c>
-      <c r="B1" s="87"/>
-      <c r="C1" s="87"/>
-      <c r="D1" s="87"/>
-      <c r="E1" s="87"/>
-      <c r="F1" s="87"/>
-      <c r="G1" s="87"/>
-      <c r="H1" s="87"/>
-      <c r="I1" s="90" t="s">
+      <c r="B1" s="100"/>
+      <c r="C1" s="100"/>
+      <c r="D1" s="100"/>
+      <c r="E1" s="100"/>
+      <c r="F1" s="100"/>
+      <c r="G1" s="100"/>
+      <c r="H1" s="100"/>
+      <c r="I1" s="103" t="s">
         <v>0</v>
       </c>
-      <c r="J1" s="90"/>
-      <c r="K1" s="90"/>
-      <c r="L1" s="90"/>
-      <c r="M1" s="90"/>
-      <c r="N1" s="90"/>
-      <c r="O1" s="90"/>
-      <c r="P1" s="90"/>
-      <c r="Q1" s="90" t="s">
+      <c r="J1" s="103"/>
+      <c r="K1" s="103"/>
+      <c r="L1" s="103"/>
+      <c r="M1" s="103"/>
+      <c r="N1" s="103"/>
+      <c r="O1" s="103"/>
+      <c r="P1" s="103"/>
+      <c r="Q1" s="103" t="s">
         <v>1</v>
       </c>
-      <c r="R1" s="90"/>
-      <c r="S1" s="90"/>
-      <c r="T1" s="90"/>
-      <c r="U1" s="90"/>
-      <c r="V1" s="90"/>
-      <c r="W1" s="90"/>
-      <c r="X1" s="90"/>
-      <c r="Y1" s="90" t="s">
+      <c r="R1" s="103"/>
+      <c r="S1" s="103"/>
+      <c r="T1" s="103"/>
+      <c r="U1" s="103"/>
+      <c r="V1" s="103"/>
+      <c r="W1" s="103"/>
+      <c r="X1" s="103"/>
+      <c r="Y1" s="103" t="s">
         <v>2</v>
       </c>
-      <c r="Z1" s="90"/>
-      <c r="AA1" s="90"/>
-      <c r="AB1" s="90"/>
-      <c r="AC1" s="90"/>
-      <c r="AD1" s="90"/>
-      <c r="AE1" s="90"/>
-      <c r="AF1" s="90"/>
-      <c r="AG1" s="90" t="s">
+      <c r="Z1" s="103"/>
+      <c r="AA1" s="103"/>
+      <c r="AB1" s="103"/>
+      <c r="AC1" s="103"/>
+      <c r="AD1" s="103"/>
+      <c r="AE1" s="103"/>
+      <c r="AF1" s="103"/>
+      <c r="AG1" s="103" t="s">
         <v>3</v>
       </c>
-      <c r="AH1" s="90"/>
-      <c r="AI1" s="90"/>
-      <c r="AJ1" s="90"/>
-      <c r="AK1" s="90"/>
-      <c r="AL1" s="90"/>
-      <c r="AM1" s="90"/>
-      <c r="AN1" s="90"/>
-      <c r="AO1" s="90" t="s">
+      <c r="AH1" s="103"/>
+      <c r="AI1" s="103"/>
+      <c r="AJ1" s="103"/>
+      <c r="AK1" s="103"/>
+      <c r="AL1" s="103"/>
+      <c r="AM1" s="103"/>
+      <c r="AN1" s="103"/>
+      <c r="AO1" s="103" t="s">
         <v>4</v>
       </c>
-      <c r="AP1" s="90"/>
-      <c r="AQ1" s="90"/>
-      <c r="AR1" s="90"/>
-      <c r="AS1" s="90"/>
-      <c r="AT1" s="90"/>
-      <c r="AU1" s="90"/>
-      <c r="AV1" s="90"/>
+      <c r="AP1" s="103"/>
+      <c r="AQ1" s="103"/>
+      <c r="AR1" s="103"/>
+      <c r="AS1" s="103"/>
+      <c r="AT1" s="103"/>
+      <c r="AU1" s="103"/>
+      <c r="AV1" s="103"/>
     </row>
     <row r="2" spans="1:48" x14ac:dyDescent="0.45">
-      <c r="A2" s="88"/>
-      <c r="B2" s="89"/>
-      <c r="C2" s="89"/>
-      <c r="D2" s="89"/>
-      <c r="E2" s="89"/>
-      <c r="F2" s="89"/>
-      <c r="G2" s="89"/>
-      <c r="H2" s="89"/>
-      <c r="I2" s="84" t="str">
+      <c r="A2" s="101"/>
+      <c r="B2" s="102"/>
+      <c r="C2" s="102"/>
+      <c r="D2" s="102"/>
+      <c r="E2" s="102"/>
+      <c r="F2" s="102"/>
+      <c r="G2" s="102"/>
+      <c r="H2" s="102"/>
+      <c r="I2" s="97" t="str">
         <f>改版履歴!I2</f>
         <v>メインメニュー画面</v>
       </c>
-      <c r="J2" s="84"/>
-      <c r="K2" s="84"/>
-      <c r="L2" s="84"/>
-      <c r="M2" s="84"/>
-      <c r="N2" s="84"/>
-      <c r="O2" s="84"/>
-      <c r="P2" s="84"/>
-      <c r="Q2" s="91">
+      <c r="J2" s="97"/>
+      <c r="K2" s="97"/>
+      <c r="L2" s="97"/>
+      <c r="M2" s="97"/>
+      <c r="N2" s="97"/>
+      <c r="O2" s="97"/>
+      <c r="P2" s="97"/>
+      <c r="Q2" s="104">
         <f ca="1">改版履歴!Q2</f>
         <v>43933</v>
       </c>
-      <c r="R2" s="84"/>
-      <c r="S2" s="84"/>
-      <c r="T2" s="84"/>
-      <c r="U2" s="84"/>
-      <c r="V2" s="84"/>
-      <c r="W2" s="84"/>
-      <c r="X2" s="84"/>
-      <c r="Y2" s="84" t="str">
+      <c r="R2" s="97"/>
+      <c r="S2" s="97"/>
+      <c r="T2" s="97"/>
+      <c r="U2" s="97"/>
+      <c r="V2" s="97"/>
+      <c r="W2" s="97"/>
+      <c r="X2" s="97"/>
+      <c r="Y2" s="97" t="str">
         <f ca="1">改版履歴!Y2</f>
         <v>Giphe</v>
       </c>
-      <c r="Z2" s="84"/>
-      <c r="AA2" s="84"/>
-      <c r="AB2" s="84"/>
-      <c r="AC2" s="84"/>
-      <c r="AD2" s="84"/>
-      <c r="AE2" s="84"/>
-      <c r="AF2" s="84"/>
-      <c r="AG2" s="84" t="str">
+      <c r="Z2" s="97"/>
+      <c r="AA2" s="97"/>
+      <c r="AB2" s="97"/>
+      <c r="AC2" s="97"/>
+      <c r="AD2" s="97"/>
+      <c r="AE2" s="97"/>
+      <c r="AF2" s="97"/>
+      <c r="AG2" s="97" t="str">
         <f ca="1">改版履歴!AG2</f>
         <v>1.0</v>
       </c>
-      <c r="AH2" s="84"/>
-      <c r="AI2" s="84"/>
-      <c r="AJ2" s="84"/>
-      <c r="AK2" s="84"/>
-      <c r="AL2" s="84"/>
-      <c r="AM2" s="84"/>
-      <c r="AN2" s="84"/>
-      <c r="AO2" s="84" t="str">
+      <c r="AH2" s="97"/>
+      <c r="AI2" s="97"/>
+      <c r="AJ2" s="97"/>
+      <c r="AK2" s="97"/>
+      <c r="AL2" s="97"/>
+      <c r="AM2" s="97"/>
+      <c r="AN2" s="97"/>
+      <c r="AO2" s="97" t="str">
         <f>改版履歴!AO2</f>
         <v>PGUSED020</v>
       </c>
-      <c r="AP2" s="84"/>
-      <c r="AQ2" s="84"/>
-      <c r="AR2" s="84"/>
-      <c r="AS2" s="84"/>
-      <c r="AT2" s="84"/>
-      <c r="AU2" s="84"/>
-      <c r="AV2" s="84"/>
+      <c r="AP2" s="97"/>
+      <c r="AQ2" s="97"/>
+      <c r="AR2" s="97"/>
+      <c r="AS2" s="97"/>
+      <c r="AT2" s="97"/>
+      <c r="AU2" s="97"/>
+      <c r="AV2" s="97"/>
     </row>
     <row r="4" spans="1:48" s="26" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A4" s="23"/>
@@ -14057,132 +14058,132 @@
   <sheetFormatPr defaultColWidth="3.09765625" defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <sheetData>
     <row r="1" spans="1:48" x14ac:dyDescent="0.45">
-      <c r="A1" s="86" t="str">
+      <c r="A1" s="99" t="str">
         <f ca="1">RIGHT(CELL("filename",A1),LEN(CELL("filename",A1))-FIND("]",CELL("filename",A1)))</f>
         <v>DBアクセス (2)</v>
       </c>
-      <c r="B1" s="87"/>
-      <c r="C1" s="87"/>
-      <c r="D1" s="87"/>
-      <c r="E1" s="87"/>
-      <c r="F1" s="87"/>
-      <c r="G1" s="87"/>
-      <c r="H1" s="87"/>
-      <c r="I1" s="90" t="s">
+      <c r="B1" s="100"/>
+      <c r="C1" s="100"/>
+      <c r="D1" s="100"/>
+      <c r="E1" s="100"/>
+      <c r="F1" s="100"/>
+      <c r="G1" s="100"/>
+      <c r="H1" s="100"/>
+      <c r="I1" s="103" t="s">
         <v>0</v>
       </c>
-      <c r="J1" s="90"/>
-      <c r="K1" s="90"/>
-      <c r="L1" s="90"/>
-      <c r="M1" s="90"/>
-      <c r="N1" s="90"/>
-      <c r="O1" s="90"/>
-      <c r="P1" s="90"/>
-      <c r="Q1" s="90" t="s">
+      <c r="J1" s="103"/>
+      <c r="K1" s="103"/>
+      <c r="L1" s="103"/>
+      <c r="M1" s="103"/>
+      <c r="N1" s="103"/>
+      <c r="O1" s="103"/>
+      <c r="P1" s="103"/>
+      <c r="Q1" s="103" t="s">
         <v>1</v>
       </c>
-      <c r="R1" s="90"/>
-      <c r="S1" s="90"/>
-      <c r="T1" s="90"/>
-      <c r="U1" s="90"/>
-      <c r="V1" s="90"/>
-      <c r="W1" s="90"/>
-      <c r="X1" s="90"/>
-      <c r="Y1" s="90" t="s">
+      <c r="R1" s="103"/>
+      <c r="S1" s="103"/>
+      <c r="T1" s="103"/>
+      <c r="U1" s="103"/>
+      <c r="V1" s="103"/>
+      <c r="W1" s="103"/>
+      <c r="X1" s="103"/>
+      <c r="Y1" s="103" t="s">
         <v>2</v>
       </c>
-      <c r="Z1" s="90"/>
-      <c r="AA1" s="90"/>
-      <c r="AB1" s="90"/>
-      <c r="AC1" s="90"/>
-      <c r="AD1" s="90"/>
-      <c r="AE1" s="90"/>
-      <c r="AF1" s="90"/>
-      <c r="AG1" s="90" t="s">
+      <c r="Z1" s="103"/>
+      <c r="AA1" s="103"/>
+      <c r="AB1" s="103"/>
+      <c r="AC1" s="103"/>
+      <c r="AD1" s="103"/>
+      <c r="AE1" s="103"/>
+      <c r="AF1" s="103"/>
+      <c r="AG1" s="103" t="s">
         <v>3</v>
       </c>
-      <c r="AH1" s="90"/>
-      <c r="AI1" s="90"/>
-      <c r="AJ1" s="90"/>
-      <c r="AK1" s="90"/>
-      <c r="AL1" s="90"/>
-      <c r="AM1" s="90"/>
-      <c r="AN1" s="90"/>
-      <c r="AO1" s="90" t="s">
+      <c r="AH1" s="103"/>
+      <c r="AI1" s="103"/>
+      <c r="AJ1" s="103"/>
+      <c r="AK1" s="103"/>
+      <c r="AL1" s="103"/>
+      <c r="AM1" s="103"/>
+      <c r="AN1" s="103"/>
+      <c r="AO1" s="103" t="s">
         <v>4</v>
       </c>
-      <c r="AP1" s="90"/>
-      <c r="AQ1" s="90"/>
-      <c r="AR1" s="90"/>
-      <c r="AS1" s="90"/>
-      <c r="AT1" s="90"/>
-      <c r="AU1" s="90"/>
-      <c r="AV1" s="90"/>
+      <c r="AP1" s="103"/>
+      <c r="AQ1" s="103"/>
+      <c r="AR1" s="103"/>
+      <c r="AS1" s="103"/>
+      <c r="AT1" s="103"/>
+      <c r="AU1" s="103"/>
+      <c r="AV1" s="103"/>
     </row>
     <row r="2" spans="1:48" x14ac:dyDescent="0.45">
-      <c r="A2" s="88"/>
-      <c r="B2" s="89"/>
-      <c r="C2" s="89"/>
-      <c r="D2" s="89"/>
-      <c r="E2" s="89"/>
-      <c r="F2" s="89"/>
-      <c r="G2" s="89"/>
-      <c r="H2" s="89"/>
-      <c r="I2" s="84" t="str">
+      <c r="A2" s="101"/>
+      <c r="B2" s="102"/>
+      <c r="C2" s="102"/>
+      <c r="D2" s="102"/>
+      <c r="E2" s="102"/>
+      <c r="F2" s="102"/>
+      <c r="G2" s="102"/>
+      <c r="H2" s="102"/>
+      <c r="I2" s="97" t="str">
         <f>改版履歴!I2</f>
         <v>メインメニュー画面</v>
       </c>
-      <c r="J2" s="84"/>
-      <c r="K2" s="84"/>
-      <c r="L2" s="84"/>
-      <c r="M2" s="84"/>
-      <c r="N2" s="84"/>
-      <c r="O2" s="84"/>
-      <c r="P2" s="84"/>
-      <c r="Q2" s="91">
+      <c r="J2" s="97"/>
+      <c r="K2" s="97"/>
+      <c r="L2" s="97"/>
+      <c r="M2" s="97"/>
+      <c r="N2" s="97"/>
+      <c r="O2" s="97"/>
+      <c r="P2" s="97"/>
+      <c r="Q2" s="104">
         <f ca="1">改版履歴!Q2</f>
         <v>43933</v>
       </c>
-      <c r="R2" s="84"/>
-      <c r="S2" s="84"/>
-      <c r="T2" s="84"/>
-      <c r="U2" s="84"/>
-      <c r="V2" s="84"/>
-      <c r="W2" s="84"/>
-      <c r="X2" s="84"/>
-      <c r="Y2" s="84" t="str">
+      <c r="R2" s="97"/>
+      <c r="S2" s="97"/>
+      <c r="T2" s="97"/>
+      <c r="U2" s="97"/>
+      <c r="V2" s="97"/>
+      <c r="W2" s="97"/>
+      <c r="X2" s="97"/>
+      <c r="Y2" s="97" t="str">
         <f ca="1">改版履歴!Y2</f>
         <v>Giphe</v>
       </c>
-      <c r="Z2" s="84"/>
-      <c r="AA2" s="84"/>
-      <c r="AB2" s="84"/>
-      <c r="AC2" s="84"/>
-      <c r="AD2" s="84"/>
-      <c r="AE2" s="84"/>
-      <c r="AF2" s="84"/>
-      <c r="AG2" s="84" t="str">
+      <c r="Z2" s="97"/>
+      <c r="AA2" s="97"/>
+      <c r="AB2" s="97"/>
+      <c r="AC2" s="97"/>
+      <c r="AD2" s="97"/>
+      <c r="AE2" s="97"/>
+      <c r="AF2" s="97"/>
+      <c r="AG2" s="97" t="str">
         <f ca="1">改版履歴!AG2</f>
         <v>1.0</v>
       </c>
-      <c r="AH2" s="84"/>
-      <c r="AI2" s="84"/>
-      <c r="AJ2" s="84"/>
-      <c r="AK2" s="84"/>
-      <c r="AL2" s="84"/>
-      <c r="AM2" s="84"/>
-      <c r="AN2" s="84"/>
-      <c r="AO2" s="84" t="str">
+      <c r="AH2" s="97"/>
+      <c r="AI2" s="97"/>
+      <c r="AJ2" s="97"/>
+      <c r="AK2" s="97"/>
+      <c r="AL2" s="97"/>
+      <c r="AM2" s="97"/>
+      <c r="AN2" s="97"/>
+      <c r="AO2" s="97" t="str">
         <f>改版履歴!AO2</f>
         <v>PGUSED020</v>
       </c>
-      <c r="AP2" s="84"/>
-      <c r="AQ2" s="84"/>
-      <c r="AR2" s="84"/>
-      <c r="AS2" s="84"/>
-      <c r="AT2" s="84"/>
-      <c r="AU2" s="84"/>
-      <c r="AV2" s="84"/>
+      <c r="AP2" s="97"/>
+      <c r="AQ2" s="97"/>
+      <c r="AR2" s="97"/>
+      <c r="AS2" s="97"/>
+      <c r="AT2" s="97"/>
+      <c r="AU2" s="97"/>
+      <c r="AV2" s="97"/>
     </row>
     <row r="4" spans="1:48" s="49" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A4" s="23"/>
@@ -14789,215 +14790,215 @@
   <sheetFormatPr defaultColWidth="3.09765625" defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <sheetData>
     <row r="1" spans="1:59" x14ac:dyDescent="0.45">
-      <c r="A1" s="86" t="str">
+      <c r="A1" s="99" t="str">
         <f ca="1">RIGHT(CELL("filename",A1),LEN(CELL("filename",A1))-FIND("]",CELL("filename",A1)))</f>
         <v>改版履歴</v>
       </c>
-      <c r="B1" s="87"/>
-      <c r="C1" s="87"/>
-      <c r="D1" s="87"/>
-      <c r="E1" s="87"/>
-      <c r="F1" s="87"/>
-      <c r="G1" s="87"/>
-      <c r="H1" s="87"/>
-      <c r="I1" s="90" t="s">
+      <c r="B1" s="100"/>
+      <c r="C1" s="100"/>
+      <c r="D1" s="100"/>
+      <c r="E1" s="100"/>
+      <c r="F1" s="100"/>
+      <c r="G1" s="100"/>
+      <c r="H1" s="100"/>
+      <c r="I1" s="103" t="s">
         <v>0</v>
       </c>
-      <c r="J1" s="90"/>
-      <c r="K1" s="90"/>
-      <c r="L1" s="90"/>
-      <c r="M1" s="90"/>
-      <c r="N1" s="90"/>
-      <c r="O1" s="90"/>
-      <c r="P1" s="90"/>
-      <c r="Q1" s="90" t="s">
+      <c r="J1" s="103"/>
+      <c r="K1" s="103"/>
+      <c r="L1" s="103"/>
+      <c r="M1" s="103"/>
+      <c r="N1" s="103"/>
+      <c r="O1" s="103"/>
+      <c r="P1" s="103"/>
+      <c r="Q1" s="103" t="s">
         <v>1</v>
       </c>
-      <c r="R1" s="90"/>
-      <c r="S1" s="90"/>
-      <c r="T1" s="90"/>
-      <c r="U1" s="90"/>
-      <c r="V1" s="90"/>
-      <c r="W1" s="90"/>
-      <c r="X1" s="90"/>
-      <c r="Y1" s="90" t="s">
+      <c r="R1" s="103"/>
+      <c r="S1" s="103"/>
+      <c r="T1" s="103"/>
+      <c r="U1" s="103"/>
+      <c r="V1" s="103"/>
+      <c r="W1" s="103"/>
+      <c r="X1" s="103"/>
+      <c r="Y1" s="103" t="s">
         <v>2</v>
       </c>
-      <c r="Z1" s="90"/>
-      <c r="AA1" s="90"/>
-      <c r="AB1" s="90"/>
-      <c r="AC1" s="90"/>
-      <c r="AD1" s="90"/>
-      <c r="AE1" s="90"/>
-      <c r="AF1" s="90"/>
-      <c r="AG1" s="90" t="s">
+      <c r="Z1" s="103"/>
+      <c r="AA1" s="103"/>
+      <c r="AB1" s="103"/>
+      <c r="AC1" s="103"/>
+      <c r="AD1" s="103"/>
+      <c r="AE1" s="103"/>
+      <c r="AF1" s="103"/>
+      <c r="AG1" s="103" t="s">
         <v>3</v>
       </c>
-      <c r="AH1" s="90"/>
-      <c r="AI1" s="90"/>
-      <c r="AJ1" s="90"/>
-      <c r="AK1" s="90"/>
-      <c r="AL1" s="90"/>
-      <c r="AM1" s="90"/>
-      <c r="AN1" s="90"/>
-      <c r="AO1" s="90" t="s">
+      <c r="AH1" s="103"/>
+      <c r="AI1" s="103"/>
+      <c r="AJ1" s="103"/>
+      <c r="AK1" s="103"/>
+      <c r="AL1" s="103"/>
+      <c r="AM1" s="103"/>
+      <c r="AN1" s="103"/>
+      <c r="AO1" s="103" t="s">
         <v>4</v>
       </c>
-      <c r="AP1" s="90"/>
-      <c r="AQ1" s="90"/>
-      <c r="AR1" s="90"/>
-      <c r="AS1" s="90"/>
-      <c r="AT1" s="90"/>
-      <c r="AU1" s="90"/>
-      <c r="AV1" s="90"/>
+      <c r="AP1" s="103"/>
+      <c r="AQ1" s="103"/>
+      <c r="AR1" s="103"/>
+      <c r="AS1" s="103"/>
+      <c r="AT1" s="103"/>
+      <c r="AU1" s="103"/>
+      <c r="AV1" s="103"/>
     </row>
     <row r="2" spans="1:59" x14ac:dyDescent="0.45">
-      <c r="A2" s="88"/>
-      <c r="B2" s="89"/>
-      <c r="C2" s="89"/>
-      <c r="D2" s="89"/>
-      <c r="E2" s="89"/>
-      <c r="F2" s="89"/>
-      <c r="G2" s="89"/>
-      <c r="H2" s="89"/>
-      <c r="I2" s="84" t="str">
+      <c r="A2" s="101"/>
+      <c r="B2" s="102"/>
+      <c r="C2" s="102"/>
+      <c r="D2" s="102"/>
+      <c r="E2" s="102"/>
+      <c r="F2" s="102"/>
+      <c r="G2" s="102"/>
+      <c r="H2" s="102"/>
+      <c r="I2" s="97" t="str">
         <f>表紙!$AX$4</f>
         <v>メインメニュー画面</v>
       </c>
-      <c r="J2" s="84"/>
-      <c r="K2" s="84"/>
-      <c r="L2" s="84"/>
-      <c r="M2" s="84"/>
-      <c r="N2" s="84"/>
-      <c r="O2" s="84"/>
-      <c r="P2" s="84"/>
-      <c r="Q2" s="91">
+      <c r="J2" s="97"/>
+      <c r="K2" s="97"/>
+      <c r="L2" s="97"/>
+      <c r="M2" s="97"/>
+      <c r="N2" s="97"/>
+      <c r="O2" s="97"/>
+      <c r="P2" s="97"/>
+      <c r="Q2" s="104">
         <f ca="1">INDIRECT("A"&amp;(COUNTA(A:H)+2))</f>
         <v>43933</v>
       </c>
-      <c r="R2" s="91"/>
-      <c r="S2" s="91"/>
-      <c r="T2" s="91"/>
-      <c r="U2" s="91"/>
-      <c r="V2" s="91"/>
-      <c r="W2" s="91"/>
-      <c r="X2" s="91"/>
-      <c r="Y2" s="92" t="str">
+      <c r="R2" s="104"/>
+      <c r="S2" s="104"/>
+      <c r="T2" s="104"/>
+      <c r="U2" s="104"/>
+      <c r="V2" s="104"/>
+      <c r="W2" s="104"/>
+      <c r="X2" s="104"/>
+      <c r="Y2" s="105" t="str">
         <f ca="1">INDIRECT("AO"&amp;(COUNTA(AO:AV)+1))</f>
         <v>Giphe</v>
       </c>
-      <c r="Z2" s="92"/>
-      <c r="AA2" s="92"/>
-      <c r="AB2" s="92"/>
-      <c r="AC2" s="92"/>
-      <c r="AD2" s="92"/>
-      <c r="AE2" s="92"/>
-      <c r="AF2" s="92"/>
-      <c r="AG2" s="92" t="str">
+      <c r="Z2" s="105"/>
+      <c r="AA2" s="105"/>
+      <c r="AB2" s="105"/>
+      <c r="AC2" s="105"/>
+      <c r="AD2" s="105"/>
+      <c r="AE2" s="105"/>
+      <c r="AF2" s="105"/>
+      <c r="AG2" s="105" t="str">
         <f ca="1">INDIRECT("I"&amp;(COUNTA(I:L)+1))</f>
         <v>1.0</v>
       </c>
-      <c r="AH2" s="92"/>
-      <c r="AI2" s="92"/>
-      <c r="AJ2" s="92"/>
-      <c r="AK2" s="92"/>
-      <c r="AL2" s="92"/>
-      <c r="AM2" s="92"/>
-      <c r="AN2" s="92"/>
-      <c r="AO2" s="84" t="str">
+      <c r="AH2" s="105"/>
+      <c r="AI2" s="105"/>
+      <c r="AJ2" s="105"/>
+      <c r="AK2" s="105"/>
+      <c r="AL2" s="105"/>
+      <c r="AM2" s="105"/>
+      <c r="AN2" s="105"/>
+      <c r="AO2" s="97" t="str">
         <f>表紙!$BC$4</f>
         <v>PGUSED020</v>
       </c>
-      <c r="AP2" s="84"/>
-      <c r="AQ2" s="84"/>
-      <c r="AR2" s="84"/>
-      <c r="AS2" s="84"/>
-      <c r="AT2" s="84"/>
-      <c r="AU2" s="84"/>
-      <c r="AV2" s="84"/>
-      <c r="AX2" s="104"/>
-      <c r="AY2" s="104"/>
-      <c r="AZ2" s="104"/>
-      <c r="BA2" s="104"/>
-      <c r="BB2" s="104"/>
-      <c r="BC2" s="105"/>
-      <c r="BD2" s="105"/>
-      <c r="BE2" s="105"/>
-      <c r="BF2" s="105"/>
-      <c r="BG2" s="105"/>
+      <c r="AP2" s="97"/>
+      <c r="AQ2" s="97"/>
+      <c r="AR2" s="97"/>
+      <c r="AS2" s="97"/>
+      <c r="AT2" s="97"/>
+      <c r="AU2" s="97"/>
+      <c r="AV2" s="97"/>
+      <c r="AX2" s="83"/>
+      <c r="AY2" s="83"/>
+      <c r="AZ2" s="83"/>
+      <c r="BA2" s="83"/>
+      <c r="BB2" s="83"/>
+      <c r="BC2" s="84"/>
+      <c r="BD2" s="84"/>
+      <c r="BE2" s="84"/>
+      <c r="BF2" s="84"/>
+      <c r="BG2" s="84"/>
     </row>
     <row r="3" spans="1:59" x14ac:dyDescent="0.45">
-      <c r="AX3" s="104"/>
-      <c r="AY3" s="104"/>
-      <c r="AZ3" s="104"/>
-      <c r="BA3" s="104"/>
-      <c r="BB3" s="104"/>
-      <c r="BC3" s="105"/>
-      <c r="BD3" s="105"/>
-      <c r="BE3" s="105"/>
-      <c r="BF3" s="105"/>
-      <c r="BG3" s="105"/>
+      <c r="AX3" s="83"/>
+      <c r="AY3" s="83"/>
+      <c r="AZ3" s="83"/>
+      <c r="BA3" s="83"/>
+      <c r="BB3" s="83"/>
+      <c r="BC3" s="84"/>
+      <c r="BD3" s="84"/>
+      <c r="BE3" s="84"/>
+      <c r="BF3" s="84"/>
+      <c r="BG3" s="84"/>
     </row>
     <row r="4" spans="1:59" x14ac:dyDescent="0.45">
-      <c r="A4" s="85" t="s">
+      <c r="A4" s="98" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="85"/>
-      <c r="C4" s="85"/>
-      <c r="D4" s="85"/>
-      <c r="E4" s="85"/>
-      <c r="F4" s="85"/>
-      <c r="G4" s="85"/>
-      <c r="H4" s="85"/>
-      <c r="I4" s="100" t="s">
+      <c r="B4" s="98"/>
+      <c r="C4" s="98"/>
+      <c r="D4" s="98"/>
+      <c r="E4" s="98"/>
+      <c r="F4" s="98"/>
+      <c r="G4" s="98"/>
+      <c r="H4" s="98"/>
+      <c r="I4" s="92" t="s">
         <v>5</v>
       </c>
-      <c r="J4" s="101"/>
-      <c r="K4" s="101"/>
-      <c r="L4" s="102"/>
-      <c r="M4" s="93" t="s">
+      <c r="J4" s="93"/>
+      <c r="K4" s="93"/>
+      <c r="L4" s="94"/>
+      <c r="M4" s="89" t="s">
         <v>6</v>
       </c>
-      <c r="N4" s="94"/>
-      <c r="O4" s="94"/>
-      <c r="P4" s="94"/>
-      <c r="Q4" s="94"/>
-      <c r="R4" s="94"/>
-      <c r="S4" s="94"/>
-      <c r="T4" s="94"/>
-      <c r="U4" s="94"/>
-      <c r="V4" s="94"/>
-      <c r="W4" s="94"/>
-      <c r="X4" s="94"/>
-      <c r="Y4" s="94"/>
-      <c r="Z4" s="94"/>
-      <c r="AA4" s="94"/>
-      <c r="AB4" s="94"/>
-      <c r="AC4" s="94"/>
-      <c r="AD4" s="94"/>
-      <c r="AE4" s="94"/>
-      <c r="AF4" s="94"/>
-      <c r="AG4" s="94"/>
-      <c r="AH4" s="94"/>
-      <c r="AI4" s="94"/>
-      <c r="AJ4" s="94"/>
-      <c r="AK4" s="94"/>
-      <c r="AL4" s="94"/>
-      <c r="AM4" s="94"/>
-      <c r="AN4" s="95"/>
-      <c r="AO4" s="93" t="s">
+      <c r="N4" s="90"/>
+      <c r="O4" s="90"/>
+      <c r="P4" s="90"/>
+      <c r="Q4" s="90"/>
+      <c r="R4" s="90"/>
+      <c r="S4" s="90"/>
+      <c r="T4" s="90"/>
+      <c r="U4" s="90"/>
+      <c r="V4" s="90"/>
+      <c r="W4" s="90"/>
+      <c r="X4" s="90"/>
+      <c r="Y4" s="90"/>
+      <c r="Z4" s="90"/>
+      <c r="AA4" s="90"/>
+      <c r="AB4" s="90"/>
+      <c r="AC4" s="90"/>
+      <c r="AD4" s="90"/>
+      <c r="AE4" s="90"/>
+      <c r="AF4" s="90"/>
+      <c r="AG4" s="90"/>
+      <c r="AH4" s="90"/>
+      <c r="AI4" s="90"/>
+      <c r="AJ4" s="90"/>
+      <c r="AK4" s="90"/>
+      <c r="AL4" s="90"/>
+      <c r="AM4" s="90"/>
+      <c r="AN4" s="91"/>
+      <c r="AO4" s="89" t="s">
         <v>2</v>
       </c>
-      <c r="AP4" s="94"/>
-      <c r="AQ4" s="94"/>
-      <c r="AR4" s="94"/>
-      <c r="AS4" s="94"/>
-      <c r="AT4" s="94"/>
-      <c r="AU4" s="94"/>
-      <c r="AV4" s="95"/>
+      <c r="AP4" s="90"/>
+      <c r="AQ4" s="90"/>
+      <c r="AR4" s="90"/>
+      <c r="AS4" s="90"/>
+      <c r="AT4" s="90"/>
+      <c r="AU4" s="90"/>
+      <c r="AV4" s="91"/>
     </row>
     <row r="5" spans="1:59" x14ac:dyDescent="0.45">
-      <c r="A5" s="83">
+      <c r="A5" s="96">
         <v>43933</v>
       </c>
       <c r="B5" s="82"/>
@@ -15007,52 +15008,52 @@
       <c r="F5" s="82"/>
       <c r="G5" s="82"/>
       <c r="H5" s="82"/>
-      <c r="I5" s="103" t="s">
+      <c r="I5" s="95" t="s">
         <v>9</v>
       </c>
-      <c r="J5" s="103"/>
-      <c r="K5" s="103"/>
-      <c r="L5" s="103"/>
-      <c r="M5" s="96" t="s">
+      <c r="J5" s="95"/>
+      <c r="K5" s="95"/>
+      <c r="L5" s="95"/>
+      <c r="M5" s="85" t="s">
         <v>7</v>
       </c>
-      <c r="N5" s="97"/>
-      <c r="O5" s="97"/>
-      <c r="P5" s="97"/>
-      <c r="Q5" s="97"/>
-      <c r="R5" s="97"/>
-      <c r="S5" s="97"/>
-      <c r="T5" s="97"/>
-      <c r="U5" s="97"/>
-      <c r="V5" s="97"/>
-      <c r="W5" s="97"/>
-      <c r="X5" s="97"/>
-      <c r="Y5" s="97"/>
-      <c r="Z5" s="97"/>
-      <c r="AA5" s="97"/>
-      <c r="AB5" s="97"/>
-      <c r="AC5" s="97"/>
-      <c r="AD5" s="97"/>
-      <c r="AE5" s="97"/>
-      <c r="AF5" s="97"/>
-      <c r="AG5" s="97"/>
-      <c r="AH5" s="97"/>
-      <c r="AI5" s="97"/>
-      <c r="AJ5" s="97"/>
-      <c r="AK5" s="97"/>
-      <c r="AL5" s="97"/>
-      <c r="AM5" s="97"/>
-      <c r="AN5" s="98"/>
-      <c r="AO5" s="96" t="s">
+      <c r="N5" s="86"/>
+      <c r="O5" s="86"/>
+      <c r="P5" s="86"/>
+      <c r="Q5" s="86"/>
+      <c r="R5" s="86"/>
+      <c r="S5" s="86"/>
+      <c r="T5" s="86"/>
+      <c r="U5" s="86"/>
+      <c r="V5" s="86"/>
+      <c r="W5" s="86"/>
+      <c r="X5" s="86"/>
+      <c r="Y5" s="86"/>
+      <c r="Z5" s="86"/>
+      <c r="AA5" s="86"/>
+      <c r="AB5" s="86"/>
+      <c r="AC5" s="86"/>
+      <c r="AD5" s="86"/>
+      <c r="AE5" s="86"/>
+      <c r="AF5" s="86"/>
+      <c r="AG5" s="86"/>
+      <c r="AH5" s="86"/>
+      <c r="AI5" s="86"/>
+      <c r="AJ5" s="86"/>
+      <c r="AK5" s="86"/>
+      <c r="AL5" s="86"/>
+      <c r="AM5" s="86"/>
+      <c r="AN5" s="87"/>
+      <c r="AO5" s="85" t="s">
         <v>8</v>
       </c>
-      <c r="AP5" s="97"/>
-      <c r="AQ5" s="97"/>
-      <c r="AR5" s="97"/>
-      <c r="AS5" s="97"/>
-      <c r="AT5" s="97"/>
-      <c r="AU5" s="97"/>
-      <c r="AV5" s="98"/>
+      <c r="AP5" s="86"/>
+      <c r="AQ5" s="86"/>
+      <c r="AR5" s="86"/>
+      <c r="AS5" s="86"/>
+      <c r="AT5" s="86"/>
+      <c r="AU5" s="86"/>
+      <c r="AV5" s="87"/>
     </row>
     <row r="6" spans="1:59" x14ac:dyDescent="0.45">
       <c r="A6" s="82"/>
@@ -15063,46 +15064,46 @@
       <c r="F6" s="82"/>
       <c r="G6" s="82"/>
       <c r="H6" s="82"/>
-      <c r="I6" s="99"/>
-      <c r="J6" s="99"/>
-      <c r="K6" s="99"/>
-      <c r="L6" s="99"/>
-      <c r="M6" s="96"/>
-      <c r="N6" s="97"/>
-      <c r="O6" s="97"/>
-      <c r="P6" s="97"/>
-      <c r="Q6" s="97"/>
-      <c r="R6" s="97"/>
-      <c r="S6" s="97"/>
-      <c r="T6" s="97"/>
-      <c r="U6" s="97"/>
-      <c r="V6" s="97"/>
-      <c r="W6" s="97"/>
-      <c r="X6" s="97"/>
-      <c r="Y6" s="97"/>
-      <c r="Z6" s="97"/>
-      <c r="AA6" s="97"/>
-      <c r="AB6" s="97"/>
-      <c r="AC6" s="97"/>
-      <c r="AD6" s="97"/>
-      <c r="AE6" s="97"/>
-      <c r="AF6" s="97"/>
-      <c r="AG6" s="97"/>
-      <c r="AH6" s="97"/>
-      <c r="AI6" s="97"/>
-      <c r="AJ6" s="97"/>
-      <c r="AK6" s="97"/>
-      <c r="AL6" s="97"/>
-      <c r="AM6" s="97"/>
-      <c r="AN6" s="98"/>
-      <c r="AO6" s="96"/>
-      <c r="AP6" s="97"/>
-      <c r="AQ6" s="97"/>
-      <c r="AR6" s="97"/>
-      <c r="AS6" s="97"/>
-      <c r="AT6" s="97"/>
-      <c r="AU6" s="97"/>
-      <c r="AV6" s="98"/>
+      <c r="I6" s="88"/>
+      <c r="J6" s="88"/>
+      <c r="K6" s="88"/>
+      <c r="L6" s="88"/>
+      <c r="M6" s="85"/>
+      <c r="N6" s="86"/>
+      <c r="O6" s="86"/>
+      <c r="P6" s="86"/>
+      <c r="Q6" s="86"/>
+      <c r="R6" s="86"/>
+      <c r="S6" s="86"/>
+      <c r="T6" s="86"/>
+      <c r="U6" s="86"/>
+      <c r="V6" s="86"/>
+      <c r="W6" s="86"/>
+      <c r="X6" s="86"/>
+      <c r="Y6" s="86"/>
+      <c r="Z6" s="86"/>
+      <c r="AA6" s="86"/>
+      <c r="AB6" s="86"/>
+      <c r="AC6" s="86"/>
+      <c r="AD6" s="86"/>
+      <c r="AE6" s="86"/>
+      <c r="AF6" s="86"/>
+      <c r="AG6" s="86"/>
+      <c r="AH6" s="86"/>
+      <c r="AI6" s="86"/>
+      <c r="AJ6" s="86"/>
+      <c r="AK6" s="86"/>
+      <c r="AL6" s="86"/>
+      <c r="AM6" s="86"/>
+      <c r="AN6" s="87"/>
+      <c r="AO6" s="85"/>
+      <c r="AP6" s="86"/>
+      <c r="AQ6" s="86"/>
+      <c r="AR6" s="86"/>
+      <c r="AS6" s="86"/>
+      <c r="AT6" s="86"/>
+      <c r="AU6" s="86"/>
+      <c r="AV6" s="87"/>
     </row>
     <row r="7" spans="1:59" x14ac:dyDescent="0.45">
       <c r="A7" s="82"/>
@@ -15113,46 +15114,46 @@
       <c r="F7" s="82"/>
       <c r="G7" s="82"/>
       <c r="H7" s="82"/>
-      <c r="I7" s="99"/>
-      <c r="J7" s="99"/>
-      <c r="K7" s="99"/>
-      <c r="L7" s="99"/>
-      <c r="M7" s="96"/>
-      <c r="N7" s="97"/>
-      <c r="O7" s="97"/>
-      <c r="P7" s="97"/>
-      <c r="Q7" s="97"/>
-      <c r="R7" s="97"/>
-      <c r="S7" s="97"/>
-      <c r="T7" s="97"/>
-      <c r="U7" s="97"/>
-      <c r="V7" s="97"/>
-      <c r="W7" s="97"/>
-      <c r="X7" s="97"/>
-      <c r="Y7" s="97"/>
-      <c r="Z7" s="97"/>
-      <c r="AA7" s="97"/>
-      <c r="AB7" s="97"/>
-      <c r="AC7" s="97"/>
-      <c r="AD7" s="97"/>
-      <c r="AE7" s="97"/>
-      <c r="AF7" s="97"/>
-      <c r="AG7" s="97"/>
-      <c r="AH7" s="97"/>
-      <c r="AI7" s="97"/>
-      <c r="AJ7" s="97"/>
-      <c r="AK7" s="97"/>
-      <c r="AL7" s="97"/>
-      <c r="AM7" s="97"/>
-      <c r="AN7" s="98"/>
-      <c r="AO7" s="96"/>
-      <c r="AP7" s="97"/>
-      <c r="AQ7" s="97"/>
-      <c r="AR7" s="97"/>
-      <c r="AS7" s="97"/>
-      <c r="AT7" s="97"/>
-      <c r="AU7" s="97"/>
-      <c r="AV7" s="98"/>
+      <c r="I7" s="88"/>
+      <c r="J7" s="88"/>
+      <c r="K7" s="88"/>
+      <c r="L7" s="88"/>
+      <c r="M7" s="85"/>
+      <c r="N7" s="86"/>
+      <c r="O7" s="86"/>
+      <c r="P7" s="86"/>
+      <c r="Q7" s="86"/>
+      <c r="R7" s="86"/>
+      <c r="S7" s="86"/>
+      <c r="T7" s="86"/>
+      <c r="U7" s="86"/>
+      <c r="V7" s="86"/>
+      <c r="W7" s="86"/>
+      <c r="X7" s="86"/>
+      <c r="Y7" s="86"/>
+      <c r="Z7" s="86"/>
+      <c r="AA7" s="86"/>
+      <c r="AB7" s="86"/>
+      <c r="AC7" s="86"/>
+      <c r="AD7" s="86"/>
+      <c r="AE7" s="86"/>
+      <c r="AF7" s="86"/>
+      <c r="AG7" s="86"/>
+      <c r="AH7" s="86"/>
+      <c r="AI7" s="86"/>
+      <c r="AJ7" s="86"/>
+      <c r="AK7" s="86"/>
+      <c r="AL7" s="86"/>
+      <c r="AM7" s="86"/>
+      <c r="AN7" s="87"/>
+      <c r="AO7" s="85"/>
+      <c r="AP7" s="86"/>
+      <c r="AQ7" s="86"/>
+      <c r="AR7" s="86"/>
+      <c r="AS7" s="86"/>
+      <c r="AT7" s="86"/>
+      <c r="AU7" s="86"/>
+      <c r="AV7" s="87"/>
     </row>
     <row r="8" spans="1:59" x14ac:dyDescent="0.45">
       <c r="A8" s="82"/>
@@ -15163,46 +15164,46 @@
       <c r="F8" s="82"/>
       <c r="G8" s="82"/>
       <c r="H8" s="82"/>
-      <c r="I8" s="99"/>
-      <c r="J8" s="99"/>
-      <c r="K8" s="99"/>
-      <c r="L8" s="99"/>
-      <c r="M8" s="96"/>
-      <c r="N8" s="97"/>
-      <c r="O8" s="97"/>
-      <c r="P8" s="97"/>
-      <c r="Q8" s="97"/>
-      <c r="R8" s="97"/>
-      <c r="S8" s="97"/>
-      <c r="T8" s="97"/>
-      <c r="U8" s="97"/>
-      <c r="V8" s="97"/>
-      <c r="W8" s="97"/>
-      <c r="X8" s="97"/>
-      <c r="Y8" s="97"/>
-      <c r="Z8" s="97"/>
-      <c r="AA8" s="97"/>
-      <c r="AB8" s="97"/>
-      <c r="AC8" s="97"/>
-      <c r="AD8" s="97"/>
-      <c r="AE8" s="97"/>
-      <c r="AF8" s="97"/>
-      <c r="AG8" s="97"/>
-      <c r="AH8" s="97"/>
-      <c r="AI8" s="97"/>
-      <c r="AJ8" s="97"/>
-      <c r="AK8" s="97"/>
-      <c r="AL8" s="97"/>
-      <c r="AM8" s="97"/>
-      <c r="AN8" s="98"/>
-      <c r="AO8" s="96"/>
-      <c r="AP8" s="97"/>
-      <c r="AQ8" s="97"/>
-      <c r="AR8" s="97"/>
-      <c r="AS8" s="97"/>
-      <c r="AT8" s="97"/>
-      <c r="AU8" s="97"/>
-      <c r="AV8" s="98"/>
+      <c r="I8" s="88"/>
+      <c r="J8" s="88"/>
+      <c r="K8" s="88"/>
+      <c r="L8" s="88"/>
+      <c r="M8" s="85"/>
+      <c r="N8" s="86"/>
+      <c r="O8" s="86"/>
+      <c r="P8" s="86"/>
+      <c r="Q8" s="86"/>
+      <c r="R8" s="86"/>
+      <c r="S8" s="86"/>
+      <c r="T8" s="86"/>
+      <c r="U8" s="86"/>
+      <c r="V8" s="86"/>
+      <c r="W8" s="86"/>
+      <c r="X8" s="86"/>
+      <c r="Y8" s="86"/>
+      <c r="Z8" s="86"/>
+      <c r="AA8" s="86"/>
+      <c r="AB8" s="86"/>
+      <c r="AC8" s="86"/>
+      <c r="AD8" s="86"/>
+      <c r="AE8" s="86"/>
+      <c r="AF8" s="86"/>
+      <c r="AG8" s="86"/>
+      <c r="AH8" s="86"/>
+      <c r="AI8" s="86"/>
+      <c r="AJ8" s="86"/>
+      <c r="AK8" s="86"/>
+      <c r="AL8" s="86"/>
+      <c r="AM8" s="86"/>
+      <c r="AN8" s="87"/>
+      <c r="AO8" s="85"/>
+      <c r="AP8" s="86"/>
+      <c r="AQ8" s="86"/>
+      <c r="AR8" s="86"/>
+      <c r="AS8" s="86"/>
+      <c r="AT8" s="86"/>
+      <c r="AU8" s="86"/>
+      <c r="AV8" s="87"/>
     </row>
     <row r="9" spans="1:59" x14ac:dyDescent="0.45">
       <c r="A9" s="82"/>
@@ -15213,46 +15214,46 @@
       <c r="F9" s="82"/>
       <c r="G9" s="82"/>
       <c r="H9" s="82"/>
-      <c r="I9" s="99"/>
-      <c r="J9" s="99"/>
-      <c r="K9" s="99"/>
-      <c r="L9" s="99"/>
-      <c r="M9" s="96"/>
-      <c r="N9" s="97"/>
-      <c r="O9" s="97"/>
-      <c r="P9" s="97"/>
-      <c r="Q9" s="97"/>
-      <c r="R9" s="97"/>
-      <c r="S9" s="97"/>
-      <c r="T9" s="97"/>
-      <c r="U9" s="97"/>
-      <c r="V9" s="97"/>
-      <c r="W9" s="97"/>
-      <c r="X9" s="97"/>
-      <c r="Y9" s="97"/>
-      <c r="Z9" s="97"/>
-      <c r="AA9" s="97"/>
-      <c r="AB9" s="97"/>
-      <c r="AC9" s="97"/>
-      <c r="AD9" s="97"/>
-      <c r="AE9" s="97"/>
-      <c r="AF9" s="97"/>
-      <c r="AG9" s="97"/>
-      <c r="AH9" s="97"/>
-      <c r="AI9" s="97"/>
-      <c r="AJ9" s="97"/>
-      <c r="AK9" s="97"/>
-      <c r="AL9" s="97"/>
-      <c r="AM9" s="97"/>
-      <c r="AN9" s="98"/>
-      <c r="AO9" s="96"/>
-      <c r="AP9" s="97"/>
-      <c r="AQ9" s="97"/>
-      <c r="AR9" s="97"/>
-      <c r="AS9" s="97"/>
-      <c r="AT9" s="97"/>
-      <c r="AU9" s="97"/>
-      <c r="AV9" s="98"/>
+      <c r="I9" s="88"/>
+      <c r="J9" s="88"/>
+      <c r="K9" s="88"/>
+      <c r="L9" s="88"/>
+      <c r="M9" s="85"/>
+      <c r="N9" s="86"/>
+      <c r="O9" s="86"/>
+      <c r="P9" s="86"/>
+      <c r="Q9" s="86"/>
+      <c r="R9" s="86"/>
+      <c r="S9" s="86"/>
+      <c r="T9" s="86"/>
+      <c r="U9" s="86"/>
+      <c r="V9" s="86"/>
+      <c r="W9" s="86"/>
+      <c r="X9" s="86"/>
+      <c r="Y9" s="86"/>
+      <c r="Z9" s="86"/>
+      <c r="AA9" s="86"/>
+      <c r="AB9" s="86"/>
+      <c r="AC9" s="86"/>
+      <c r="AD9" s="86"/>
+      <c r="AE9" s="86"/>
+      <c r="AF9" s="86"/>
+      <c r="AG9" s="86"/>
+      <c r="AH9" s="86"/>
+      <c r="AI9" s="86"/>
+      <c r="AJ9" s="86"/>
+      <c r="AK9" s="86"/>
+      <c r="AL9" s="86"/>
+      <c r="AM9" s="86"/>
+      <c r="AN9" s="87"/>
+      <c r="AO9" s="85"/>
+      <c r="AP9" s="86"/>
+      <c r="AQ9" s="86"/>
+      <c r="AR9" s="86"/>
+      <c r="AS9" s="86"/>
+      <c r="AT9" s="86"/>
+      <c r="AU9" s="86"/>
+      <c r="AV9" s="87"/>
     </row>
     <row r="10" spans="1:59" x14ac:dyDescent="0.45">
       <c r="A10" s="82"/>
@@ -15263,46 +15264,46 @@
       <c r="F10" s="82"/>
       <c r="G10" s="82"/>
       <c r="H10" s="82"/>
-      <c r="I10" s="99"/>
-      <c r="J10" s="99"/>
-      <c r="K10" s="99"/>
-      <c r="L10" s="99"/>
-      <c r="M10" s="96"/>
-      <c r="N10" s="97"/>
-      <c r="O10" s="97"/>
-      <c r="P10" s="97"/>
-      <c r="Q10" s="97"/>
-      <c r="R10" s="97"/>
-      <c r="S10" s="97"/>
-      <c r="T10" s="97"/>
-      <c r="U10" s="97"/>
-      <c r="V10" s="97"/>
-      <c r="W10" s="97"/>
-      <c r="X10" s="97"/>
-      <c r="Y10" s="97"/>
-      <c r="Z10" s="97"/>
-      <c r="AA10" s="97"/>
-      <c r="AB10" s="97"/>
-      <c r="AC10" s="97"/>
-      <c r="AD10" s="97"/>
-      <c r="AE10" s="97"/>
-      <c r="AF10" s="97"/>
-      <c r="AG10" s="97"/>
-      <c r="AH10" s="97"/>
-      <c r="AI10" s="97"/>
-      <c r="AJ10" s="97"/>
-      <c r="AK10" s="97"/>
-      <c r="AL10" s="97"/>
-      <c r="AM10" s="97"/>
-      <c r="AN10" s="98"/>
-      <c r="AO10" s="96"/>
-      <c r="AP10" s="97"/>
-      <c r="AQ10" s="97"/>
-      <c r="AR10" s="97"/>
-      <c r="AS10" s="97"/>
-      <c r="AT10" s="97"/>
-      <c r="AU10" s="97"/>
-      <c r="AV10" s="98"/>
+      <c r="I10" s="88"/>
+      <c r="J10" s="88"/>
+      <c r="K10" s="88"/>
+      <c r="L10" s="88"/>
+      <c r="M10" s="85"/>
+      <c r="N10" s="86"/>
+      <c r="O10" s="86"/>
+      <c r="P10" s="86"/>
+      <c r="Q10" s="86"/>
+      <c r="R10" s="86"/>
+      <c r="S10" s="86"/>
+      <c r="T10" s="86"/>
+      <c r="U10" s="86"/>
+      <c r="V10" s="86"/>
+      <c r="W10" s="86"/>
+      <c r="X10" s="86"/>
+      <c r="Y10" s="86"/>
+      <c r="Z10" s="86"/>
+      <c r="AA10" s="86"/>
+      <c r="AB10" s="86"/>
+      <c r="AC10" s="86"/>
+      <c r="AD10" s="86"/>
+      <c r="AE10" s="86"/>
+      <c r="AF10" s="86"/>
+      <c r="AG10" s="86"/>
+      <c r="AH10" s="86"/>
+      <c r="AI10" s="86"/>
+      <c r="AJ10" s="86"/>
+      <c r="AK10" s="86"/>
+      <c r="AL10" s="86"/>
+      <c r="AM10" s="86"/>
+      <c r="AN10" s="87"/>
+      <c r="AO10" s="85"/>
+      <c r="AP10" s="86"/>
+      <c r="AQ10" s="86"/>
+      <c r="AR10" s="86"/>
+      <c r="AS10" s="86"/>
+      <c r="AT10" s="86"/>
+      <c r="AU10" s="86"/>
+      <c r="AV10" s="87"/>
     </row>
     <row r="11" spans="1:59" x14ac:dyDescent="0.45">
       <c r="A11" s="82"/>
@@ -15313,46 +15314,46 @@
       <c r="F11" s="82"/>
       <c r="G11" s="82"/>
       <c r="H11" s="82"/>
-      <c r="I11" s="99"/>
-      <c r="J11" s="99"/>
-      <c r="K11" s="99"/>
-      <c r="L11" s="99"/>
-      <c r="M11" s="96"/>
-      <c r="N11" s="97"/>
-      <c r="O11" s="97"/>
-      <c r="P11" s="97"/>
-      <c r="Q11" s="97"/>
-      <c r="R11" s="97"/>
-      <c r="S11" s="97"/>
-      <c r="T11" s="97"/>
-      <c r="U11" s="97"/>
-      <c r="V11" s="97"/>
-      <c r="W11" s="97"/>
-      <c r="X11" s="97"/>
-      <c r="Y11" s="97"/>
-      <c r="Z11" s="97"/>
-      <c r="AA11" s="97"/>
-      <c r="AB11" s="97"/>
-      <c r="AC11" s="97"/>
-      <c r="AD11" s="97"/>
-      <c r="AE11" s="97"/>
-      <c r="AF11" s="97"/>
-      <c r="AG11" s="97"/>
-      <c r="AH11" s="97"/>
-      <c r="AI11" s="97"/>
-      <c r="AJ11" s="97"/>
-      <c r="AK11" s="97"/>
-      <c r="AL11" s="97"/>
-      <c r="AM11" s="97"/>
-      <c r="AN11" s="98"/>
-      <c r="AO11" s="96"/>
-      <c r="AP11" s="97"/>
-      <c r="AQ11" s="97"/>
-      <c r="AR11" s="97"/>
-      <c r="AS11" s="97"/>
-      <c r="AT11" s="97"/>
-      <c r="AU11" s="97"/>
-      <c r="AV11" s="98"/>
+      <c r="I11" s="88"/>
+      <c r="J11" s="88"/>
+      <c r="K11" s="88"/>
+      <c r="L11" s="88"/>
+      <c r="M11" s="85"/>
+      <c r="N11" s="86"/>
+      <c r="O11" s="86"/>
+      <c r="P11" s="86"/>
+      <c r="Q11" s="86"/>
+      <c r="R11" s="86"/>
+      <c r="S11" s="86"/>
+      <c r="T11" s="86"/>
+      <c r="U11" s="86"/>
+      <c r="V11" s="86"/>
+      <c r="W11" s="86"/>
+      <c r="X11" s="86"/>
+      <c r="Y11" s="86"/>
+      <c r="Z11" s="86"/>
+      <c r="AA11" s="86"/>
+      <c r="AB11" s="86"/>
+      <c r="AC11" s="86"/>
+      <c r="AD11" s="86"/>
+      <c r="AE11" s="86"/>
+      <c r="AF11" s="86"/>
+      <c r="AG11" s="86"/>
+      <c r="AH11" s="86"/>
+      <c r="AI11" s="86"/>
+      <c r="AJ11" s="86"/>
+      <c r="AK11" s="86"/>
+      <c r="AL11" s="86"/>
+      <c r="AM11" s="86"/>
+      <c r="AN11" s="87"/>
+      <c r="AO11" s="85"/>
+      <c r="AP11" s="86"/>
+      <c r="AQ11" s="86"/>
+      <c r="AR11" s="86"/>
+      <c r="AS11" s="86"/>
+      <c r="AT11" s="86"/>
+      <c r="AU11" s="86"/>
+      <c r="AV11" s="87"/>
     </row>
     <row r="12" spans="1:59" x14ac:dyDescent="0.45">
       <c r="A12" s="82"/>
@@ -15363,46 +15364,46 @@
       <c r="F12" s="82"/>
       <c r="G12" s="82"/>
       <c r="H12" s="82"/>
-      <c r="I12" s="99"/>
-      <c r="J12" s="99"/>
-      <c r="K12" s="99"/>
-      <c r="L12" s="99"/>
-      <c r="M12" s="96"/>
-      <c r="N12" s="97"/>
-      <c r="O12" s="97"/>
-      <c r="P12" s="97"/>
-      <c r="Q12" s="97"/>
-      <c r="R12" s="97"/>
-      <c r="S12" s="97"/>
-      <c r="T12" s="97"/>
-      <c r="U12" s="97"/>
-      <c r="V12" s="97"/>
-      <c r="W12" s="97"/>
-      <c r="X12" s="97"/>
-      <c r="Y12" s="97"/>
-      <c r="Z12" s="97"/>
-      <c r="AA12" s="97"/>
-      <c r="AB12" s="97"/>
-      <c r="AC12" s="97"/>
-      <c r="AD12" s="97"/>
-      <c r="AE12" s="97"/>
-      <c r="AF12" s="97"/>
-      <c r="AG12" s="97"/>
-      <c r="AH12" s="97"/>
-      <c r="AI12" s="97"/>
-      <c r="AJ12" s="97"/>
-      <c r="AK12" s="97"/>
-      <c r="AL12" s="97"/>
-      <c r="AM12" s="97"/>
-      <c r="AN12" s="98"/>
-      <c r="AO12" s="96"/>
-      <c r="AP12" s="97"/>
-      <c r="AQ12" s="97"/>
-      <c r="AR12" s="97"/>
-      <c r="AS12" s="97"/>
-      <c r="AT12" s="97"/>
-      <c r="AU12" s="97"/>
-      <c r="AV12" s="98"/>
+      <c r="I12" s="88"/>
+      <c r="J12" s="88"/>
+      <c r="K12" s="88"/>
+      <c r="L12" s="88"/>
+      <c r="M12" s="85"/>
+      <c r="N12" s="86"/>
+      <c r="O12" s="86"/>
+      <c r="P12" s="86"/>
+      <c r="Q12" s="86"/>
+      <c r="R12" s="86"/>
+      <c r="S12" s="86"/>
+      <c r="T12" s="86"/>
+      <c r="U12" s="86"/>
+      <c r="V12" s="86"/>
+      <c r="W12" s="86"/>
+      <c r="X12" s="86"/>
+      <c r="Y12" s="86"/>
+      <c r="Z12" s="86"/>
+      <c r="AA12" s="86"/>
+      <c r="AB12" s="86"/>
+      <c r="AC12" s="86"/>
+      <c r="AD12" s="86"/>
+      <c r="AE12" s="86"/>
+      <c r="AF12" s="86"/>
+      <c r="AG12" s="86"/>
+      <c r="AH12" s="86"/>
+      <c r="AI12" s="86"/>
+      <c r="AJ12" s="86"/>
+      <c r="AK12" s="86"/>
+      <c r="AL12" s="86"/>
+      <c r="AM12" s="86"/>
+      <c r="AN12" s="87"/>
+      <c r="AO12" s="85"/>
+      <c r="AP12" s="86"/>
+      <c r="AQ12" s="86"/>
+      <c r="AR12" s="86"/>
+      <c r="AS12" s="86"/>
+      <c r="AT12" s="86"/>
+      <c r="AU12" s="86"/>
+      <c r="AV12" s="87"/>
     </row>
     <row r="13" spans="1:59" x14ac:dyDescent="0.45">
       <c r="A13" s="82"/>
@@ -15413,46 +15414,46 @@
       <c r="F13" s="82"/>
       <c r="G13" s="82"/>
       <c r="H13" s="82"/>
-      <c r="I13" s="99"/>
-      <c r="J13" s="99"/>
-      <c r="K13" s="99"/>
-      <c r="L13" s="99"/>
-      <c r="M13" s="96"/>
-      <c r="N13" s="97"/>
-      <c r="O13" s="97"/>
-      <c r="P13" s="97"/>
-      <c r="Q13" s="97"/>
-      <c r="R13" s="97"/>
-      <c r="S13" s="97"/>
-      <c r="T13" s="97"/>
-      <c r="U13" s="97"/>
-      <c r="V13" s="97"/>
-      <c r="W13" s="97"/>
-      <c r="X13" s="97"/>
-      <c r="Y13" s="97"/>
-      <c r="Z13" s="97"/>
-      <c r="AA13" s="97"/>
-      <c r="AB13" s="97"/>
-      <c r="AC13" s="97"/>
-      <c r="AD13" s="97"/>
-      <c r="AE13" s="97"/>
-      <c r="AF13" s="97"/>
-      <c r="AG13" s="97"/>
-      <c r="AH13" s="97"/>
-      <c r="AI13" s="97"/>
-      <c r="AJ13" s="97"/>
-      <c r="AK13" s="97"/>
-      <c r="AL13" s="97"/>
-      <c r="AM13" s="97"/>
-      <c r="AN13" s="98"/>
-      <c r="AO13" s="96"/>
-      <c r="AP13" s="97"/>
-      <c r="AQ13" s="97"/>
-      <c r="AR13" s="97"/>
-      <c r="AS13" s="97"/>
-      <c r="AT13" s="97"/>
-      <c r="AU13" s="97"/>
-      <c r="AV13" s="98"/>
+      <c r="I13" s="88"/>
+      <c r="J13" s="88"/>
+      <c r="K13" s="88"/>
+      <c r="L13" s="88"/>
+      <c r="M13" s="85"/>
+      <c r="N13" s="86"/>
+      <c r="O13" s="86"/>
+      <c r="P13" s="86"/>
+      <c r="Q13" s="86"/>
+      <c r="R13" s="86"/>
+      <c r="S13" s="86"/>
+      <c r="T13" s="86"/>
+      <c r="U13" s="86"/>
+      <c r="V13" s="86"/>
+      <c r="W13" s="86"/>
+      <c r="X13" s="86"/>
+      <c r="Y13" s="86"/>
+      <c r="Z13" s="86"/>
+      <c r="AA13" s="86"/>
+      <c r="AB13" s="86"/>
+      <c r="AC13" s="86"/>
+      <c r="AD13" s="86"/>
+      <c r="AE13" s="86"/>
+      <c r="AF13" s="86"/>
+      <c r="AG13" s="86"/>
+      <c r="AH13" s="86"/>
+      <c r="AI13" s="86"/>
+      <c r="AJ13" s="86"/>
+      <c r="AK13" s="86"/>
+      <c r="AL13" s="86"/>
+      <c r="AM13" s="86"/>
+      <c r="AN13" s="87"/>
+      <c r="AO13" s="85"/>
+      <c r="AP13" s="86"/>
+      <c r="AQ13" s="86"/>
+      <c r="AR13" s="86"/>
+      <c r="AS13" s="86"/>
+      <c r="AT13" s="86"/>
+      <c r="AU13" s="86"/>
+      <c r="AV13" s="87"/>
     </row>
     <row r="14" spans="1:59" x14ac:dyDescent="0.45">
       <c r="A14" s="82"/>
@@ -15463,46 +15464,46 @@
       <c r="F14" s="82"/>
       <c r="G14" s="82"/>
       <c r="H14" s="82"/>
-      <c r="I14" s="99"/>
-      <c r="J14" s="99"/>
-      <c r="K14" s="99"/>
-      <c r="L14" s="99"/>
-      <c r="M14" s="96"/>
-      <c r="N14" s="97"/>
-      <c r="O14" s="97"/>
-      <c r="P14" s="97"/>
-      <c r="Q14" s="97"/>
-      <c r="R14" s="97"/>
-      <c r="S14" s="97"/>
-      <c r="T14" s="97"/>
-      <c r="U14" s="97"/>
-      <c r="V14" s="97"/>
-      <c r="W14" s="97"/>
-      <c r="X14" s="97"/>
-      <c r="Y14" s="97"/>
-      <c r="Z14" s="97"/>
-      <c r="AA14" s="97"/>
-      <c r="AB14" s="97"/>
-      <c r="AC14" s="97"/>
-      <c r="AD14" s="97"/>
-      <c r="AE14" s="97"/>
-      <c r="AF14" s="97"/>
-      <c r="AG14" s="97"/>
-      <c r="AH14" s="97"/>
-      <c r="AI14" s="97"/>
-      <c r="AJ14" s="97"/>
-      <c r="AK14" s="97"/>
-      <c r="AL14" s="97"/>
-      <c r="AM14" s="97"/>
-      <c r="AN14" s="98"/>
-      <c r="AO14" s="96"/>
-      <c r="AP14" s="97"/>
-      <c r="AQ14" s="97"/>
-      <c r="AR14" s="97"/>
-      <c r="AS14" s="97"/>
-      <c r="AT14" s="97"/>
-      <c r="AU14" s="97"/>
-      <c r="AV14" s="98"/>
+      <c r="I14" s="88"/>
+      <c r="J14" s="88"/>
+      <c r="K14" s="88"/>
+      <c r="L14" s="88"/>
+      <c r="M14" s="85"/>
+      <c r="N14" s="86"/>
+      <c r="O14" s="86"/>
+      <c r="P14" s="86"/>
+      <c r="Q14" s="86"/>
+      <c r="R14" s="86"/>
+      <c r="S14" s="86"/>
+      <c r="T14" s="86"/>
+      <c r="U14" s="86"/>
+      <c r="V14" s="86"/>
+      <c r="W14" s="86"/>
+      <c r="X14" s="86"/>
+      <c r="Y14" s="86"/>
+      <c r="Z14" s="86"/>
+      <c r="AA14" s="86"/>
+      <c r="AB14" s="86"/>
+      <c r="AC14" s="86"/>
+      <c r="AD14" s="86"/>
+      <c r="AE14" s="86"/>
+      <c r="AF14" s="86"/>
+      <c r="AG14" s="86"/>
+      <c r="AH14" s="86"/>
+      <c r="AI14" s="86"/>
+      <c r="AJ14" s="86"/>
+      <c r="AK14" s="86"/>
+      <c r="AL14" s="86"/>
+      <c r="AM14" s="86"/>
+      <c r="AN14" s="87"/>
+      <c r="AO14" s="85"/>
+      <c r="AP14" s="86"/>
+      <c r="AQ14" s="86"/>
+      <c r="AR14" s="86"/>
+      <c r="AS14" s="86"/>
+      <c r="AT14" s="86"/>
+      <c r="AU14" s="86"/>
+      <c r="AV14" s="87"/>
     </row>
     <row r="15" spans="1:59" x14ac:dyDescent="0.45">
       <c r="A15" s="82"/>
@@ -15513,46 +15514,46 @@
       <c r="F15" s="82"/>
       <c r="G15" s="82"/>
       <c r="H15" s="82"/>
-      <c r="I15" s="99"/>
-      <c r="J15" s="99"/>
-      <c r="K15" s="99"/>
-      <c r="L15" s="99"/>
-      <c r="M15" s="96"/>
-      <c r="N15" s="97"/>
-      <c r="O15" s="97"/>
-      <c r="P15" s="97"/>
-      <c r="Q15" s="97"/>
-      <c r="R15" s="97"/>
-      <c r="S15" s="97"/>
-      <c r="T15" s="97"/>
-      <c r="U15" s="97"/>
-      <c r="V15" s="97"/>
-      <c r="W15" s="97"/>
-      <c r="X15" s="97"/>
-      <c r="Y15" s="97"/>
-      <c r="Z15" s="97"/>
-      <c r="AA15" s="97"/>
-      <c r="AB15" s="97"/>
-      <c r="AC15" s="97"/>
-      <c r="AD15" s="97"/>
-      <c r="AE15" s="97"/>
-      <c r="AF15" s="97"/>
-      <c r="AG15" s="97"/>
-      <c r="AH15" s="97"/>
-      <c r="AI15" s="97"/>
-      <c r="AJ15" s="97"/>
-      <c r="AK15" s="97"/>
-      <c r="AL15" s="97"/>
-      <c r="AM15" s="97"/>
-      <c r="AN15" s="98"/>
-      <c r="AO15" s="96"/>
-      <c r="AP15" s="97"/>
-      <c r="AQ15" s="97"/>
-      <c r="AR15" s="97"/>
-      <c r="AS15" s="97"/>
-      <c r="AT15" s="97"/>
-      <c r="AU15" s="97"/>
-      <c r="AV15" s="98"/>
+      <c r="I15" s="88"/>
+      <c r="J15" s="88"/>
+      <c r="K15" s="88"/>
+      <c r="L15" s="88"/>
+      <c r="M15" s="85"/>
+      <c r="N15" s="86"/>
+      <c r="O15" s="86"/>
+      <c r="P15" s="86"/>
+      <c r="Q15" s="86"/>
+      <c r="R15" s="86"/>
+      <c r="S15" s="86"/>
+      <c r="T15" s="86"/>
+      <c r="U15" s="86"/>
+      <c r="V15" s="86"/>
+      <c r="W15" s="86"/>
+      <c r="X15" s="86"/>
+      <c r="Y15" s="86"/>
+      <c r="Z15" s="86"/>
+      <c r="AA15" s="86"/>
+      <c r="AB15" s="86"/>
+      <c r="AC15" s="86"/>
+      <c r="AD15" s="86"/>
+      <c r="AE15" s="86"/>
+      <c r="AF15" s="86"/>
+      <c r="AG15" s="86"/>
+      <c r="AH15" s="86"/>
+      <c r="AI15" s="86"/>
+      <c r="AJ15" s="86"/>
+      <c r="AK15" s="86"/>
+      <c r="AL15" s="86"/>
+      <c r="AM15" s="86"/>
+      <c r="AN15" s="87"/>
+      <c r="AO15" s="85"/>
+      <c r="AP15" s="86"/>
+      <c r="AQ15" s="86"/>
+      <c r="AR15" s="86"/>
+      <c r="AS15" s="86"/>
+      <c r="AT15" s="86"/>
+      <c r="AU15" s="86"/>
+      <c r="AV15" s="87"/>
     </row>
     <row r="16" spans="1:59" x14ac:dyDescent="0.45">
       <c r="A16" s="82"/>
@@ -15563,78 +15564,71 @@
       <c r="F16" s="82"/>
       <c r="G16" s="82"/>
       <c r="H16" s="82"/>
-      <c r="I16" s="99"/>
-      <c r="J16" s="99"/>
-      <c r="K16" s="99"/>
-      <c r="L16" s="99"/>
-      <c r="M16" s="96"/>
-      <c r="N16" s="97"/>
-      <c r="O16" s="97"/>
-      <c r="P16" s="97"/>
-      <c r="Q16" s="97"/>
-      <c r="R16" s="97"/>
-      <c r="S16" s="97"/>
-      <c r="T16" s="97"/>
-      <c r="U16" s="97"/>
-      <c r="V16" s="97"/>
-      <c r="W16" s="97"/>
-      <c r="X16" s="97"/>
-      <c r="Y16" s="97"/>
-      <c r="Z16" s="97"/>
-      <c r="AA16" s="97"/>
-      <c r="AB16" s="97"/>
-      <c r="AC16" s="97"/>
-      <c r="AD16" s="97"/>
-      <c r="AE16" s="97"/>
-      <c r="AF16" s="97"/>
-      <c r="AG16" s="97"/>
-      <c r="AH16" s="97"/>
-      <c r="AI16" s="97"/>
-      <c r="AJ16" s="97"/>
-      <c r="AK16" s="97"/>
-      <c r="AL16" s="97"/>
-      <c r="AM16" s="97"/>
-      <c r="AN16" s="98"/>
-      <c r="AO16" s="96"/>
-      <c r="AP16" s="97"/>
-      <c r="AQ16" s="97"/>
-      <c r="AR16" s="97"/>
-      <c r="AS16" s="97"/>
-      <c r="AT16" s="97"/>
-      <c r="AU16" s="97"/>
-      <c r="AV16" s="98"/>
+      <c r="I16" s="88"/>
+      <c r="J16" s="88"/>
+      <c r="K16" s="88"/>
+      <c r="L16" s="88"/>
+      <c r="M16" s="85"/>
+      <c r="N16" s="86"/>
+      <c r="O16" s="86"/>
+      <c r="P16" s="86"/>
+      <c r="Q16" s="86"/>
+      <c r="R16" s="86"/>
+      <c r="S16" s="86"/>
+      <c r="T16" s="86"/>
+      <c r="U16" s="86"/>
+      <c r="V16" s="86"/>
+      <c r="W16" s="86"/>
+      <c r="X16" s="86"/>
+      <c r="Y16" s="86"/>
+      <c r="Z16" s="86"/>
+      <c r="AA16" s="86"/>
+      <c r="AB16" s="86"/>
+      <c r="AC16" s="86"/>
+      <c r="AD16" s="86"/>
+      <c r="AE16" s="86"/>
+      <c r="AF16" s="86"/>
+      <c r="AG16" s="86"/>
+      <c r="AH16" s="86"/>
+      <c r="AI16" s="86"/>
+      <c r="AJ16" s="86"/>
+      <c r="AK16" s="86"/>
+      <c r="AL16" s="86"/>
+      <c r="AM16" s="86"/>
+      <c r="AN16" s="87"/>
+      <c r="AO16" s="85"/>
+      <c r="AP16" s="86"/>
+      <c r="AQ16" s="86"/>
+      <c r="AR16" s="86"/>
+      <c r="AS16" s="86"/>
+      <c r="AT16" s="86"/>
+      <c r="AU16" s="86"/>
+      <c r="AV16" s="87"/>
     </row>
   </sheetData>
   <mergeCells count="67">
-    <mergeCell ref="AX2:BB2"/>
-    <mergeCell ref="AX3:BB3"/>
-    <mergeCell ref="BC2:BG2"/>
-    <mergeCell ref="BC3:BG3"/>
-    <mergeCell ref="AO10:AV10"/>
-    <mergeCell ref="AO6:AV6"/>
-    <mergeCell ref="AO7:AV7"/>
-    <mergeCell ref="AO8:AV8"/>
-    <mergeCell ref="AO9:AV9"/>
-    <mergeCell ref="AO16:AV16"/>
-    <mergeCell ref="AO11:AV11"/>
-    <mergeCell ref="AO12:AV12"/>
-    <mergeCell ref="AO13:AV13"/>
-    <mergeCell ref="AO14:AV14"/>
-    <mergeCell ref="AO15:AV15"/>
-    <mergeCell ref="I16:L16"/>
-    <mergeCell ref="M4:AN4"/>
-    <mergeCell ref="M5:AN5"/>
-    <mergeCell ref="M6:AN6"/>
-    <mergeCell ref="M7:AN7"/>
-    <mergeCell ref="M8:AN8"/>
-    <mergeCell ref="M9:AN9"/>
-    <mergeCell ref="M10:AN10"/>
-    <mergeCell ref="M11:AN11"/>
-    <mergeCell ref="M12:AN12"/>
-    <mergeCell ref="M13:AN13"/>
-    <mergeCell ref="M14:AN14"/>
-    <mergeCell ref="M15:AN15"/>
-    <mergeCell ref="M16:AN16"/>
+    <mergeCell ref="A6:H6"/>
+    <mergeCell ref="A5:H5"/>
+    <mergeCell ref="AO2:AV2"/>
+    <mergeCell ref="A4:H4"/>
+    <mergeCell ref="A1:H2"/>
+    <mergeCell ref="I1:P1"/>
+    <mergeCell ref="Q1:X1"/>
+    <mergeCell ref="Y1:AF1"/>
+    <mergeCell ref="AG1:AN1"/>
+    <mergeCell ref="AO1:AV1"/>
+    <mergeCell ref="I2:P2"/>
+    <mergeCell ref="Q2:X2"/>
+    <mergeCell ref="Y2:AF2"/>
+    <mergeCell ref="AG2:AN2"/>
+    <mergeCell ref="AO4:AV4"/>
+    <mergeCell ref="AO5:AV5"/>
+    <mergeCell ref="A9:H9"/>
+    <mergeCell ref="I9:L9"/>
+    <mergeCell ref="A8:H8"/>
+    <mergeCell ref="I8:L8"/>
+    <mergeCell ref="A7:H7"/>
+    <mergeCell ref="I7:L7"/>
     <mergeCell ref="A16:H16"/>
     <mergeCell ref="I4:L4"/>
     <mergeCell ref="I5:L5"/>
@@ -15651,28 +15645,35 @@
     <mergeCell ref="I11:L11"/>
     <mergeCell ref="A10:H10"/>
     <mergeCell ref="I10:L10"/>
-    <mergeCell ref="A9:H9"/>
-    <mergeCell ref="I9:L9"/>
-    <mergeCell ref="A8:H8"/>
-    <mergeCell ref="I8:L8"/>
-    <mergeCell ref="A7:H7"/>
-    <mergeCell ref="I7:L7"/>
-    <mergeCell ref="A6:H6"/>
-    <mergeCell ref="A5:H5"/>
-    <mergeCell ref="AO2:AV2"/>
-    <mergeCell ref="A4:H4"/>
-    <mergeCell ref="A1:H2"/>
-    <mergeCell ref="I1:P1"/>
-    <mergeCell ref="Q1:X1"/>
-    <mergeCell ref="Y1:AF1"/>
-    <mergeCell ref="AG1:AN1"/>
-    <mergeCell ref="AO1:AV1"/>
-    <mergeCell ref="I2:P2"/>
-    <mergeCell ref="Q2:X2"/>
-    <mergeCell ref="Y2:AF2"/>
-    <mergeCell ref="AG2:AN2"/>
-    <mergeCell ref="AO4:AV4"/>
-    <mergeCell ref="AO5:AV5"/>
+    <mergeCell ref="I16:L16"/>
+    <mergeCell ref="M4:AN4"/>
+    <mergeCell ref="M5:AN5"/>
+    <mergeCell ref="M6:AN6"/>
+    <mergeCell ref="M7:AN7"/>
+    <mergeCell ref="M8:AN8"/>
+    <mergeCell ref="M9:AN9"/>
+    <mergeCell ref="M10:AN10"/>
+    <mergeCell ref="M11:AN11"/>
+    <mergeCell ref="M12:AN12"/>
+    <mergeCell ref="M13:AN13"/>
+    <mergeCell ref="M14:AN14"/>
+    <mergeCell ref="M15:AN15"/>
+    <mergeCell ref="M16:AN16"/>
+    <mergeCell ref="AO16:AV16"/>
+    <mergeCell ref="AO11:AV11"/>
+    <mergeCell ref="AO12:AV12"/>
+    <mergeCell ref="AO13:AV13"/>
+    <mergeCell ref="AO14:AV14"/>
+    <mergeCell ref="AO15:AV15"/>
+    <mergeCell ref="AX2:BB2"/>
+    <mergeCell ref="AX3:BB3"/>
+    <mergeCell ref="BC2:BG2"/>
+    <mergeCell ref="BC3:BG3"/>
+    <mergeCell ref="AO10:AV10"/>
+    <mergeCell ref="AO6:AV6"/>
+    <mergeCell ref="AO7:AV7"/>
+    <mergeCell ref="AO8:AV8"/>
+    <mergeCell ref="AO9:AV9"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -15685,7 +15686,7 @@
   <dimension ref="A1:AV210"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" topLeftCell="A133" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="AL141" sqref="AL141"/>
+      <selection activeCell="B137" sqref="B137"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.09765625" defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -15694,132 +15695,132 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:48" x14ac:dyDescent="0.45">
-      <c r="A1" s="86" t="str">
+      <c r="A1" s="99" t="str">
         <f ca="1">RIGHT(CELL("filename",A1),LEN(CELL("filename",A1))-FIND("]",CELL("filename",A1)))</f>
         <v>概要設計</v>
       </c>
-      <c r="B1" s="87"/>
-      <c r="C1" s="87"/>
-      <c r="D1" s="87"/>
-      <c r="E1" s="87"/>
-      <c r="F1" s="87"/>
-      <c r="G1" s="87"/>
-      <c r="H1" s="87"/>
-      <c r="I1" s="90" t="s">
+      <c r="B1" s="100"/>
+      <c r="C1" s="100"/>
+      <c r="D1" s="100"/>
+      <c r="E1" s="100"/>
+      <c r="F1" s="100"/>
+      <c r="G1" s="100"/>
+      <c r="H1" s="100"/>
+      <c r="I1" s="103" t="s">
         <v>0</v>
       </c>
-      <c r="J1" s="90"/>
-      <c r="K1" s="90"/>
-      <c r="L1" s="90"/>
-      <c r="M1" s="90"/>
-      <c r="N1" s="90"/>
-      <c r="O1" s="90"/>
-      <c r="P1" s="90"/>
-      <c r="Q1" s="90" t="s">
+      <c r="J1" s="103"/>
+      <c r="K1" s="103"/>
+      <c r="L1" s="103"/>
+      <c r="M1" s="103"/>
+      <c r="N1" s="103"/>
+      <c r="O1" s="103"/>
+      <c r="P1" s="103"/>
+      <c r="Q1" s="103" t="s">
         <v>1</v>
       </c>
-      <c r="R1" s="90"/>
-      <c r="S1" s="90"/>
-      <c r="T1" s="90"/>
-      <c r="U1" s="90"/>
-      <c r="V1" s="90"/>
-      <c r="W1" s="90"/>
-      <c r="X1" s="90"/>
-      <c r="Y1" s="90" t="s">
+      <c r="R1" s="103"/>
+      <c r="S1" s="103"/>
+      <c r="T1" s="103"/>
+      <c r="U1" s="103"/>
+      <c r="V1" s="103"/>
+      <c r="W1" s="103"/>
+      <c r="X1" s="103"/>
+      <c r="Y1" s="103" t="s">
         <v>2</v>
       </c>
-      <c r="Z1" s="90"/>
-      <c r="AA1" s="90"/>
-      <c r="AB1" s="90"/>
-      <c r="AC1" s="90"/>
-      <c r="AD1" s="90"/>
-      <c r="AE1" s="90"/>
-      <c r="AF1" s="90"/>
-      <c r="AG1" s="90" t="s">
+      <c r="Z1" s="103"/>
+      <c r="AA1" s="103"/>
+      <c r="AB1" s="103"/>
+      <c r="AC1" s="103"/>
+      <c r="AD1" s="103"/>
+      <c r="AE1" s="103"/>
+      <c r="AF1" s="103"/>
+      <c r="AG1" s="103" t="s">
         <v>3</v>
       </c>
-      <c r="AH1" s="90"/>
-      <c r="AI1" s="90"/>
-      <c r="AJ1" s="90"/>
-      <c r="AK1" s="90"/>
-      <c r="AL1" s="90"/>
-      <c r="AM1" s="90"/>
-      <c r="AN1" s="90"/>
-      <c r="AO1" s="90" t="s">
+      <c r="AH1" s="103"/>
+      <c r="AI1" s="103"/>
+      <c r="AJ1" s="103"/>
+      <c r="AK1" s="103"/>
+      <c r="AL1" s="103"/>
+      <c r="AM1" s="103"/>
+      <c r="AN1" s="103"/>
+      <c r="AO1" s="103" t="s">
         <v>4</v>
       </c>
-      <c r="AP1" s="90"/>
-      <c r="AQ1" s="90"/>
-      <c r="AR1" s="90"/>
-      <c r="AS1" s="90"/>
-      <c r="AT1" s="90"/>
-      <c r="AU1" s="90"/>
-      <c r="AV1" s="90"/>
+      <c r="AP1" s="103"/>
+      <c r="AQ1" s="103"/>
+      <c r="AR1" s="103"/>
+      <c r="AS1" s="103"/>
+      <c r="AT1" s="103"/>
+      <c r="AU1" s="103"/>
+      <c r="AV1" s="103"/>
     </row>
     <row r="2" spans="1:48" x14ac:dyDescent="0.45">
-      <c r="A2" s="88"/>
-      <c r="B2" s="89"/>
-      <c r="C2" s="89"/>
-      <c r="D2" s="89"/>
-      <c r="E2" s="89"/>
-      <c r="F2" s="89"/>
-      <c r="G2" s="89"/>
-      <c r="H2" s="89"/>
-      <c r="I2" s="84" t="str">
+      <c r="A2" s="101"/>
+      <c r="B2" s="102"/>
+      <c r="C2" s="102"/>
+      <c r="D2" s="102"/>
+      <c r="E2" s="102"/>
+      <c r="F2" s="102"/>
+      <c r="G2" s="102"/>
+      <c r="H2" s="102"/>
+      <c r="I2" s="97" t="str">
         <f>改版履歴!I2</f>
         <v>メインメニュー画面</v>
       </c>
-      <c r="J2" s="84"/>
-      <c r="K2" s="84"/>
-      <c r="L2" s="84"/>
-      <c r="M2" s="84"/>
-      <c r="N2" s="84"/>
-      <c r="O2" s="84"/>
-      <c r="P2" s="84"/>
-      <c r="Q2" s="91">
+      <c r="J2" s="97"/>
+      <c r="K2" s="97"/>
+      <c r="L2" s="97"/>
+      <c r="M2" s="97"/>
+      <c r="N2" s="97"/>
+      <c r="O2" s="97"/>
+      <c r="P2" s="97"/>
+      <c r="Q2" s="104">
         <f ca="1">改版履歴!Q2</f>
         <v>43933</v>
       </c>
-      <c r="R2" s="84"/>
-      <c r="S2" s="84"/>
-      <c r="T2" s="84"/>
-      <c r="U2" s="84"/>
-      <c r="V2" s="84"/>
-      <c r="W2" s="84"/>
-      <c r="X2" s="84"/>
-      <c r="Y2" s="84" t="str">
+      <c r="R2" s="97"/>
+      <c r="S2" s="97"/>
+      <c r="T2" s="97"/>
+      <c r="U2" s="97"/>
+      <c r="V2" s="97"/>
+      <c r="W2" s="97"/>
+      <c r="X2" s="97"/>
+      <c r="Y2" s="97" t="str">
         <f ca="1">改版履歴!Y2</f>
         <v>Giphe</v>
       </c>
-      <c r="Z2" s="84"/>
-      <c r="AA2" s="84"/>
-      <c r="AB2" s="84"/>
-      <c r="AC2" s="84"/>
-      <c r="AD2" s="84"/>
-      <c r="AE2" s="84"/>
-      <c r="AF2" s="84"/>
-      <c r="AG2" s="84" t="str">
+      <c r="Z2" s="97"/>
+      <c r="AA2" s="97"/>
+      <c r="AB2" s="97"/>
+      <c r="AC2" s="97"/>
+      <c r="AD2" s="97"/>
+      <c r="AE2" s="97"/>
+      <c r="AF2" s="97"/>
+      <c r="AG2" s="97" t="str">
         <f ca="1">改版履歴!AG2</f>
         <v>1.0</v>
       </c>
-      <c r="AH2" s="84"/>
-      <c r="AI2" s="84"/>
-      <c r="AJ2" s="84"/>
-      <c r="AK2" s="84"/>
-      <c r="AL2" s="84"/>
-      <c r="AM2" s="84"/>
-      <c r="AN2" s="84"/>
-      <c r="AO2" s="84" t="str">
+      <c r="AH2" s="97"/>
+      <c r="AI2" s="97"/>
+      <c r="AJ2" s="97"/>
+      <c r="AK2" s="97"/>
+      <c r="AL2" s="97"/>
+      <c r="AM2" s="97"/>
+      <c r="AN2" s="97"/>
+      <c r="AO2" s="97" t="str">
         <f>改版履歴!AO2</f>
         <v>PGUSED020</v>
       </c>
-      <c r="AP2" s="84"/>
-      <c r="AQ2" s="84"/>
-      <c r="AR2" s="84"/>
-      <c r="AS2" s="84"/>
-      <c r="AT2" s="84"/>
-      <c r="AU2" s="84"/>
-      <c r="AV2" s="84"/>
+      <c r="AP2" s="97"/>
+      <c r="AQ2" s="97"/>
+      <c r="AR2" s="97"/>
+      <c r="AS2" s="97"/>
+      <c r="AT2" s="97"/>
+      <c r="AU2" s="97"/>
+      <c r="AV2" s="97"/>
     </row>
     <row r="4" spans="1:48" s="49" customFormat="1" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A4" s="24"/>
@@ -22090,132 +22091,132 @@
   <sheetFormatPr defaultColWidth="3.09765625" defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <sheetData>
     <row r="1" spans="1:48" x14ac:dyDescent="0.45">
-      <c r="A1" s="86" t="str">
+      <c r="A1" s="99" t="str">
         <f ca="1">RIGHT(CELL("filename",A1),LEN(CELL("filename",A1))-FIND("]",CELL("filename",A1)))</f>
         <v>IOデータ</v>
       </c>
-      <c r="B1" s="87"/>
-      <c r="C1" s="87"/>
-      <c r="D1" s="87"/>
-      <c r="E1" s="87"/>
-      <c r="F1" s="87"/>
-      <c r="G1" s="87"/>
-      <c r="H1" s="87"/>
-      <c r="I1" s="90" t="s">
+      <c r="B1" s="100"/>
+      <c r="C1" s="100"/>
+      <c r="D1" s="100"/>
+      <c r="E1" s="100"/>
+      <c r="F1" s="100"/>
+      <c r="G1" s="100"/>
+      <c r="H1" s="100"/>
+      <c r="I1" s="103" t="s">
         <v>0</v>
       </c>
-      <c r="J1" s="90"/>
-      <c r="K1" s="90"/>
-      <c r="L1" s="90"/>
-      <c r="M1" s="90"/>
-      <c r="N1" s="90"/>
-      <c r="O1" s="90"/>
-      <c r="P1" s="90"/>
-      <c r="Q1" s="90" t="s">
+      <c r="J1" s="103"/>
+      <c r="K1" s="103"/>
+      <c r="L1" s="103"/>
+      <c r="M1" s="103"/>
+      <c r="N1" s="103"/>
+      <c r="O1" s="103"/>
+      <c r="P1" s="103"/>
+      <c r="Q1" s="103" t="s">
         <v>1</v>
       </c>
-      <c r="R1" s="90"/>
-      <c r="S1" s="90"/>
-      <c r="T1" s="90"/>
-      <c r="U1" s="90"/>
-      <c r="V1" s="90"/>
-      <c r="W1" s="90"/>
-      <c r="X1" s="90"/>
-      <c r="Y1" s="90" t="s">
+      <c r="R1" s="103"/>
+      <c r="S1" s="103"/>
+      <c r="T1" s="103"/>
+      <c r="U1" s="103"/>
+      <c r="V1" s="103"/>
+      <c r="W1" s="103"/>
+      <c r="X1" s="103"/>
+      <c r="Y1" s="103" t="s">
         <v>2</v>
       </c>
-      <c r="Z1" s="90"/>
-      <c r="AA1" s="90"/>
-      <c r="AB1" s="90"/>
-      <c r="AC1" s="90"/>
-      <c r="AD1" s="90"/>
-      <c r="AE1" s="90"/>
-      <c r="AF1" s="90"/>
-      <c r="AG1" s="90" t="s">
+      <c r="Z1" s="103"/>
+      <c r="AA1" s="103"/>
+      <c r="AB1" s="103"/>
+      <c r="AC1" s="103"/>
+      <c r="AD1" s="103"/>
+      <c r="AE1" s="103"/>
+      <c r="AF1" s="103"/>
+      <c r="AG1" s="103" t="s">
         <v>3</v>
       </c>
-      <c r="AH1" s="90"/>
-      <c r="AI1" s="90"/>
-      <c r="AJ1" s="90"/>
-      <c r="AK1" s="90"/>
-      <c r="AL1" s="90"/>
-      <c r="AM1" s="90"/>
-      <c r="AN1" s="90"/>
-      <c r="AO1" s="90" t="s">
+      <c r="AH1" s="103"/>
+      <c r="AI1" s="103"/>
+      <c r="AJ1" s="103"/>
+      <c r="AK1" s="103"/>
+      <c r="AL1" s="103"/>
+      <c r="AM1" s="103"/>
+      <c r="AN1" s="103"/>
+      <c r="AO1" s="103" t="s">
         <v>4</v>
       </c>
-      <c r="AP1" s="90"/>
-      <c r="AQ1" s="90"/>
-      <c r="AR1" s="90"/>
-      <c r="AS1" s="90"/>
-      <c r="AT1" s="90"/>
-      <c r="AU1" s="90"/>
-      <c r="AV1" s="90"/>
+      <c r="AP1" s="103"/>
+      <c r="AQ1" s="103"/>
+      <c r="AR1" s="103"/>
+      <c r="AS1" s="103"/>
+      <c r="AT1" s="103"/>
+      <c r="AU1" s="103"/>
+      <c r="AV1" s="103"/>
     </row>
     <row r="2" spans="1:48" x14ac:dyDescent="0.45">
-      <c r="A2" s="88"/>
-      <c r="B2" s="89"/>
-      <c r="C2" s="89"/>
-      <c r="D2" s="89"/>
-      <c r="E2" s="89"/>
-      <c r="F2" s="89"/>
-      <c r="G2" s="89"/>
-      <c r="H2" s="89"/>
-      <c r="I2" s="84" t="str">
+      <c r="A2" s="101"/>
+      <c r="B2" s="102"/>
+      <c r="C2" s="102"/>
+      <c r="D2" s="102"/>
+      <c r="E2" s="102"/>
+      <c r="F2" s="102"/>
+      <c r="G2" s="102"/>
+      <c r="H2" s="102"/>
+      <c r="I2" s="97" t="str">
         <f>改版履歴!I2</f>
         <v>メインメニュー画面</v>
       </c>
-      <c r="J2" s="84"/>
-      <c r="K2" s="84"/>
-      <c r="L2" s="84"/>
-      <c r="M2" s="84"/>
-      <c r="N2" s="84"/>
-      <c r="O2" s="84"/>
-      <c r="P2" s="84"/>
-      <c r="Q2" s="91">
+      <c r="J2" s="97"/>
+      <c r="K2" s="97"/>
+      <c r="L2" s="97"/>
+      <c r="M2" s="97"/>
+      <c r="N2" s="97"/>
+      <c r="O2" s="97"/>
+      <c r="P2" s="97"/>
+      <c r="Q2" s="104">
         <f ca="1">改版履歴!Q2</f>
         <v>43933</v>
       </c>
-      <c r="R2" s="84"/>
-      <c r="S2" s="84"/>
-      <c r="T2" s="84"/>
-      <c r="U2" s="84"/>
-      <c r="V2" s="84"/>
-      <c r="W2" s="84"/>
-      <c r="X2" s="84"/>
-      <c r="Y2" s="84" t="str">
+      <c r="R2" s="97"/>
+      <c r="S2" s="97"/>
+      <c r="T2" s="97"/>
+      <c r="U2" s="97"/>
+      <c r="V2" s="97"/>
+      <c r="W2" s="97"/>
+      <c r="X2" s="97"/>
+      <c r="Y2" s="97" t="str">
         <f ca="1">改版履歴!Y2</f>
         <v>Giphe</v>
       </c>
-      <c r="Z2" s="84"/>
-      <c r="AA2" s="84"/>
-      <c r="AB2" s="84"/>
-      <c r="AC2" s="84"/>
-      <c r="AD2" s="84"/>
-      <c r="AE2" s="84"/>
-      <c r="AF2" s="84"/>
-      <c r="AG2" s="84" t="str">
+      <c r="Z2" s="97"/>
+      <c r="AA2" s="97"/>
+      <c r="AB2" s="97"/>
+      <c r="AC2" s="97"/>
+      <c r="AD2" s="97"/>
+      <c r="AE2" s="97"/>
+      <c r="AF2" s="97"/>
+      <c r="AG2" s="97" t="str">
         <f ca="1">改版履歴!AG2</f>
         <v>1.0</v>
       </c>
-      <c r="AH2" s="84"/>
-      <c r="AI2" s="84"/>
-      <c r="AJ2" s="84"/>
-      <c r="AK2" s="84"/>
-      <c r="AL2" s="84"/>
-      <c r="AM2" s="84"/>
-      <c r="AN2" s="84"/>
-      <c r="AO2" s="84" t="str">
+      <c r="AH2" s="97"/>
+      <c r="AI2" s="97"/>
+      <c r="AJ2" s="97"/>
+      <c r="AK2" s="97"/>
+      <c r="AL2" s="97"/>
+      <c r="AM2" s="97"/>
+      <c r="AN2" s="97"/>
+      <c r="AO2" s="97" t="str">
         <f>改版履歴!AO2</f>
         <v>PGUSED020</v>
       </c>
-      <c r="AP2" s="84"/>
-      <c r="AQ2" s="84"/>
-      <c r="AR2" s="84"/>
-      <c r="AS2" s="84"/>
-      <c r="AT2" s="84"/>
-      <c r="AU2" s="84"/>
-      <c r="AV2" s="84"/>
+      <c r="AP2" s="97"/>
+      <c r="AQ2" s="97"/>
+      <c r="AR2" s="97"/>
+      <c r="AS2" s="97"/>
+      <c r="AT2" s="97"/>
+      <c r="AU2" s="97"/>
+      <c r="AV2" s="97"/>
     </row>
     <row r="4" spans="1:48" s="26" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A4" s="26" t="s">
@@ -23040,6 +23041,40 @@
     <row r="25" spans="1:48" s="26" customFormat="1" x14ac:dyDescent="0.45"/>
   </sheetData>
   <mergeCells count="50">
+    <mergeCell ref="A14:T14"/>
+    <mergeCell ref="A17:T17"/>
+    <mergeCell ref="U14:AD14"/>
+    <mergeCell ref="AE17:AV17"/>
+    <mergeCell ref="A20:Y20"/>
+    <mergeCell ref="U17:AD17"/>
+    <mergeCell ref="A15:T15"/>
+    <mergeCell ref="U15:AD15"/>
+    <mergeCell ref="AE15:AV15"/>
+    <mergeCell ref="A16:T16"/>
+    <mergeCell ref="U16:AD16"/>
+    <mergeCell ref="AE16:AV16"/>
+    <mergeCell ref="Q1:X1"/>
+    <mergeCell ref="Y1:AF1"/>
+    <mergeCell ref="AG1:AN1"/>
+    <mergeCell ref="AO1:AV1"/>
+    <mergeCell ref="A21:Y21"/>
+    <mergeCell ref="AE10:AV10"/>
+    <mergeCell ref="AE11:AV11"/>
+    <mergeCell ref="AE12:AV12"/>
+    <mergeCell ref="AE13:AV13"/>
+    <mergeCell ref="AE14:AV14"/>
+    <mergeCell ref="A11:T11"/>
+    <mergeCell ref="U11:AD11"/>
+    <mergeCell ref="A12:T12"/>
+    <mergeCell ref="A13:T13"/>
+    <mergeCell ref="U12:AD12"/>
+    <mergeCell ref="U13:AD13"/>
+    <mergeCell ref="A23:Y23"/>
+    <mergeCell ref="Z20:AV20"/>
+    <mergeCell ref="Z21:AV21"/>
+    <mergeCell ref="Z22:AV22"/>
+    <mergeCell ref="Z23:AV23"/>
+    <mergeCell ref="A22:Y22"/>
     <mergeCell ref="I2:P2"/>
     <mergeCell ref="Q2:X2"/>
     <mergeCell ref="Y2:AF2"/>
@@ -23056,40 +23091,6 @@
     <mergeCell ref="A5:Y5"/>
     <mergeCell ref="A1:H2"/>
     <mergeCell ref="I1:P1"/>
-    <mergeCell ref="A23:Y23"/>
-    <mergeCell ref="Z20:AV20"/>
-    <mergeCell ref="Z21:AV21"/>
-    <mergeCell ref="Z22:AV22"/>
-    <mergeCell ref="Z23:AV23"/>
-    <mergeCell ref="A22:Y22"/>
-    <mergeCell ref="Q1:X1"/>
-    <mergeCell ref="Y1:AF1"/>
-    <mergeCell ref="AG1:AN1"/>
-    <mergeCell ref="AO1:AV1"/>
-    <mergeCell ref="A21:Y21"/>
-    <mergeCell ref="AE10:AV10"/>
-    <mergeCell ref="AE11:AV11"/>
-    <mergeCell ref="AE12:AV12"/>
-    <mergeCell ref="AE13:AV13"/>
-    <mergeCell ref="AE14:AV14"/>
-    <mergeCell ref="A11:T11"/>
-    <mergeCell ref="U11:AD11"/>
-    <mergeCell ref="A12:T12"/>
-    <mergeCell ref="A13:T13"/>
-    <mergeCell ref="U12:AD12"/>
-    <mergeCell ref="U13:AD13"/>
-    <mergeCell ref="A14:T14"/>
-    <mergeCell ref="A17:T17"/>
-    <mergeCell ref="U14:AD14"/>
-    <mergeCell ref="AE17:AV17"/>
-    <mergeCell ref="A20:Y20"/>
-    <mergeCell ref="U17:AD17"/>
-    <mergeCell ref="A15:T15"/>
-    <mergeCell ref="U15:AD15"/>
-    <mergeCell ref="AE15:AV15"/>
-    <mergeCell ref="A16:T16"/>
-    <mergeCell ref="U16:AD16"/>
-    <mergeCell ref="AE16:AV16"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -23109,132 +23110,132 @@
   <sheetFormatPr defaultColWidth="3.09765625" defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <sheetData>
     <row r="1" spans="1:48" x14ac:dyDescent="0.45">
-      <c r="A1" s="86" t="str">
+      <c r="A1" s="99" t="str">
         <f ca="1">RIGHT(CELL("filename",A1),LEN(CELL("filename",A1))-FIND("]",CELL("filename",A1)))</f>
         <v>画面項目</v>
       </c>
-      <c r="B1" s="87"/>
-      <c r="C1" s="87"/>
-      <c r="D1" s="87"/>
-      <c r="E1" s="87"/>
-      <c r="F1" s="87"/>
-      <c r="G1" s="87"/>
-      <c r="H1" s="87"/>
-      <c r="I1" s="90" t="s">
+      <c r="B1" s="100"/>
+      <c r="C1" s="100"/>
+      <c r="D1" s="100"/>
+      <c r="E1" s="100"/>
+      <c r="F1" s="100"/>
+      <c r="G1" s="100"/>
+      <c r="H1" s="100"/>
+      <c r="I1" s="103" t="s">
         <v>0</v>
       </c>
-      <c r="J1" s="90"/>
-      <c r="K1" s="90"/>
-      <c r="L1" s="90"/>
-      <c r="M1" s="90"/>
-      <c r="N1" s="90"/>
-      <c r="O1" s="90"/>
-      <c r="P1" s="90"/>
-      <c r="Q1" s="90" t="s">
+      <c r="J1" s="103"/>
+      <c r="K1" s="103"/>
+      <c r="L1" s="103"/>
+      <c r="M1" s="103"/>
+      <c r="N1" s="103"/>
+      <c r="O1" s="103"/>
+      <c r="P1" s="103"/>
+      <c r="Q1" s="103" t="s">
         <v>1</v>
       </c>
-      <c r="R1" s="90"/>
-      <c r="S1" s="90"/>
-      <c r="T1" s="90"/>
-      <c r="U1" s="90"/>
-      <c r="V1" s="90"/>
-      <c r="W1" s="90"/>
-      <c r="X1" s="90"/>
-      <c r="Y1" s="90" t="s">
+      <c r="R1" s="103"/>
+      <c r="S1" s="103"/>
+      <c r="T1" s="103"/>
+      <c r="U1" s="103"/>
+      <c r="V1" s="103"/>
+      <c r="W1" s="103"/>
+      <c r="X1" s="103"/>
+      <c r="Y1" s="103" t="s">
         <v>2</v>
       </c>
-      <c r="Z1" s="90"/>
-      <c r="AA1" s="90"/>
-      <c r="AB1" s="90"/>
-      <c r="AC1" s="90"/>
-      <c r="AD1" s="90"/>
-      <c r="AE1" s="90"/>
-      <c r="AF1" s="90"/>
-      <c r="AG1" s="90" t="s">
+      <c r="Z1" s="103"/>
+      <c r="AA1" s="103"/>
+      <c r="AB1" s="103"/>
+      <c r="AC1" s="103"/>
+      <c r="AD1" s="103"/>
+      <c r="AE1" s="103"/>
+      <c r="AF1" s="103"/>
+      <c r="AG1" s="103" t="s">
         <v>3</v>
       </c>
-      <c r="AH1" s="90"/>
-      <c r="AI1" s="90"/>
-      <c r="AJ1" s="90"/>
-      <c r="AK1" s="90"/>
-      <c r="AL1" s="90"/>
-      <c r="AM1" s="90"/>
-      <c r="AN1" s="90"/>
-      <c r="AO1" s="90" t="s">
+      <c r="AH1" s="103"/>
+      <c r="AI1" s="103"/>
+      <c r="AJ1" s="103"/>
+      <c r="AK1" s="103"/>
+      <c r="AL1" s="103"/>
+      <c r="AM1" s="103"/>
+      <c r="AN1" s="103"/>
+      <c r="AO1" s="103" t="s">
         <v>4</v>
       </c>
-      <c r="AP1" s="90"/>
-      <c r="AQ1" s="90"/>
-      <c r="AR1" s="90"/>
-      <c r="AS1" s="90"/>
-      <c r="AT1" s="90"/>
-      <c r="AU1" s="90"/>
-      <c r="AV1" s="90"/>
+      <c r="AP1" s="103"/>
+      <c r="AQ1" s="103"/>
+      <c r="AR1" s="103"/>
+      <c r="AS1" s="103"/>
+      <c r="AT1" s="103"/>
+      <c r="AU1" s="103"/>
+      <c r="AV1" s="103"/>
     </row>
     <row r="2" spans="1:48" x14ac:dyDescent="0.45">
-      <c r="A2" s="88"/>
-      <c r="B2" s="89"/>
-      <c r="C2" s="89"/>
-      <c r="D2" s="89"/>
-      <c r="E2" s="89"/>
-      <c r="F2" s="89"/>
-      <c r="G2" s="89"/>
-      <c r="H2" s="89"/>
-      <c r="I2" s="84" t="str">
+      <c r="A2" s="101"/>
+      <c r="B2" s="102"/>
+      <c r="C2" s="102"/>
+      <c r="D2" s="102"/>
+      <c r="E2" s="102"/>
+      <c r="F2" s="102"/>
+      <c r="G2" s="102"/>
+      <c r="H2" s="102"/>
+      <c r="I2" s="97" t="str">
         <f>改版履歴!I2</f>
         <v>メインメニュー画面</v>
       </c>
-      <c r="J2" s="84"/>
-      <c r="K2" s="84"/>
-      <c r="L2" s="84"/>
-      <c r="M2" s="84"/>
-      <c r="N2" s="84"/>
-      <c r="O2" s="84"/>
-      <c r="P2" s="84"/>
-      <c r="Q2" s="91">
+      <c r="J2" s="97"/>
+      <c r="K2" s="97"/>
+      <c r="L2" s="97"/>
+      <c r="M2" s="97"/>
+      <c r="N2" s="97"/>
+      <c r="O2" s="97"/>
+      <c r="P2" s="97"/>
+      <c r="Q2" s="104">
         <f ca="1">改版履歴!Q2</f>
         <v>43933</v>
       </c>
-      <c r="R2" s="84"/>
-      <c r="S2" s="84"/>
-      <c r="T2" s="84"/>
-      <c r="U2" s="84"/>
-      <c r="V2" s="84"/>
-      <c r="W2" s="84"/>
-      <c r="X2" s="84"/>
-      <c r="Y2" s="84" t="str">
+      <c r="R2" s="97"/>
+      <c r="S2" s="97"/>
+      <c r="T2" s="97"/>
+      <c r="U2" s="97"/>
+      <c r="V2" s="97"/>
+      <c r="W2" s="97"/>
+      <c r="X2" s="97"/>
+      <c r="Y2" s="97" t="str">
         <f ca="1">改版履歴!Y2</f>
         <v>Giphe</v>
       </c>
-      <c r="Z2" s="84"/>
-      <c r="AA2" s="84"/>
-      <c r="AB2" s="84"/>
-      <c r="AC2" s="84"/>
-      <c r="AD2" s="84"/>
-      <c r="AE2" s="84"/>
-      <c r="AF2" s="84"/>
-      <c r="AG2" s="84" t="str">
+      <c r="Z2" s="97"/>
+      <c r="AA2" s="97"/>
+      <c r="AB2" s="97"/>
+      <c r="AC2" s="97"/>
+      <c r="AD2" s="97"/>
+      <c r="AE2" s="97"/>
+      <c r="AF2" s="97"/>
+      <c r="AG2" s="97" t="str">
         <f ca="1">改版履歴!AG2</f>
         <v>1.0</v>
       </c>
-      <c r="AH2" s="84"/>
-      <c r="AI2" s="84"/>
-      <c r="AJ2" s="84"/>
-      <c r="AK2" s="84"/>
-      <c r="AL2" s="84"/>
-      <c r="AM2" s="84"/>
-      <c r="AN2" s="84"/>
-      <c r="AO2" s="84" t="str">
+      <c r="AH2" s="97"/>
+      <c r="AI2" s="97"/>
+      <c r="AJ2" s="97"/>
+      <c r="AK2" s="97"/>
+      <c r="AL2" s="97"/>
+      <c r="AM2" s="97"/>
+      <c r="AN2" s="97"/>
+      <c r="AO2" s="97" t="str">
         <f>改版履歴!AO2</f>
         <v>PGUSED020</v>
       </c>
-      <c r="AP2" s="84"/>
-      <c r="AQ2" s="84"/>
-      <c r="AR2" s="84"/>
-      <c r="AS2" s="84"/>
-      <c r="AT2" s="84"/>
-      <c r="AU2" s="84"/>
-      <c r="AV2" s="84"/>
+      <c r="AP2" s="97"/>
+      <c r="AQ2" s="97"/>
+      <c r="AR2" s="97"/>
+      <c r="AS2" s="97"/>
+      <c r="AT2" s="97"/>
+      <c r="AU2" s="97"/>
+      <c r="AV2" s="97"/>
     </row>
     <row r="4" spans="1:48" s="56" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A4" s="56" t="s">
@@ -23715,17 +23716,62 @@
     <row r="15" spans="1:48" s="56" customFormat="1" x14ac:dyDescent="0.45"/>
   </sheetData>
   <mergeCells count="83">
-    <mergeCell ref="AO2:AV2"/>
-    <mergeCell ref="A1:H2"/>
-    <mergeCell ref="I1:P1"/>
-    <mergeCell ref="Q1:X1"/>
-    <mergeCell ref="Y1:AF1"/>
-    <mergeCell ref="AG1:AN1"/>
-    <mergeCell ref="AO1:AV1"/>
-    <mergeCell ref="I2:P2"/>
-    <mergeCell ref="Q2:X2"/>
-    <mergeCell ref="Y2:AF2"/>
-    <mergeCell ref="AG2:AN2"/>
+    <mergeCell ref="AN13:AV13"/>
+    <mergeCell ref="AD12:AG12"/>
+    <mergeCell ref="AD13:AG13"/>
+    <mergeCell ref="AN5:AV5"/>
+    <mergeCell ref="AN6:AV6"/>
+    <mergeCell ref="AN7:AV7"/>
+    <mergeCell ref="AN8:AV8"/>
+    <mergeCell ref="AN9:AV9"/>
+    <mergeCell ref="AN10:AV10"/>
+    <mergeCell ref="AN11:AV11"/>
+    <mergeCell ref="AN12:AV12"/>
+    <mergeCell ref="H13:L13"/>
+    <mergeCell ref="AD5:AG5"/>
+    <mergeCell ref="AD6:AG6"/>
+    <mergeCell ref="AD7:AG7"/>
+    <mergeCell ref="AD8:AG8"/>
+    <mergeCell ref="AD9:AG9"/>
+    <mergeCell ref="AD10:AG10"/>
+    <mergeCell ref="AD11:AG11"/>
+    <mergeCell ref="H5:L5"/>
+    <mergeCell ref="H6:L6"/>
+    <mergeCell ref="H7:L7"/>
+    <mergeCell ref="H8:L8"/>
+    <mergeCell ref="H9:L9"/>
+    <mergeCell ref="H10:L10"/>
+    <mergeCell ref="Z13:AC13"/>
+    <mergeCell ref="V12:Y12"/>
+    <mergeCell ref="V13:Y13"/>
+    <mergeCell ref="Z5:AC5"/>
+    <mergeCell ref="Z6:AC6"/>
+    <mergeCell ref="Z7:AC7"/>
+    <mergeCell ref="Z8:AC8"/>
+    <mergeCell ref="Z9:AC9"/>
+    <mergeCell ref="Z10:AC10"/>
+    <mergeCell ref="Z11:AC11"/>
+    <mergeCell ref="Z12:AC12"/>
+    <mergeCell ref="V10:Y10"/>
+    <mergeCell ref="V11:Y11"/>
+    <mergeCell ref="V5:Y5"/>
+    <mergeCell ref="V6:Y6"/>
+    <mergeCell ref="V7:Y7"/>
+    <mergeCell ref="V8:Y8"/>
+    <mergeCell ref="V9:Y9"/>
+    <mergeCell ref="R5:U5"/>
+    <mergeCell ref="R6:U6"/>
+    <mergeCell ref="R7:U7"/>
+    <mergeCell ref="R8:U8"/>
+    <mergeCell ref="R9:U9"/>
+    <mergeCell ref="R11:U11"/>
+    <mergeCell ref="R12:U12"/>
+    <mergeCell ref="R13:U13"/>
+    <mergeCell ref="N10:Q10"/>
+    <mergeCell ref="N11:Q11"/>
+    <mergeCell ref="N12:Q12"/>
+    <mergeCell ref="N13:Q13"/>
+    <mergeCell ref="R10:U10"/>
     <mergeCell ref="A10:G10"/>
     <mergeCell ref="A11:G11"/>
     <mergeCell ref="A12:G12"/>
@@ -23742,62 +23788,17 @@
     <mergeCell ref="N9:Q9"/>
     <mergeCell ref="H11:L11"/>
     <mergeCell ref="H12:L12"/>
-    <mergeCell ref="R11:U11"/>
-    <mergeCell ref="R12:U12"/>
-    <mergeCell ref="R13:U13"/>
-    <mergeCell ref="N10:Q10"/>
-    <mergeCell ref="N11:Q11"/>
-    <mergeCell ref="N12:Q12"/>
-    <mergeCell ref="N13:Q13"/>
-    <mergeCell ref="R10:U10"/>
-    <mergeCell ref="R5:U5"/>
-    <mergeCell ref="R6:U6"/>
-    <mergeCell ref="R7:U7"/>
-    <mergeCell ref="R8:U8"/>
-    <mergeCell ref="R9:U9"/>
-    <mergeCell ref="V13:Y13"/>
-    <mergeCell ref="Z5:AC5"/>
-    <mergeCell ref="Z6:AC6"/>
-    <mergeCell ref="Z7:AC7"/>
-    <mergeCell ref="Z8:AC8"/>
-    <mergeCell ref="Z9:AC9"/>
-    <mergeCell ref="Z10:AC10"/>
-    <mergeCell ref="Z11:AC11"/>
-    <mergeCell ref="Z12:AC12"/>
-    <mergeCell ref="V10:Y10"/>
-    <mergeCell ref="V11:Y11"/>
-    <mergeCell ref="V5:Y5"/>
-    <mergeCell ref="V6:Y6"/>
-    <mergeCell ref="V7:Y7"/>
-    <mergeCell ref="V8:Y8"/>
-    <mergeCell ref="V9:Y9"/>
-    <mergeCell ref="H13:L13"/>
-    <mergeCell ref="AD5:AG5"/>
-    <mergeCell ref="AD6:AG6"/>
-    <mergeCell ref="AD7:AG7"/>
-    <mergeCell ref="AD8:AG8"/>
-    <mergeCell ref="AD9:AG9"/>
-    <mergeCell ref="AD10:AG10"/>
-    <mergeCell ref="AD11:AG11"/>
-    <mergeCell ref="H5:L5"/>
-    <mergeCell ref="H6:L6"/>
-    <mergeCell ref="H7:L7"/>
-    <mergeCell ref="H8:L8"/>
-    <mergeCell ref="H9:L9"/>
-    <mergeCell ref="H10:L10"/>
-    <mergeCell ref="Z13:AC13"/>
-    <mergeCell ref="V12:Y12"/>
-    <mergeCell ref="AN13:AV13"/>
-    <mergeCell ref="AD12:AG12"/>
-    <mergeCell ref="AD13:AG13"/>
-    <mergeCell ref="AN5:AV5"/>
-    <mergeCell ref="AN6:AV6"/>
-    <mergeCell ref="AN7:AV7"/>
-    <mergeCell ref="AN8:AV8"/>
-    <mergeCell ref="AN9:AV9"/>
-    <mergeCell ref="AN10:AV10"/>
-    <mergeCell ref="AN11:AV11"/>
-    <mergeCell ref="AN12:AV12"/>
+    <mergeCell ref="AO2:AV2"/>
+    <mergeCell ref="A1:H2"/>
+    <mergeCell ref="I1:P1"/>
+    <mergeCell ref="Q1:X1"/>
+    <mergeCell ref="Y1:AF1"/>
+    <mergeCell ref="AG1:AN1"/>
+    <mergeCell ref="AO1:AV1"/>
+    <mergeCell ref="I2:P2"/>
+    <mergeCell ref="Q2:X2"/>
+    <mergeCell ref="Y2:AF2"/>
+    <mergeCell ref="AG2:AN2"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -23816,132 +23817,132 @@
   <sheetFormatPr defaultColWidth="3.09765625" defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <sheetData>
     <row r="1" spans="1:48" x14ac:dyDescent="0.45">
-      <c r="A1" s="86" t="str">
+      <c r="A1" s="99" t="str">
         <f ca="1">RIGHT(CELL("filename",A1),LEN(CELL("filename",A1))-FIND("]",CELL("filename",A1)))</f>
         <v>画面表示時</v>
       </c>
-      <c r="B1" s="87"/>
-      <c r="C1" s="87"/>
-      <c r="D1" s="87"/>
-      <c r="E1" s="87"/>
-      <c r="F1" s="87"/>
-      <c r="G1" s="87"/>
-      <c r="H1" s="87"/>
-      <c r="I1" s="90" t="s">
+      <c r="B1" s="100"/>
+      <c r="C1" s="100"/>
+      <c r="D1" s="100"/>
+      <c r="E1" s="100"/>
+      <c r="F1" s="100"/>
+      <c r="G1" s="100"/>
+      <c r="H1" s="100"/>
+      <c r="I1" s="103" t="s">
         <v>0</v>
       </c>
-      <c r="J1" s="90"/>
-      <c r="K1" s="90"/>
-      <c r="L1" s="90"/>
-      <c r="M1" s="90"/>
-      <c r="N1" s="90"/>
-      <c r="O1" s="90"/>
-      <c r="P1" s="90"/>
-      <c r="Q1" s="90" t="s">
+      <c r="J1" s="103"/>
+      <c r="K1" s="103"/>
+      <c r="L1" s="103"/>
+      <c r="M1" s="103"/>
+      <c r="N1" s="103"/>
+      <c r="O1" s="103"/>
+      <c r="P1" s="103"/>
+      <c r="Q1" s="103" t="s">
         <v>1</v>
       </c>
-      <c r="R1" s="90"/>
-      <c r="S1" s="90"/>
-      <c r="T1" s="90"/>
-      <c r="U1" s="90"/>
-      <c r="V1" s="90"/>
-      <c r="W1" s="90"/>
-      <c r="X1" s="90"/>
-      <c r="Y1" s="90" t="s">
+      <c r="R1" s="103"/>
+      <c r="S1" s="103"/>
+      <c r="T1" s="103"/>
+      <c r="U1" s="103"/>
+      <c r="V1" s="103"/>
+      <c r="W1" s="103"/>
+      <c r="X1" s="103"/>
+      <c r="Y1" s="103" t="s">
         <v>2</v>
       </c>
-      <c r="Z1" s="90"/>
-      <c r="AA1" s="90"/>
-      <c r="AB1" s="90"/>
-      <c r="AC1" s="90"/>
-      <c r="AD1" s="90"/>
-      <c r="AE1" s="90"/>
-      <c r="AF1" s="90"/>
-      <c r="AG1" s="90" t="s">
+      <c r="Z1" s="103"/>
+      <c r="AA1" s="103"/>
+      <c r="AB1" s="103"/>
+      <c r="AC1" s="103"/>
+      <c r="AD1" s="103"/>
+      <c r="AE1" s="103"/>
+      <c r="AF1" s="103"/>
+      <c r="AG1" s="103" t="s">
         <v>3</v>
       </c>
-      <c r="AH1" s="90"/>
-      <c r="AI1" s="90"/>
-      <c r="AJ1" s="90"/>
-      <c r="AK1" s="90"/>
-      <c r="AL1" s="90"/>
-      <c r="AM1" s="90"/>
-      <c r="AN1" s="90"/>
-      <c r="AO1" s="90" t="s">
+      <c r="AH1" s="103"/>
+      <c r="AI1" s="103"/>
+      <c r="AJ1" s="103"/>
+      <c r="AK1" s="103"/>
+      <c r="AL1" s="103"/>
+      <c r="AM1" s="103"/>
+      <c r="AN1" s="103"/>
+      <c r="AO1" s="103" t="s">
         <v>4</v>
       </c>
-      <c r="AP1" s="90"/>
-      <c r="AQ1" s="90"/>
-      <c r="AR1" s="90"/>
-      <c r="AS1" s="90"/>
-      <c r="AT1" s="90"/>
-      <c r="AU1" s="90"/>
-      <c r="AV1" s="90"/>
+      <c r="AP1" s="103"/>
+      <c r="AQ1" s="103"/>
+      <c r="AR1" s="103"/>
+      <c r="AS1" s="103"/>
+      <c r="AT1" s="103"/>
+      <c r="AU1" s="103"/>
+      <c r="AV1" s="103"/>
     </row>
     <row r="2" spans="1:48" x14ac:dyDescent="0.45">
-      <c r="A2" s="88"/>
-      <c r="B2" s="89"/>
-      <c r="C2" s="89"/>
-      <c r="D2" s="89"/>
-      <c r="E2" s="89"/>
-      <c r="F2" s="89"/>
-      <c r="G2" s="89"/>
-      <c r="H2" s="89"/>
-      <c r="I2" s="84" t="str">
+      <c r="A2" s="101"/>
+      <c r="B2" s="102"/>
+      <c r="C2" s="102"/>
+      <c r="D2" s="102"/>
+      <c r="E2" s="102"/>
+      <c r="F2" s="102"/>
+      <c r="G2" s="102"/>
+      <c r="H2" s="102"/>
+      <c r="I2" s="97" t="str">
         <f>改版履歴!I2</f>
         <v>メインメニュー画面</v>
       </c>
-      <c r="J2" s="84"/>
-      <c r="K2" s="84"/>
-      <c r="L2" s="84"/>
-      <c r="M2" s="84"/>
-      <c r="N2" s="84"/>
-      <c r="O2" s="84"/>
-      <c r="P2" s="84"/>
-      <c r="Q2" s="91">
+      <c r="J2" s="97"/>
+      <c r="K2" s="97"/>
+      <c r="L2" s="97"/>
+      <c r="M2" s="97"/>
+      <c r="N2" s="97"/>
+      <c r="O2" s="97"/>
+      <c r="P2" s="97"/>
+      <c r="Q2" s="104">
         <f ca="1">改版履歴!Q2</f>
         <v>43933</v>
       </c>
-      <c r="R2" s="84"/>
-      <c r="S2" s="84"/>
-      <c r="T2" s="84"/>
-      <c r="U2" s="84"/>
-      <c r="V2" s="84"/>
-      <c r="W2" s="84"/>
-      <c r="X2" s="84"/>
-      <c r="Y2" s="84" t="str">
+      <c r="R2" s="97"/>
+      <c r="S2" s="97"/>
+      <c r="T2" s="97"/>
+      <c r="U2" s="97"/>
+      <c r="V2" s="97"/>
+      <c r="W2" s="97"/>
+      <c r="X2" s="97"/>
+      <c r="Y2" s="97" t="str">
         <f ca="1">改版履歴!Y2</f>
         <v>Giphe</v>
       </c>
-      <c r="Z2" s="84"/>
-      <c r="AA2" s="84"/>
-      <c r="AB2" s="84"/>
-      <c r="AC2" s="84"/>
-      <c r="AD2" s="84"/>
-      <c r="AE2" s="84"/>
-      <c r="AF2" s="84"/>
-      <c r="AG2" s="84" t="str">
+      <c r="Z2" s="97"/>
+      <c r="AA2" s="97"/>
+      <c r="AB2" s="97"/>
+      <c r="AC2" s="97"/>
+      <c r="AD2" s="97"/>
+      <c r="AE2" s="97"/>
+      <c r="AF2" s="97"/>
+      <c r="AG2" s="97" t="str">
         <f ca="1">改版履歴!AG2</f>
         <v>1.0</v>
       </c>
-      <c r="AH2" s="84"/>
-      <c r="AI2" s="84"/>
-      <c r="AJ2" s="84"/>
-      <c r="AK2" s="84"/>
-      <c r="AL2" s="84"/>
-      <c r="AM2" s="84"/>
-      <c r="AN2" s="84"/>
-      <c r="AO2" s="84" t="str">
+      <c r="AH2" s="97"/>
+      <c r="AI2" s="97"/>
+      <c r="AJ2" s="97"/>
+      <c r="AK2" s="97"/>
+      <c r="AL2" s="97"/>
+      <c r="AM2" s="97"/>
+      <c r="AN2" s="97"/>
+      <c r="AO2" s="97" t="str">
         <f>改版履歴!AO2</f>
         <v>PGUSED020</v>
       </c>
-      <c r="AP2" s="84"/>
-      <c r="AQ2" s="84"/>
-      <c r="AR2" s="84"/>
-      <c r="AS2" s="84"/>
-      <c r="AT2" s="84"/>
-      <c r="AU2" s="84"/>
-      <c r="AV2" s="84"/>
+      <c r="AP2" s="97"/>
+      <c r="AQ2" s="97"/>
+      <c r="AR2" s="97"/>
+      <c r="AS2" s="97"/>
+      <c r="AT2" s="97"/>
+      <c r="AU2" s="97"/>
+      <c r="AV2" s="97"/>
     </row>
     <row r="4" spans="1:48" s="26" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A4" s="23"/>
@@ -24224,38 +24225,38 @@
     </row>
     <row r="39" spans="4:32" s="49" customFormat="1" x14ac:dyDescent="0.45"/>
     <row r="40" spans="4:32" s="49" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="E40" s="114" t="s">
+      <c r="E40" s="123" t="s">
         <v>182</v>
       </c>
-      <c r="F40" s="115"/>
-      <c r="G40" s="115"/>
-      <c r="H40" s="115"/>
-      <c r="I40" s="115"/>
-      <c r="J40" s="115"/>
-      <c r="K40" s="115"/>
-      <c r="L40" s="115"/>
-      <c r="M40" s="115"/>
-      <c r="N40" s="116"/>
-      <c r="O40" s="114" t="s">
+      <c r="F40" s="124"/>
+      <c r="G40" s="124"/>
+      <c r="H40" s="124"/>
+      <c r="I40" s="124"/>
+      <c r="J40" s="124"/>
+      <c r="K40" s="124"/>
+      <c r="L40" s="124"/>
+      <c r="M40" s="124"/>
+      <c r="N40" s="125"/>
+      <c r="O40" s="123" t="s">
         <v>183</v>
       </c>
-      <c r="P40" s="115"/>
-      <c r="Q40" s="115"/>
-      <c r="R40" s="115"/>
-      <c r="S40" s="115"/>
-      <c r="T40" s="115"/>
-      <c r="U40" s="115"/>
-      <c r="V40" s="115"/>
-      <c r="W40" s="115"/>
-      <c r="X40" s="115"/>
-      <c r="Y40" s="115"/>
-      <c r="Z40" s="115"/>
-      <c r="AA40" s="115"/>
-      <c r="AB40" s="115"/>
-      <c r="AC40" s="115"/>
-      <c r="AD40" s="115"/>
-      <c r="AE40" s="115"/>
-      <c r="AF40" s="116"/>
+      <c r="P40" s="124"/>
+      <c r="Q40" s="124"/>
+      <c r="R40" s="124"/>
+      <c r="S40" s="124"/>
+      <c r="T40" s="124"/>
+      <c r="U40" s="124"/>
+      <c r="V40" s="124"/>
+      <c r="W40" s="124"/>
+      <c r="X40" s="124"/>
+      <c r="Y40" s="124"/>
+      <c r="Z40" s="124"/>
+      <c r="AA40" s="124"/>
+      <c r="AB40" s="124"/>
+      <c r="AC40" s="124"/>
+      <c r="AD40" s="124"/>
+      <c r="AE40" s="124"/>
+      <c r="AF40" s="125"/>
     </row>
     <row r="41" spans="4:32" s="49" customFormat="1" x14ac:dyDescent="0.45">
       <c r="E41" s="107" t="s">
@@ -24304,26 +24305,26 @@
       <c r="L42" s="108"/>
       <c r="M42" s="108"/>
       <c r="N42" s="109"/>
-      <c r="O42" s="117" t="s">
+      <c r="O42" s="120" t="s">
         <v>192</v>
       </c>
-      <c r="P42" s="118"/>
-      <c r="Q42" s="118"/>
-      <c r="R42" s="118"/>
-      <c r="S42" s="118"/>
-      <c r="T42" s="118"/>
-      <c r="U42" s="118"/>
-      <c r="V42" s="118"/>
-      <c r="W42" s="118"/>
-      <c r="X42" s="118"/>
-      <c r="Y42" s="118"/>
-      <c r="Z42" s="118"/>
-      <c r="AA42" s="118"/>
-      <c r="AB42" s="118"/>
-      <c r="AC42" s="118"/>
-      <c r="AD42" s="118"/>
-      <c r="AE42" s="118"/>
-      <c r="AF42" s="119"/>
+      <c r="P42" s="121"/>
+      <c r="Q42" s="121"/>
+      <c r="R42" s="121"/>
+      <c r="S42" s="121"/>
+      <c r="T42" s="121"/>
+      <c r="U42" s="121"/>
+      <c r="V42" s="121"/>
+      <c r="W42" s="121"/>
+      <c r="X42" s="121"/>
+      <c r="Y42" s="121"/>
+      <c r="Z42" s="121"/>
+      <c r="AA42" s="121"/>
+      <c r="AB42" s="121"/>
+      <c r="AC42" s="121"/>
+      <c r="AD42" s="121"/>
+      <c r="AE42" s="121"/>
+      <c r="AF42" s="122"/>
     </row>
     <row r="43" spans="4:32" s="49" customFormat="1" x14ac:dyDescent="0.45">
       <c r="E43" s="107" t="s">
@@ -24338,26 +24339,26 @@
       <c r="L43" s="108"/>
       <c r="M43" s="108"/>
       <c r="N43" s="109"/>
-      <c r="O43" s="117" t="s">
+      <c r="O43" s="120" t="s">
         <v>193</v>
       </c>
-      <c r="P43" s="118"/>
-      <c r="Q43" s="118"/>
-      <c r="R43" s="118"/>
-      <c r="S43" s="118"/>
-      <c r="T43" s="118"/>
-      <c r="U43" s="118"/>
-      <c r="V43" s="118"/>
-      <c r="W43" s="118"/>
-      <c r="X43" s="118"/>
-      <c r="Y43" s="118"/>
-      <c r="Z43" s="118"/>
-      <c r="AA43" s="118"/>
-      <c r="AB43" s="118"/>
-      <c r="AC43" s="118"/>
-      <c r="AD43" s="118"/>
-      <c r="AE43" s="118"/>
-      <c r="AF43" s="119"/>
+      <c r="P43" s="121"/>
+      <c r="Q43" s="121"/>
+      <c r="R43" s="121"/>
+      <c r="S43" s="121"/>
+      <c r="T43" s="121"/>
+      <c r="U43" s="121"/>
+      <c r="V43" s="121"/>
+      <c r="W43" s="121"/>
+      <c r="X43" s="121"/>
+      <c r="Y43" s="121"/>
+      <c r="Z43" s="121"/>
+      <c r="AA43" s="121"/>
+      <c r="AB43" s="121"/>
+      <c r="AC43" s="121"/>
+      <c r="AD43" s="121"/>
+      <c r="AE43" s="121"/>
+      <c r="AF43" s="122"/>
     </row>
     <row r="44" spans="4:32" s="49" customFormat="1" x14ac:dyDescent="0.45">
       <c r="E44" s="50" t="s">
@@ -24610,18 +24611,18 @@
       <c r="AG67" s="65"/>
     </row>
     <row r="68" spans="5:33" s="49" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="F68" s="120" t="s">
+      <c r="F68" s="114" t="s">
         <v>211</v>
       </c>
-      <c r="G68" s="121"/>
-      <c r="H68" s="121"/>
-      <c r="I68" s="121"/>
-      <c r="J68" s="121"/>
-      <c r="K68" s="121"/>
-      <c r="L68" s="121"/>
-      <c r="M68" s="121"/>
-      <c r="N68" s="121"/>
-      <c r="O68" s="122"/>
+      <c r="G68" s="115"/>
+      <c r="H68" s="115"/>
+      <c r="I68" s="115"/>
+      <c r="J68" s="115"/>
+      <c r="K68" s="115"/>
+      <c r="L68" s="115"/>
+      <c r="M68" s="115"/>
+      <c r="N68" s="115"/>
+      <c r="O68" s="116"/>
       <c r="P68" s="68" t="s">
         <v>205</v>
       </c>
@@ -24644,16 +24645,16 @@
       <c r="AG68" s="65"/>
     </row>
     <row r="69" spans="5:33" s="49" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="F69" s="123"/>
-      <c r="G69" s="124"/>
-      <c r="H69" s="124"/>
-      <c r="I69" s="124"/>
-      <c r="J69" s="124"/>
-      <c r="K69" s="124"/>
-      <c r="L69" s="124"/>
-      <c r="M69" s="124"/>
-      <c r="N69" s="124"/>
-      <c r="O69" s="125"/>
+      <c r="F69" s="117"/>
+      <c r="G69" s="118"/>
+      <c r="H69" s="118"/>
+      <c r="I69" s="118"/>
+      <c r="J69" s="118"/>
+      <c r="K69" s="118"/>
+      <c r="L69" s="118"/>
+      <c r="M69" s="118"/>
+      <c r="N69" s="118"/>
+      <c r="O69" s="119"/>
       <c r="P69" s="68" t="s">
         <v>208</v>
       </c>
@@ -24790,18 +24791,18 @@
       <c r="AG76" s="65"/>
     </row>
     <row r="77" spans="5:33" s="49" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="F77" s="120" t="s">
+      <c r="F77" s="114" t="s">
         <v>211</v>
       </c>
-      <c r="G77" s="121"/>
-      <c r="H77" s="121"/>
-      <c r="I77" s="121"/>
-      <c r="J77" s="121"/>
-      <c r="K77" s="121"/>
-      <c r="L77" s="121"/>
-      <c r="M77" s="121"/>
-      <c r="N77" s="121"/>
-      <c r="O77" s="122"/>
+      <c r="G77" s="115"/>
+      <c r="H77" s="115"/>
+      <c r="I77" s="115"/>
+      <c r="J77" s="115"/>
+      <c r="K77" s="115"/>
+      <c r="L77" s="115"/>
+      <c r="M77" s="115"/>
+      <c r="N77" s="115"/>
+      <c r="O77" s="116"/>
       <c r="P77" s="68" t="s">
         <v>204</v>
       </c>
@@ -24824,16 +24825,16 @@
       <c r="AG77" s="65"/>
     </row>
     <row r="78" spans="5:33" s="49" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="F78" s="123"/>
-      <c r="G78" s="124"/>
-      <c r="H78" s="124"/>
-      <c r="I78" s="124"/>
-      <c r="J78" s="124"/>
-      <c r="K78" s="124"/>
-      <c r="L78" s="124"/>
-      <c r="M78" s="124"/>
-      <c r="N78" s="124"/>
-      <c r="O78" s="125"/>
+      <c r="F78" s="117"/>
+      <c r="G78" s="118"/>
+      <c r="H78" s="118"/>
+      <c r="I78" s="118"/>
+      <c r="J78" s="118"/>
+      <c r="K78" s="118"/>
+      <c r="L78" s="118"/>
+      <c r="M78" s="118"/>
+      <c r="N78" s="118"/>
+      <c r="O78" s="119"/>
       <c r="P78" s="68" t="s">
         <v>208</v>
       </c>
@@ -24943,19 +24944,6 @@
     <row r="90" spans="4:5" s="26" customFormat="1" x14ac:dyDescent="0.45"/>
   </sheetData>
   <mergeCells count="24">
-    <mergeCell ref="F77:O78"/>
-    <mergeCell ref="F68:O69"/>
-    <mergeCell ref="E43:N43"/>
-    <mergeCell ref="O43:AF43"/>
-    <mergeCell ref="O44:AF44"/>
-    <mergeCell ref="E45:N45"/>
-    <mergeCell ref="O45:AF45"/>
-    <mergeCell ref="E40:N40"/>
-    <mergeCell ref="O40:AF40"/>
-    <mergeCell ref="E41:N41"/>
-    <mergeCell ref="O41:AF41"/>
-    <mergeCell ref="E42:N42"/>
-    <mergeCell ref="O42:AF42"/>
     <mergeCell ref="AO2:AV2"/>
     <mergeCell ref="A1:H2"/>
     <mergeCell ref="I1:P1"/>
@@ -24967,6 +24955,19 @@
     <mergeCell ref="Q2:X2"/>
     <mergeCell ref="Y2:AF2"/>
     <mergeCell ref="AG2:AN2"/>
+    <mergeCell ref="E40:N40"/>
+    <mergeCell ref="O40:AF40"/>
+    <mergeCell ref="E41:N41"/>
+    <mergeCell ref="O41:AF41"/>
+    <mergeCell ref="E42:N42"/>
+    <mergeCell ref="O42:AF42"/>
+    <mergeCell ref="F77:O78"/>
+    <mergeCell ref="F68:O69"/>
+    <mergeCell ref="E43:N43"/>
+    <mergeCell ref="O43:AF43"/>
+    <mergeCell ref="O44:AF44"/>
+    <mergeCell ref="E45:N45"/>
+    <mergeCell ref="O45:AF45"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -24985,132 +24986,132 @@
   <sheetFormatPr defaultColWidth="3.09765625" defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <sheetData>
     <row r="1" spans="1:48" x14ac:dyDescent="0.45">
-      <c r="A1" s="86" t="str">
+      <c r="A1" s="99" t="str">
         <f ca="1">RIGHT(CELL("filename",A1),LEN(CELL("filename",A1))-FIND("]",CELL("filename",A1)))</f>
         <v>Status</v>
       </c>
-      <c r="B1" s="87"/>
-      <c r="C1" s="87"/>
-      <c r="D1" s="87"/>
-      <c r="E1" s="87"/>
-      <c r="F1" s="87"/>
-      <c r="G1" s="87"/>
-      <c r="H1" s="87"/>
-      <c r="I1" s="90" t="s">
+      <c r="B1" s="100"/>
+      <c r="C1" s="100"/>
+      <c r="D1" s="100"/>
+      <c r="E1" s="100"/>
+      <c r="F1" s="100"/>
+      <c r="G1" s="100"/>
+      <c r="H1" s="100"/>
+      <c r="I1" s="103" t="s">
         <v>0</v>
       </c>
-      <c r="J1" s="90"/>
-      <c r="K1" s="90"/>
-      <c r="L1" s="90"/>
-      <c r="M1" s="90"/>
-      <c r="N1" s="90"/>
-      <c r="O1" s="90"/>
-      <c r="P1" s="90"/>
-      <c r="Q1" s="90" t="s">
+      <c r="J1" s="103"/>
+      <c r="K1" s="103"/>
+      <c r="L1" s="103"/>
+      <c r="M1" s="103"/>
+      <c r="N1" s="103"/>
+      <c r="O1" s="103"/>
+      <c r="P1" s="103"/>
+      <c r="Q1" s="103" t="s">
         <v>1</v>
       </c>
-      <c r="R1" s="90"/>
-      <c r="S1" s="90"/>
-      <c r="T1" s="90"/>
-      <c r="U1" s="90"/>
-      <c r="V1" s="90"/>
-      <c r="W1" s="90"/>
-      <c r="X1" s="90"/>
-      <c r="Y1" s="90" t="s">
+      <c r="R1" s="103"/>
+      <c r="S1" s="103"/>
+      <c r="T1" s="103"/>
+      <c r="U1" s="103"/>
+      <c r="V1" s="103"/>
+      <c r="W1" s="103"/>
+      <c r="X1" s="103"/>
+      <c r="Y1" s="103" t="s">
         <v>2</v>
       </c>
-      <c r="Z1" s="90"/>
-      <c r="AA1" s="90"/>
-      <c r="AB1" s="90"/>
-      <c r="AC1" s="90"/>
-      <c r="AD1" s="90"/>
-      <c r="AE1" s="90"/>
-      <c r="AF1" s="90"/>
-      <c r="AG1" s="90" t="s">
+      <c r="Z1" s="103"/>
+      <c r="AA1" s="103"/>
+      <c r="AB1" s="103"/>
+      <c r="AC1" s="103"/>
+      <c r="AD1" s="103"/>
+      <c r="AE1" s="103"/>
+      <c r="AF1" s="103"/>
+      <c r="AG1" s="103" t="s">
         <v>3</v>
       </c>
-      <c r="AH1" s="90"/>
-      <c r="AI1" s="90"/>
-      <c r="AJ1" s="90"/>
-      <c r="AK1" s="90"/>
-      <c r="AL1" s="90"/>
-      <c r="AM1" s="90"/>
-      <c r="AN1" s="90"/>
-      <c r="AO1" s="90" t="s">
+      <c r="AH1" s="103"/>
+      <c r="AI1" s="103"/>
+      <c r="AJ1" s="103"/>
+      <c r="AK1" s="103"/>
+      <c r="AL1" s="103"/>
+      <c r="AM1" s="103"/>
+      <c r="AN1" s="103"/>
+      <c r="AO1" s="103" t="s">
         <v>4</v>
       </c>
-      <c r="AP1" s="90"/>
-      <c r="AQ1" s="90"/>
-      <c r="AR1" s="90"/>
-      <c r="AS1" s="90"/>
-      <c r="AT1" s="90"/>
-      <c r="AU1" s="90"/>
-      <c r="AV1" s="90"/>
+      <c r="AP1" s="103"/>
+      <c r="AQ1" s="103"/>
+      <c r="AR1" s="103"/>
+      <c r="AS1" s="103"/>
+      <c r="AT1" s="103"/>
+      <c r="AU1" s="103"/>
+      <c r="AV1" s="103"/>
     </row>
     <row r="2" spans="1:48" x14ac:dyDescent="0.45">
-      <c r="A2" s="88"/>
-      <c r="B2" s="89"/>
-      <c r="C2" s="89"/>
-      <c r="D2" s="89"/>
-      <c r="E2" s="89"/>
-      <c r="F2" s="89"/>
-      <c r="G2" s="89"/>
-      <c r="H2" s="89"/>
-      <c r="I2" s="84" t="str">
+      <c r="A2" s="101"/>
+      <c r="B2" s="102"/>
+      <c r="C2" s="102"/>
+      <c r="D2" s="102"/>
+      <c r="E2" s="102"/>
+      <c r="F2" s="102"/>
+      <c r="G2" s="102"/>
+      <c r="H2" s="102"/>
+      <c r="I2" s="97" t="str">
         <f>改版履歴!I2</f>
         <v>メインメニュー画面</v>
       </c>
-      <c r="J2" s="84"/>
-      <c r="K2" s="84"/>
-      <c r="L2" s="84"/>
-      <c r="M2" s="84"/>
-      <c r="N2" s="84"/>
-      <c r="O2" s="84"/>
-      <c r="P2" s="84"/>
-      <c r="Q2" s="91">
+      <c r="J2" s="97"/>
+      <c r="K2" s="97"/>
+      <c r="L2" s="97"/>
+      <c r="M2" s="97"/>
+      <c r="N2" s="97"/>
+      <c r="O2" s="97"/>
+      <c r="P2" s="97"/>
+      <c r="Q2" s="104">
         <f ca="1">改版履歴!Q2</f>
         <v>43933</v>
       </c>
-      <c r="R2" s="84"/>
-      <c r="S2" s="84"/>
-      <c r="T2" s="84"/>
-      <c r="U2" s="84"/>
-      <c r="V2" s="84"/>
-      <c r="W2" s="84"/>
-      <c r="X2" s="84"/>
-      <c r="Y2" s="84" t="str">
+      <c r="R2" s="97"/>
+      <c r="S2" s="97"/>
+      <c r="T2" s="97"/>
+      <c r="U2" s="97"/>
+      <c r="V2" s="97"/>
+      <c r="W2" s="97"/>
+      <c r="X2" s="97"/>
+      <c r="Y2" s="97" t="str">
         <f ca="1">改版履歴!Y2</f>
         <v>Giphe</v>
       </c>
-      <c r="Z2" s="84"/>
-      <c r="AA2" s="84"/>
-      <c r="AB2" s="84"/>
-      <c r="AC2" s="84"/>
-      <c r="AD2" s="84"/>
-      <c r="AE2" s="84"/>
-      <c r="AF2" s="84"/>
-      <c r="AG2" s="84" t="str">
+      <c r="Z2" s="97"/>
+      <c r="AA2" s="97"/>
+      <c r="AB2" s="97"/>
+      <c r="AC2" s="97"/>
+      <c r="AD2" s="97"/>
+      <c r="AE2" s="97"/>
+      <c r="AF2" s="97"/>
+      <c r="AG2" s="97" t="str">
         <f ca="1">改版履歴!AG2</f>
         <v>1.0</v>
       </c>
-      <c r="AH2" s="84"/>
-      <c r="AI2" s="84"/>
-      <c r="AJ2" s="84"/>
-      <c r="AK2" s="84"/>
-      <c r="AL2" s="84"/>
-      <c r="AM2" s="84"/>
-      <c r="AN2" s="84"/>
-      <c r="AO2" s="84" t="str">
+      <c r="AH2" s="97"/>
+      <c r="AI2" s="97"/>
+      <c r="AJ2" s="97"/>
+      <c r="AK2" s="97"/>
+      <c r="AL2" s="97"/>
+      <c r="AM2" s="97"/>
+      <c r="AN2" s="97"/>
+      <c r="AO2" s="97" t="str">
         <f>改版履歴!AO2</f>
         <v>PGUSED020</v>
       </c>
-      <c r="AP2" s="84"/>
-      <c r="AQ2" s="84"/>
-      <c r="AR2" s="84"/>
-      <c r="AS2" s="84"/>
-      <c r="AT2" s="84"/>
-      <c r="AU2" s="84"/>
-      <c r="AV2" s="84"/>
+      <c r="AP2" s="97"/>
+      <c r="AQ2" s="97"/>
+      <c r="AR2" s="97"/>
+      <c r="AS2" s="97"/>
+      <c r="AT2" s="97"/>
+      <c r="AU2" s="97"/>
+      <c r="AV2" s="97"/>
     </row>
     <row r="4" spans="1:48" s="56" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A4" s="23"/>
@@ -25393,38 +25394,38 @@
     </row>
     <row r="39" spans="4:32" s="56" customFormat="1" x14ac:dyDescent="0.45"/>
     <row r="40" spans="4:32" s="56" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="E40" s="114" t="s">
+      <c r="E40" s="123" t="s">
         <v>182</v>
       </c>
-      <c r="F40" s="115"/>
-      <c r="G40" s="115"/>
-      <c r="H40" s="115"/>
-      <c r="I40" s="115"/>
-      <c r="J40" s="115"/>
-      <c r="K40" s="115"/>
-      <c r="L40" s="115"/>
-      <c r="M40" s="115"/>
-      <c r="N40" s="116"/>
-      <c r="O40" s="114" t="s">
+      <c r="F40" s="124"/>
+      <c r="G40" s="124"/>
+      <c r="H40" s="124"/>
+      <c r="I40" s="124"/>
+      <c r="J40" s="124"/>
+      <c r="K40" s="124"/>
+      <c r="L40" s="124"/>
+      <c r="M40" s="124"/>
+      <c r="N40" s="125"/>
+      <c r="O40" s="123" t="s">
         <v>183</v>
       </c>
-      <c r="P40" s="115"/>
-      <c r="Q40" s="115"/>
-      <c r="R40" s="115"/>
-      <c r="S40" s="115"/>
-      <c r="T40" s="115"/>
-      <c r="U40" s="115"/>
-      <c r="V40" s="115"/>
-      <c r="W40" s="115"/>
-      <c r="X40" s="115"/>
-      <c r="Y40" s="115"/>
-      <c r="Z40" s="115"/>
-      <c r="AA40" s="115"/>
-      <c r="AB40" s="115"/>
-      <c r="AC40" s="115"/>
-      <c r="AD40" s="115"/>
-      <c r="AE40" s="115"/>
-      <c r="AF40" s="116"/>
+      <c r="P40" s="124"/>
+      <c r="Q40" s="124"/>
+      <c r="R40" s="124"/>
+      <c r="S40" s="124"/>
+      <c r="T40" s="124"/>
+      <c r="U40" s="124"/>
+      <c r="V40" s="124"/>
+      <c r="W40" s="124"/>
+      <c r="X40" s="124"/>
+      <c r="Y40" s="124"/>
+      <c r="Z40" s="124"/>
+      <c r="AA40" s="124"/>
+      <c r="AB40" s="124"/>
+      <c r="AC40" s="124"/>
+      <c r="AD40" s="124"/>
+      <c r="AE40" s="124"/>
+      <c r="AF40" s="125"/>
     </row>
     <row r="41" spans="4:32" s="56" customFormat="1" x14ac:dyDescent="0.45">
       <c r="E41" s="107" t="s">
@@ -25473,26 +25474,26 @@
       <c r="L42" s="108"/>
       <c r="M42" s="108"/>
       <c r="N42" s="109"/>
-      <c r="O42" s="117" t="s">
+      <c r="O42" s="120" t="s">
         <v>192</v>
       </c>
-      <c r="P42" s="118"/>
-      <c r="Q42" s="118"/>
-      <c r="R42" s="118"/>
-      <c r="S42" s="118"/>
-      <c r="T42" s="118"/>
-      <c r="U42" s="118"/>
-      <c r="V42" s="118"/>
-      <c r="W42" s="118"/>
-      <c r="X42" s="118"/>
-      <c r="Y42" s="118"/>
-      <c r="Z42" s="118"/>
-      <c r="AA42" s="118"/>
-      <c r="AB42" s="118"/>
-      <c r="AC42" s="118"/>
-      <c r="AD42" s="118"/>
-      <c r="AE42" s="118"/>
-      <c r="AF42" s="119"/>
+      <c r="P42" s="121"/>
+      <c r="Q42" s="121"/>
+      <c r="R42" s="121"/>
+      <c r="S42" s="121"/>
+      <c r="T42" s="121"/>
+      <c r="U42" s="121"/>
+      <c r="V42" s="121"/>
+      <c r="W42" s="121"/>
+      <c r="X42" s="121"/>
+      <c r="Y42" s="121"/>
+      <c r="Z42" s="121"/>
+      <c r="AA42" s="121"/>
+      <c r="AB42" s="121"/>
+      <c r="AC42" s="121"/>
+      <c r="AD42" s="121"/>
+      <c r="AE42" s="121"/>
+      <c r="AF42" s="122"/>
     </row>
     <row r="43" spans="4:32" s="56" customFormat="1" x14ac:dyDescent="0.45">
       <c r="E43" s="107" t="s">
@@ -25507,26 +25508,26 @@
       <c r="L43" s="108"/>
       <c r="M43" s="108"/>
       <c r="N43" s="109"/>
-      <c r="O43" s="117" t="s">
+      <c r="O43" s="120" t="s">
         <v>193</v>
       </c>
-      <c r="P43" s="118"/>
-      <c r="Q43" s="118"/>
-      <c r="R43" s="118"/>
-      <c r="S43" s="118"/>
-      <c r="T43" s="118"/>
-      <c r="U43" s="118"/>
-      <c r="V43" s="118"/>
-      <c r="W43" s="118"/>
-      <c r="X43" s="118"/>
-      <c r="Y43" s="118"/>
-      <c r="Z43" s="118"/>
-      <c r="AA43" s="118"/>
-      <c r="AB43" s="118"/>
-      <c r="AC43" s="118"/>
-      <c r="AD43" s="118"/>
-      <c r="AE43" s="118"/>
-      <c r="AF43" s="119"/>
+      <c r="P43" s="121"/>
+      <c r="Q43" s="121"/>
+      <c r="R43" s="121"/>
+      <c r="S43" s="121"/>
+      <c r="T43" s="121"/>
+      <c r="U43" s="121"/>
+      <c r="V43" s="121"/>
+      <c r="W43" s="121"/>
+      <c r="X43" s="121"/>
+      <c r="Y43" s="121"/>
+      <c r="Z43" s="121"/>
+      <c r="AA43" s="121"/>
+      <c r="AB43" s="121"/>
+      <c r="AC43" s="121"/>
+      <c r="AD43" s="121"/>
+      <c r="AE43" s="121"/>
+      <c r="AF43" s="122"/>
     </row>
     <row r="44" spans="4:32" s="56" customFormat="1" x14ac:dyDescent="0.45">
       <c r="E44" s="57" t="s">
@@ -25779,18 +25780,18 @@
       <c r="AG67" s="65"/>
     </row>
     <row r="68" spans="5:33" s="56" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="F68" s="120" t="s">
+      <c r="F68" s="114" t="s">
         <v>211</v>
       </c>
-      <c r="G68" s="121"/>
-      <c r="H68" s="121"/>
-      <c r="I68" s="121"/>
-      <c r="J68" s="121"/>
-      <c r="K68" s="121"/>
-      <c r="L68" s="121"/>
-      <c r="M68" s="121"/>
-      <c r="N68" s="121"/>
-      <c r="O68" s="122"/>
+      <c r="G68" s="115"/>
+      <c r="H68" s="115"/>
+      <c r="I68" s="115"/>
+      <c r="J68" s="115"/>
+      <c r="K68" s="115"/>
+      <c r="L68" s="115"/>
+      <c r="M68" s="115"/>
+      <c r="N68" s="115"/>
+      <c r="O68" s="116"/>
       <c r="P68" s="68" t="s">
         <v>205</v>
       </c>
@@ -25813,16 +25814,16 @@
       <c r="AG68" s="65"/>
     </row>
     <row r="69" spans="5:33" s="56" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="F69" s="123"/>
-      <c r="G69" s="124"/>
-      <c r="H69" s="124"/>
-      <c r="I69" s="124"/>
-      <c r="J69" s="124"/>
-      <c r="K69" s="124"/>
-      <c r="L69" s="124"/>
-      <c r="M69" s="124"/>
-      <c r="N69" s="124"/>
-      <c r="O69" s="125"/>
+      <c r="F69" s="117"/>
+      <c r="G69" s="118"/>
+      <c r="H69" s="118"/>
+      <c r="I69" s="118"/>
+      <c r="J69" s="118"/>
+      <c r="K69" s="118"/>
+      <c r="L69" s="118"/>
+      <c r="M69" s="118"/>
+      <c r="N69" s="118"/>
+      <c r="O69" s="119"/>
       <c r="P69" s="68" t="s">
         <v>208</v>
       </c>
@@ -25959,18 +25960,18 @@
       <c r="AG76" s="65"/>
     </row>
     <row r="77" spans="5:33" s="56" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="F77" s="120" t="s">
+      <c r="F77" s="114" t="s">
         <v>211</v>
       </c>
-      <c r="G77" s="121"/>
-      <c r="H77" s="121"/>
-      <c r="I77" s="121"/>
-      <c r="J77" s="121"/>
-      <c r="K77" s="121"/>
-      <c r="L77" s="121"/>
-      <c r="M77" s="121"/>
-      <c r="N77" s="121"/>
-      <c r="O77" s="122"/>
+      <c r="G77" s="115"/>
+      <c r="H77" s="115"/>
+      <c r="I77" s="115"/>
+      <c r="J77" s="115"/>
+      <c r="K77" s="115"/>
+      <c r="L77" s="115"/>
+      <c r="M77" s="115"/>
+      <c r="N77" s="115"/>
+      <c r="O77" s="116"/>
       <c r="P77" s="68" t="s">
         <v>204</v>
       </c>
@@ -25993,16 +25994,16 @@
       <c r="AG77" s="65"/>
     </row>
     <row r="78" spans="5:33" s="56" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="F78" s="123"/>
-      <c r="G78" s="124"/>
-      <c r="H78" s="124"/>
-      <c r="I78" s="124"/>
-      <c r="J78" s="124"/>
-      <c r="K78" s="124"/>
-      <c r="L78" s="124"/>
-      <c r="M78" s="124"/>
-      <c r="N78" s="124"/>
-      <c r="O78" s="125"/>
+      <c r="F78" s="117"/>
+      <c r="G78" s="118"/>
+      <c r="H78" s="118"/>
+      <c r="I78" s="118"/>
+      <c r="J78" s="118"/>
+      <c r="K78" s="118"/>
+      <c r="L78" s="118"/>
+      <c r="M78" s="118"/>
+      <c r="N78" s="118"/>
+      <c r="O78" s="119"/>
       <c r="P78" s="68" t="s">
         <v>208</v>
       </c>
@@ -26112,13 +26113,13 @@
     <row r="90" spans="4:5" s="56" customFormat="1" x14ac:dyDescent="0.45"/>
   </sheetData>
   <mergeCells count="24">
-    <mergeCell ref="AG1:AN1"/>
-    <mergeCell ref="AO1:AV1"/>
-    <mergeCell ref="I2:P2"/>
-    <mergeCell ref="Q2:X2"/>
-    <mergeCell ref="Y2:AF2"/>
-    <mergeCell ref="AG2:AN2"/>
-    <mergeCell ref="AO2:AV2"/>
+    <mergeCell ref="F77:O78"/>
+    <mergeCell ref="E43:N43"/>
+    <mergeCell ref="O43:AF43"/>
+    <mergeCell ref="O44:AF44"/>
+    <mergeCell ref="E45:N45"/>
+    <mergeCell ref="O45:AF45"/>
+    <mergeCell ref="F68:O69"/>
     <mergeCell ref="E42:N42"/>
     <mergeCell ref="O42:AF42"/>
     <mergeCell ref="A1:H2"/>
@@ -26129,13 +26130,13 @@
     <mergeCell ref="O40:AF40"/>
     <mergeCell ref="E41:N41"/>
     <mergeCell ref="O41:AF41"/>
-    <mergeCell ref="F77:O78"/>
-    <mergeCell ref="E43:N43"/>
-    <mergeCell ref="O43:AF43"/>
-    <mergeCell ref="O44:AF44"/>
-    <mergeCell ref="E45:N45"/>
-    <mergeCell ref="O45:AF45"/>
-    <mergeCell ref="F68:O69"/>
+    <mergeCell ref="AG1:AN1"/>
+    <mergeCell ref="AO1:AV1"/>
+    <mergeCell ref="I2:P2"/>
+    <mergeCell ref="Q2:X2"/>
+    <mergeCell ref="Y2:AF2"/>
+    <mergeCell ref="AG2:AN2"/>
+    <mergeCell ref="AO2:AV2"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -26154,132 +26155,132 @@
   <sheetFormatPr defaultColWidth="3.09765625" defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <sheetData>
     <row r="1" spans="1:48" x14ac:dyDescent="0.45">
-      <c r="A1" s="86" t="str">
+      <c r="A1" s="99" t="str">
         <f ca="1">RIGHT(CELL("filename",A1),LEN(CELL("filename",A1))-FIND("]",CELL("filename",A1)))</f>
         <v>Item</v>
       </c>
-      <c r="B1" s="87"/>
-      <c r="C1" s="87"/>
-      <c r="D1" s="87"/>
-      <c r="E1" s="87"/>
-      <c r="F1" s="87"/>
-      <c r="G1" s="87"/>
-      <c r="H1" s="87"/>
-      <c r="I1" s="90" t="s">
+      <c r="B1" s="100"/>
+      <c r="C1" s="100"/>
+      <c r="D1" s="100"/>
+      <c r="E1" s="100"/>
+      <c r="F1" s="100"/>
+      <c r="G1" s="100"/>
+      <c r="H1" s="100"/>
+      <c r="I1" s="103" t="s">
         <v>0</v>
       </c>
-      <c r="J1" s="90"/>
-      <c r="K1" s="90"/>
-      <c r="L1" s="90"/>
-      <c r="M1" s="90"/>
-      <c r="N1" s="90"/>
-      <c r="O1" s="90"/>
-      <c r="P1" s="90"/>
-      <c r="Q1" s="90" t="s">
+      <c r="J1" s="103"/>
+      <c r="K1" s="103"/>
+      <c r="L1" s="103"/>
+      <c r="M1" s="103"/>
+      <c r="N1" s="103"/>
+      <c r="O1" s="103"/>
+      <c r="P1" s="103"/>
+      <c r="Q1" s="103" t="s">
         <v>1</v>
       </c>
-      <c r="R1" s="90"/>
-      <c r="S1" s="90"/>
-      <c r="T1" s="90"/>
-      <c r="U1" s="90"/>
-      <c r="V1" s="90"/>
-      <c r="W1" s="90"/>
-      <c r="X1" s="90"/>
-      <c r="Y1" s="90" t="s">
+      <c r="R1" s="103"/>
+      <c r="S1" s="103"/>
+      <c r="T1" s="103"/>
+      <c r="U1" s="103"/>
+      <c r="V1" s="103"/>
+      <c r="W1" s="103"/>
+      <c r="X1" s="103"/>
+      <c r="Y1" s="103" t="s">
         <v>2</v>
       </c>
-      <c r="Z1" s="90"/>
-      <c r="AA1" s="90"/>
-      <c r="AB1" s="90"/>
-      <c r="AC1" s="90"/>
-      <c r="AD1" s="90"/>
-      <c r="AE1" s="90"/>
-      <c r="AF1" s="90"/>
-      <c r="AG1" s="90" t="s">
+      <c r="Z1" s="103"/>
+      <c r="AA1" s="103"/>
+      <c r="AB1" s="103"/>
+      <c r="AC1" s="103"/>
+      <c r="AD1" s="103"/>
+      <c r="AE1" s="103"/>
+      <c r="AF1" s="103"/>
+      <c r="AG1" s="103" t="s">
         <v>3</v>
       </c>
-      <c r="AH1" s="90"/>
-      <c r="AI1" s="90"/>
-      <c r="AJ1" s="90"/>
-      <c r="AK1" s="90"/>
-      <c r="AL1" s="90"/>
-      <c r="AM1" s="90"/>
-      <c r="AN1" s="90"/>
-      <c r="AO1" s="90" t="s">
+      <c r="AH1" s="103"/>
+      <c r="AI1" s="103"/>
+      <c r="AJ1" s="103"/>
+      <c r="AK1" s="103"/>
+      <c r="AL1" s="103"/>
+      <c r="AM1" s="103"/>
+      <c r="AN1" s="103"/>
+      <c r="AO1" s="103" t="s">
         <v>4</v>
       </c>
-      <c r="AP1" s="90"/>
-      <c r="AQ1" s="90"/>
-      <c r="AR1" s="90"/>
-      <c r="AS1" s="90"/>
-      <c r="AT1" s="90"/>
-      <c r="AU1" s="90"/>
-      <c r="AV1" s="90"/>
+      <c r="AP1" s="103"/>
+      <c r="AQ1" s="103"/>
+      <c r="AR1" s="103"/>
+      <c r="AS1" s="103"/>
+      <c r="AT1" s="103"/>
+      <c r="AU1" s="103"/>
+      <c r="AV1" s="103"/>
     </row>
     <row r="2" spans="1:48" x14ac:dyDescent="0.45">
-      <c r="A2" s="88"/>
-      <c r="B2" s="89"/>
-      <c r="C2" s="89"/>
-      <c r="D2" s="89"/>
-      <c r="E2" s="89"/>
-      <c r="F2" s="89"/>
-      <c r="G2" s="89"/>
-      <c r="H2" s="89"/>
-      <c r="I2" s="84" t="str">
+      <c r="A2" s="101"/>
+      <c r="B2" s="102"/>
+      <c r="C2" s="102"/>
+      <c r="D2" s="102"/>
+      <c r="E2" s="102"/>
+      <c r="F2" s="102"/>
+      <c r="G2" s="102"/>
+      <c r="H2" s="102"/>
+      <c r="I2" s="97" t="str">
         <f>改版履歴!I2</f>
         <v>メインメニュー画面</v>
       </c>
-      <c r="J2" s="84"/>
-      <c r="K2" s="84"/>
-      <c r="L2" s="84"/>
-      <c r="M2" s="84"/>
-      <c r="N2" s="84"/>
-      <c r="O2" s="84"/>
-      <c r="P2" s="84"/>
-      <c r="Q2" s="91">
+      <c r="J2" s="97"/>
+      <c r="K2" s="97"/>
+      <c r="L2" s="97"/>
+      <c r="M2" s="97"/>
+      <c r="N2" s="97"/>
+      <c r="O2" s="97"/>
+      <c r="P2" s="97"/>
+      <c r="Q2" s="104">
         <f ca="1">改版履歴!Q2</f>
         <v>43933</v>
       </c>
-      <c r="R2" s="84"/>
-      <c r="S2" s="84"/>
-      <c r="T2" s="84"/>
-      <c r="U2" s="84"/>
-      <c r="V2" s="84"/>
-      <c r="W2" s="84"/>
-      <c r="X2" s="84"/>
-      <c r="Y2" s="84" t="str">
+      <c r="R2" s="97"/>
+      <c r="S2" s="97"/>
+      <c r="T2" s="97"/>
+      <c r="U2" s="97"/>
+      <c r="V2" s="97"/>
+      <c r="W2" s="97"/>
+      <c r="X2" s="97"/>
+      <c r="Y2" s="97" t="str">
         <f ca="1">改版履歴!Y2</f>
         <v>Giphe</v>
       </c>
-      <c r="Z2" s="84"/>
-      <c r="AA2" s="84"/>
-      <c r="AB2" s="84"/>
-      <c r="AC2" s="84"/>
-      <c r="AD2" s="84"/>
-      <c r="AE2" s="84"/>
-      <c r="AF2" s="84"/>
-      <c r="AG2" s="84" t="str">
+      <c r="Z2" s="97"/>
+      <c r="AA2" s="97"/>
+      <c r="AB2" s="97"/>
+      <c r="AC2" s="97"/>
+      <c r="AD2" s="97"/>
+      <c r="AE2" s="97"/>
+      <c r="AF2" s="97"/>
+      <c r="AG2" s="97" t="str">
         <f ca="1">改版履歴!AG2</f>
         <v>1.0</v>
       </c>
-      <c r="AH2" s="84"/>
-      <c r="AI2" s="84"/>
-      <c r="AJ2" s="84"/>
-      <c r="AK2" s="84"/>
-      <c r="AL2" s="84"/>
-      <c r="AM2" s="84"/>
-      <c r="AN2" s="84"/>
-      <c r="AO2" s="84" t="str">
+      <c r="AH2" s="97"/>
+      <c r="AI2" s="97"/>
+      <c r="AJ2" s="97"/>
+      <c r="AK2" s="97"/>
+      <c r="AL2" s="97"/>
+      <c r="AM2" s="97"/>
+      <c r="AN2" s="97"/>
+      <c r="AO2" s="97" t="str">
         <f>改版履歴!AO2</f>
         <v>PGUSED020</v>
       </c>
-      <c r="AP2" s="84"/>
-      <c r="AQ2" s="84"/>
-      <c r="AR2" s="84"/>
-      <c r="AS2" s="84"/>
-      <c r="AT2" s="84"/>
-      <c r="AU2" s="84"/>
-      <c r="AV2" s="84"/>
+      <c r="AP2" s="97"/>
+      <c r="AQ2" s="97"/>
+      <c r="AR2" s="97"/>
+      <c r="AS2" s="97"/>
+      <c r="AT2" s="97"/>
+      <c r="AU2" s="97"/>
+      <c r="AV2" s="97"/>
     </row>
     <row r="4" spans="1:48" s="56" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A4" s="23"/>
@@ -26562,38 +26563,38 @@
     </row>
     <row r="39" spans="4:32" s="56" customFormat="1" x14ac:dyDescent="0.45"/>
     <row r="40" spans="4:32" s="56" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="E40" s="114" t="s">
+      <c r="E40" s="123" t="s">
         <v>182</v>
       </c>
-      <c r="F40" s="115"/>
-      <c r="G40" s="115"/>
-      <c r="H40" s="115"/>
-      <c r="I40" s="115"/>
-      <c r="J40" s="115"/>
-      <c r="K40" s="115"/>
-      <c r="L40" s="115"/>
-      <c r="M40" s="115"/>
-      <c r="N40" s="116"/>
-      <c r="O40" s="114" t="s">
+      <c r="F40" s="124"/>
+      <c r="G40" s="124"/>
+      <c r="H40" s="124"/>
+      <c r="I40" s="124"/>
+      <c r="J40" s="124"/>
+      <c r="K40" s="124"/>
+      <c r="L40" s="124"/>
+      <c r="M40" s="124"/>
+      <c r="N40" s="125"/>
+      <c r="O40" s="123" t="s">
         <v>183</v>
       </c>
-      <c r="P40" s="115"/>
-      <c r="Q40" s="115"/>
-      <c r="R40" s="115"/>
-      <c r="S40" s="115"/>
-      <c r="T40" s="115"/>
-      <c r="U40" s="115"/>
-      <c r="V40" s="115"/>
-      <c r="W40" s="115"/>
-      <c r="X40" s="115"/>
-      <c r="Y40" s="115"/>
-      <c r="Z40" s="115"/>
-      <c r="AA40" s="115"/>
-      <c r="AB40" s="115"/>
-      <c r="AC40" s="115"/>
-      <c r="AD40" s="115"/>
-      <c r="AE40" s="115"/>
-      <c r="AF40" s="116"/>
+      <c r="P40" s="124"/>
+      <c r="Q40" s="124"/>
+      <c r="R40" s="124"/>
+      <c r="S40" s="124"/>
+      <c r="T40" s="124"/>
+      <c r="U40" s="124"/>
+      <c r="V40" s="124"/>
+      <c r="W40" s="124"/>
+      <c r="X40" s="124"/>
+      <c r="Y40" s="124"/>
+      <c r="Z40" s="124"/>
+      <c r="AA40" s="124"/>
+      <c r="AB40" s="124"/>
+      <c r="AC40" s="124"/>
+      <c r="AD40" s="124"/>
+      <c r="AE40" s="124"/>
+      <c r="AF40" s="125"/>
     </row>
     <row r="41" spans="4:32" s="56" customFormat="1" x14ac:dyDescent="0.45">
       <c r="E41" s="107" t="s">
@@ -26642,26 +26643,26 @@
       <c r="L42" s="108"/>
       <c r="M42" s="108"/>
       <c r="N42" s="109"/>
-      <c r="O42" s="117" t="s">
+      <c r="O42" s="120" t="s">
         <v>192</v>
       </c>
-      <c r="P42" s="118"/>
-      <c r="Q42" s="118"/>
-      <c r="R42" s="118"/>
-      <c r="S42" s="118"/>
-      <c r="T42" s="118"/>
-      <c r="U42" s="118"/>
-      <c r="V42" s="118"/>
-      <c r="W42" s="118"/>
-      <c r="X42" s="118"/>
-      <c r="Y42" s="118"/>
-      <c r="Z42" s="118"/>
-      <c r="AA42" s="118"/>
-      <c r="AB42" s="118"/>
-      <c r="AC42" s="118"/>
-      <c r="AD42" s="118"/>
-      <c r="AE42" s="118"/>
-      <c r="AF42" s="119"/>
+      <c r="P42" s="121"/>
+      <c r="Q42" s="121"/>
+      <c r="R42" s="121"/>
+      <c r="S42" s="121"/>
+      <c r="T42" s="121"/>
+      <c r="U42" s="121"/>
+      <c r="V42" s="121"/>
+      <c r="W42" s="121"/>
+      <c r="X42" s="121"/>
+      <c r="Y42" s="121"/>
+      <c r="Z42" s="121"/>
+      <c r="AA42" s="121"/>
+      <c r="AB42" s="121"/>
+      <c r="AC42" s="121"/>
+      <c r="AD42" s="121"/>
+      <c r="AE42" s="121"/>
+      <c r="AF42" s="122"/>
     </row>
     <row r="43" spans="4:32" s="56" customFormat="1" x14ac:dyDescent="0.45">
       <c r="E43" s="107" t="s">
@@ -26676,26 +26677,26 @@
       <c r="L43" s="108"/>
       <c r="M43" s="108"/>
       <c r="N43" s="109"/>
-      <c r="O43" s="117" t="s">
+      <c r="O43" s="120" t="s">
         <v>193</v>
       </c>
-      <c r="P43" s="118"/>
-      <c r="Q43" s="118"/>
-      <c r="R43" s="118"/>
-      <c r="S43" s="118"/>
-      <c r="T43" s="118"/>
-      <c r="U43" s="118"/>
-      <c r="V43" s="118"/>
-      <c r="W43" s="118"/>
-      <c r="X43" s="118"/>
-      <c r="Y43" s="118"/>
-      <c r="Z43" s="118"/>
-      <c r="AA43" s="118"/>
-      <c r="AB43" s="118"/>
-      <c r="AC43" s="118"/>
-      <c r="AD43" s="118"/>
-      <c r="AE43" s="118"/>
-      <c r="AF43" s="119"/>
+      <c r="P43" s="121"/>
+      <c r="Q43" s="121"/>
+      <c r="R43" s="121"/>
+      <c r="S43" s="121"/>
+      <c r="T43" s="121"/>
+      <c r="U43" s="121"/>
+      <c r="V43" s="121"/>
+      <c r="W43" s="121"/>
+      <c r="X43" s="121"/>
+      <c r="Y43" s="121"/>
+      <c r="Z43" s="121"/>
+      <c r="AA43" s="121"/>
+      <c r="AB43" s="121"/>
+      <c r="AC43" s="121"/>
+      <c r="AD43" s="121"/>
+      <c r="AE43" s="121"/>
+      <c r="AF43" s="122"/>
     </row>
     <row r="44" spans="4:32" s="56" customFormat="1" x14ac:dyDescent="0.45">
       <c r="E44" s="57" t="s">
@@ -26948,18 +26949,18 @@
       <c r="AG67" s="65"/>
     </row>
     <row r="68" spans="5:33" s="56" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="F68" s="120" t="s">
+      <c r="F68" s="114" t="s">
         <v>211</v>
       </c>
-      <c r="G68" s="121"/>
-      <c r="H68" s="121"/>
-      <c r="I68" s="121"/>
-      <c r="J68" s="121"/>
-      <c r="K68" s="121"/>
-      <c r="L68" s="121"/>
-      <c r="M68" s="121"/>
-      <c r="N68" s="121"/>
-      <c r="O68" s="122"/>
+      <c r="G68" s="115"/>
+      <c r="H68" s="115"/>
+      <c r="I68" s="115"/>
+      <c r="J68" s="115"/>
+      <c r="K68" s="115"/>
+      <c r="L68" s="115"/>
+      <c r="M68" s="115"/>
+      <c r="N68" s="115"/>
+      <c r="O68" s="116"/>
       <c r="P68" s="68" t="s">
         <v>205</v>
       </c>
@@ -26982,16 +26983,16 @@
       <c r="AG68" s="65"/>
     </row>
     <row r="69" spans="5:33" s="56" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="F69" s="123"/>
-      <c r="G69" s="124"/>
-      <c r="H69" s="124"/>
-      <c r="I69" s="124"/>
-      <c r="J69" s="124"/>
-      <c r="K69" s="124"/>
-      <c r="L69" s="124"/>
-      <c r="M69" s="124"/>
-      <c r="N69" s="124"/>
-      <c r="O69" s="125"/>
+      <c r="F69" s="117"/>
+      <c r="G69" s="118"/>
+      <c r="H69" s="118"/>
+      <c r="I69" s="118"/>
+      <c r="J69" s="118"/>
+      <c r="K69" s="118"/>
+      <c r="L69" s="118"/>
+      <c r="M69" s="118"/>
+      <c r="N69" s="118"/>
+      <c r="O69" s="119"/>
       <c r="P69" s="68" t="s">
         <v>208</v>
       </c>
@@ -27128,18 +27129,18 @@
       <c r="AG76" s="65"/>
     </row>
     <row r="77" spans="5:33" s="56" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="F77" s="120" t="s">
+      <c r="F77" s="114" t="s">
         <v>211</v>
       </c>
-      <c r="G77" s="121"/>
-      <c r="H77" s="121"/>
-      <c r="I77" s="121"/>
-      <c r="J77" s="121"/>
-      <c r="K77" s="121"/>
-      <c r="L77" s="121"/>
-      <c r="M77" s="121"/>
-      <c r="N77" s="121"/>
-      <c r="O77" s="122"/>
+      <c r="G77" s="115"/>
+      <c r="H77" s="115"/>
+      <c r="I77" s="115"/>
+      <c r="J77" s="115"/>
+      <c r="K77" s="115"/>
+      <c r="L77" s="115"/>
+      <c r="M77" s="115"/>
+      <c r="N77" s="115"/>
+      <c r="O77" s="116"/>
       <c r="P77" s="68" t="s">
         <v>204</v>
       </c>
@@ -27162,16 +27163,16 @@
       <c r="AG77" s="65"/>
     </row>
     <row r="78" spans="5:33" s="56" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="F78" s="123"/>
-      <c r="G78" s="124"/>
-      <c r="H78" s="124"/>
-      <c r="I78" s="124"/>
-      <c r="J78" s="124"/>
-      <c r="K78" s="124"/>
-      <c r="L78" s="124"/>
-      <c r="M78" s="124"/>
-      <c r="N78" s="124"/>
-      <c r="O78" s="125"/>
+      <c r="F78" s="117"/>
+      <c r="G78" s="118"/>
+      <c r="H78" s="118"/>
+      <c r="I78" s="118"/>
+      <c r="J78" s="118"/>
+      <c r="K78" s="118"/>
+      <c r="L78" s="118"/>
+      <c r="M78" s="118"/>
+      <c r="N78" s="118"/>
+      <c r="O78" s="119"/>
       <c r="P78" s="68" t="s">
         <v>208</v>
       </c>
@@ -27281,13 +27282,13 @@
     <row r="90" spans="4:5" s="56" customFormat="1" x14ac:dyDescent="0.45"/>
   </sheetData>
   <mergeCells count="24">
-    <mergeCell ref="AG1:AN1"/>
-    <mergeCell ref="AO1:AV1"/>
-    <mergeCell ref="I2:P2"/>
-    <mergeCell ref="Q2:X2"/>
-    <mergeCell ref="Y2:AF2"/>
-    <mergeCell ref="AG2:AN2"/>
-    <mergeCell ref="AO2:AV2"/>
+    <mergeCell ref="F77:O78"/>
+    <mergeCell ref="E43:N43"/>
+    <mergeCell ref="O43:AF43"/>
+    <mergeCell ref="O44:AF44"/>
+    <mergeCell ref="E45:N45"/>
+    <mergeCell ref="O45:AF45"/>
+    <mergeCell ref="F68:O69"/>
     <mergeCell ref="E42:N42"/>
     <mergeCell ref="O42:AF42"/>
     <mergeCell ref="A1:H2"/>
@@ -27298,13 +27299,13 @@
     <mergeCell ref="O40:AF40"/>
     <mergeCell ref="E41:N41"/>
     <mergeCell ref="O41:AF41"/>
-    <mergeCell ref="F77:O78"/>
-    <mergeCell ref="E43:N43"/>
-    <mergeCell ref="O43:AF43"/>
-    <mergeCell ref="O44:AF44"/>
-    <mergeCell ref="E45:N45"/>
-    <mergeCell ref="O45:AF45"/>
-    <mergeCell ref="F68:O69"/>
+    <mergeCell ref="AG1:AN1"/>
+    <mergeCell ref="AO1:AV1"/>
+    <mergeCell ref="I2:P2"/>
+    <mergeCell ref="Q2:X2"/>
+    <mergeCell ref="Y2:AF2"/>
+    <mergeCell ref="AG2:AN2"/>
+    <mergeCell ref="AO2:AV2"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Doc/00管理文書/40_詳細設計/画面系/PGUSERD080_地方作成処理.xlsx
+++ b/Doc/00管理文書/40_詳細設計/画面系/PGUSERD080_地方作成処理.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\MyCentOS\pythonGames\Doc\00管理文書\40_詳細設計\画面系\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4090B2FD-6A81-4C5B-9285-9D60DCDFE811}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{E67DB0E9-9EE1-4420-AB3A-2D5FC7CAC286}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8748" yWindow="3432" windowWidth="13320" windowHeight="8916" firstSheet="2" activeTab="2" xr2:uid="{CFAEB6AA-FC9D-49F8-8BE6-86D0FBA28B0C}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="2" activeTab="2" xr2:uid="{CFAEB6AA-FC9D-49F8-8BE6-86D0FBA28B0C}"/>
   </bookViews>
   <sheets>
     <sheet name="表紙" sheetId="6" r:id="rId1"/>
@@ -3780,45 +3780,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -3849,6 +3810,45 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -3873,6 +3873,24 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="27" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="21" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="22" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="13" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -3889,24 +3907,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="20" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="27" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="21" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="22" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -13221,132 +13221,132 @@
   <sheetFormatPr defaultColWidth="3.09765625" defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <sheetData>
     <row r="1" spans="1:48" x14ac:dyDescent="0.45">
-      <c r="A1" s="99" t="str">
+      <c r="A1" s="86" t="str">
         <f ca="1">RIGHT(CELL("filename",A1),LEN(CELL("filename",A1))-FIND("]",CELL("filename",A1)))</f>
         <v>DBアクセス</v>
       </c>
-      <c r="B1" s="100"/>
-      <c r="C1" s="100"/>
-      <c r="D1" s="100"/>
-      <c r="E1" s="100"/>
-      <c r="F1" s="100"/>
-      <c r="G1" s="100"/>
-      <c r="H1" s="100"/>
-      <c r="I1" s="103" t="s">
+      <c r="B1" s="87"/>
+      <c r="C1" s="87"/>
+      <c r="D1" s="87"/>
+      <c r="E1" s="87"/>
+      <c r="F1" s="87"/>
+      <c r="G1" s="87"/>
+      <c r="H1" s="87"/>
+      <c r="I1" s="90" t="s">
         <v>0</v>
       </c>
-      <c r="J1" s="103"/>
-      <c r="K1" s="103"/>
-      <c r="L1" s="103"/>
-      <c r="M1" s="103"/>
-      <c r="N1" s="103"/>
-      <c r="O1" s="103"/>
-      <c r="P1" s="103"/>
-      <c r="Q1" s="103" t="s">
+      <c r="J1" s="90"/>
+      <c r="K1" s="90"/>
+      <c r="L1" s="90"/>
+      <c r="M1" s="90"/>
+      <c r="N1" s="90"/>
+      <c r="O1" s="90"/>
+      <c r="P1" s="90"/>
+      <c r="Q1" s="90" t="s">
         <v>1</v>
       </c>
-      <c r="R1" s="103"/>
-      <c r="S1" s="103"/>
-      <c r="T1" s="103"/>
-      <c r="U1" s="103"/>
-      <c r="V1" s="103"/>
-      <c r="W1" s="103"/>
-      <c r="X1" s="103"/>
-      <c r="Y1" s="103" t="s">
+      <c r="R1" s="90"/>
+      <c r="S1" s="90"/>
+      <c r="T1" s="90"/>
+      <c r="U1" s="90"/>
+      <c r="V1" s="90"/>
+      <c r="W1" s="90"/>
+      <c r="X1" s="90"/>
+      <c r="Y1" s="90" t="s">
         <v>2</v>
       </c>
-      <c r="Z1" s="103"/>
-      <c r="AA1" s="103"/>
-      <c r="AB1" s="103"/>
-      <c r="AC1" s="103"/>
-      <c r="AD1" s="103"/>
-      <c r="AE1" s="103"/>
-      <c r="AF1" s="103"/>
-      <c r="AG1" s="103" t="s">
+      <c r="Z1" s="90"/>
+      <c r="AA1" s="90"/>
+      <c r="AB1" s="90"/>
+      <c r="AC1" s="90"/>
+      <c r="AD1" s="90"/>
+      <c r="AE1" s="90"/>
+      <c r="AF1" s="90"/>
+      <c r="AG1" s="90" t="s">
         <v>3</v>
       </c>
-      <c r="AH1" s="103"/>
-      <c r="AI1" s="103"/>
-      <c r="AJ1" s="103"/>
-      <c r="AK1" s="103"/>
-      <c r="AL1" s="103"/>
-      <c r="AM1" s="103"/>
-      <c r="AN1" s="103"/>
-      <c r="AO1" s="103" t="s">
+      <c r="AH1" s="90"/>
+      <c r="AI1" s="90"/>
+      <c r="AJ1" s="90"/>
+      <c r="AK1" s="90"/>
+      <c r="AL1" s="90"/>
+      <c r="AM1" s="90"/>
+      <c r="AN1" s="90"/>
+      <c r="AO1" s="90" t="s">
         <v>4</v>
       </c>
-      <c r="AP1" s="103"/>
-      <c r="AQ1" s="103"/>
-      <c r="AR1" s="103"/>
-      <c r="AS1" s="103"/>
-      <c r="AT1" s="103"/>
-      <c r="AU1" s="103"/>
-      <c r="AV1" s="103"/>
+      <c r="AP1" s="90"/>
+      <c r="AQ1" s="90"/>
+      <c r="AR1" s="90"/>
+      <c r="AS1" s="90"/>
+      <c r="AT1" s="90"/>
+      <c r="AU1" s="90"/>
+      <c r="AV1" s="90"/>
     </row>
     <row r="2" spans="1:48" x14ac:dyDescent="0.45">
-      <c r="A2" s="101"/>
-      <c r="B2" s="102"/>
-      <c r="C2" s="102"/>
-      <c r="D2" s="102"/>
-      <c r="E2" s="102"/>
-      <c r="F2" s="102"/>
-      <c r="G2" s="102"/>
-      <c r="H2" s="102"/>
-      <c r="I2" s="97" t="str">
+      <c r="A2" s="88"/>
+      <c r="B2" s="89"/>
+      <c r="C2" s="89"/>
+      <c r="D2" s="89"/>
+      <c r="E2" s="89"/>
+      <c r="F2" s="89"/>
+      <c r="G2" s="89"/>
+      <c r="H2" s="89"/>
+      <c r="I2" s="84" t="str">
         <f>改版履歴!I2</f>
         <v>メインメニュー画面</v>
       </c>
-      <c r="J2" s="97"/>
-      <c r="K2" s="97"/>
-      <c r="L2" s="97"/>
-      <c r="M2" s="97"/>
-      <c r="N2" s="97"/>
-      <c r="O2" s="97"/>
-      <c r="P2" s="97"/>
-      <c r="Q2" s="104">
+      <c r="J2" s="84"/>
+      <c r="K2" s="84"/>
+      <c r="L2" s="84"/>
+      <c r="M2" s="84"/>
+      <c r="N2" s="84"/>
+      <c r="O2" s="84"/>
+      <c r="P2" s="84"/>
+      <c r="Q2" s="91">
         <f ca="1">改版履歴!Q2</f>
         <v>43933</v>
       </c>
-      <c r="R2" s="97"/>
-      <c r="S2" s="97"/>
-      <c r="T2" s="97"/>
-      <c r="U2" s="97"/>
-      <c r="V2" s="97"/>
-      <c r="W2" s="97"/>
-      <c r="X2" s="97"/>
-      <c r="Y2" s="97" t="str">
+      <c r="R2" s="84"/>
+      <c r="S2" s="84"/>
+      <c r="T2" s="84"/>
+      <c r="U2" s="84"/>
+      <c r="V2" s="84"/>
+      <c r="W2" s="84"/>
+      <c r="X2" s="84"/>
+      <c r="Y2" s="84" t="str">
         <f ca="1">改版履歴!Y2</f>
         <v>Giphe</v>
       </c>
-      <c r="Z2" s="97"/>
-      <c r="AA2" s="97"/>
-      <c r="AB2" s="97"/>
-      <c r="AC2" s="97"/>
-      <c r="AD2" s="97"/>
-      <c r="AE2" s="97"/>
-      <c r="AF2" s="97"/>
-      <c r="AG2" s="97" t="str">
+      <c r="Z2" s="84"/>
+      <c r="AA2" s="84"/>
+      <c r="AB2" s="84"/>
+      <c r="AC2" s="84"/>
+      <c r="AD2" s="84"/>
+      <c r="AE2" s="84"/>
+      <c r="AF2" s="84"/>
+      <c r="AG2" s="84" t="str">
         <f ca="1">改版履歴!AG2</f>
         <v>1.0</v>
       </c>
-      <c r="AH2" s="97"/>
-      <c r="AI2" s="97"/>
-      <c r="AJ2" s="97"/>
-      <c r="AK2" s="97"/>
-      <c r="AL2" s="97"/>
-      <c r="AM2" s="97"/>
-      <c r="AN2" s="97"/>
-      <c r="AO2" s="97" t="str">
+      <c r="AH2" s="84"/>
+      <c r="AI2" s="84"/>
+      <c r="AJ2" s="84"/>
+      <c r="AK2" s="84"/>
+      <c r="AL2" s="84"/>
+      <c r="AM2" s="84"/>
+      <c r="AN2" s="84"/>
+      <c r="AO2" s="84" t="str">
         <f>改版履歴!AO2</f>
         <v>PGUSED020</v>
       </c>
-      <c r="AP2" s="97"/>
-      <c r="AQ2" s="97"/>
-      <c r="AR2" s="97"/>
-      <c r="AS2" s="97"/>
-      <c r="AT2" s="97"/>
-      <c r="AU2" s="97"/>
-      <c r="AV2" s="97"/>
+      <c r="AP2" s="84"/>
+      <c r="AQ2" s="84"/>
+      <c r="AR2" s="84"/>
+      <c r="AS2" s="84"/>
+      <c r="AT2" s="84"/>
+      <c r="AU2" s="84"/>
+      <c r="AV2" s="84"/>
     </row>
     <row r="4" spans="1:48" s="26" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A4" s="23"/>
@@ -14058,132 +14058,132 @@
   <sheetFormatPr defaultColWidth="3.09765625" defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <sheetData>
     <row r="1" spans="1:48" x14ac:dyDescent="0.45">
-      <c r="A1" s="99" t="str">
+      <c r="A1" s="86" t="str">
         <f ca="1">RIGHT(CELL("filename",A1),LEN(CELL("filename",A1))-FIND("]",CELL("filename",A1)))</f>
         <v>DBアクセス (2)</v>
       </c>
-      <c r="B1" s="100"/>
-      <c r="C1" s="100"/>
-      <c r="D1" s="100"/>
-      <c r="E1" s="100"/>
-      <c r="F1" s="100"/>
-      <c r="G1" s="100"/>
-      <c r="H1" s="100"/>
-      <c r="I1" s="103" t="s">
+      <c r="B1" s="87"/>
+      <c r="C1" s="87"/>
+      <c r="D1" s="87"/>
+      <c r="E1" s="87"/>
+      <c r="F1" s="87"/>
+      <c r="G1" s="87"/>
+      <c r="H1" s="87"/>
+      <c r="I1" s="90" t="s">
         <v>0</v>
       </c>
-      <c r="J1" s="103"/>
-      <c r="K1" s="103"/>
-      <c r="L1" s="103"/>
-      <c r="M1" s="103"/>
-      <c r="N1" s="103"/>
-      <c r="O1" s="103"/>
-      <c r="P1" s="103"/>
-      <c r="Q1" s="103" t="s">
+      <c r="J1" s="90"/>
+      <c r="K1" s="90"/>
+      <c r="L1" s="90"/>
+      <c r="M1" s="90"/>
+      <c r="N1" s="90"/>
+      <c r="O1" s="90"/>
+      <c r="P1" s="90"/>
+      <c r="Q1" s="90" t="s">
         <v>1</v>
       </c>
-      <c r="R1" s="103"/>
-      <c r="S1" s="103"/>
-      <c r="T1" s="103"/>
-      <c r="U1" s="103"/>
-      <c r="V1" s="103"/>
-      <c r="W1" s="103"/>
-      <c r="X1" s="103"/>
-      <c r="Y1" s="103" t="s">
+      <c r="R1" s="90"/>
+      <c r="S1" s="90"/>
+      <c r="T1" s="90"/>
+      <c r="U1" s="90"/>
+      <c r="V1" s="90"/>
+      <c r="W1" s="90"/>
+      <c r="X1" s="90"/>
+      <c r="Y1" s="90" t="s">
         <v>2</v>
       </c>
-      <c r="Z1" s="103"/>
-      <c r="AA1" s="103"/>
-      <c r="AB1" s="103"/>
-      <c r="AC1" s="103"/>
-      <c r="AD1" s="103"/>
-      <c r="AE1" s="103"/>
-      <c r="AF1" s="103"/>
-      <c r="AG1" s="103" t="s">
+      <c r="Z1" s="90"/>
+      <c r="AA1" s="90"/>
+      <c r="AB1" s="90"/>
+      <c r="AC1" s="90"/>
+      <c r="AD1" s="90"/>
+      <c r="AE1" s="90"/>
+      <c r="AF1" s="90"/>
+      <c r="AG1" s="90" t="s">
         <v>3</v>
       </c>
-      <c r="AH1" s="103"/>
-      <c r="AI1" s="103"/>
-      <c r="AJ1" s="103"/>
-      <c r="AK1" s="103"/>
-      <c r="AL1" s="103"/>
-      <c r="AM1" s="103"/>
-      <c r="AN1" s="103"/>
-      <c r="AO1" s="103" t="s">
+      <c r="AH1" s="90"/>
+      <c r="AI1" s="90"/>
+      <c r="AJ1" s="90"/>
+      <c r="AK1" s="90"/>
+      <c r="AL1" s="90"/>
+      <c r="AM1" s="90"/>
+      <c r="AN1" s="90"/>
+      <c r="AO1" s="90" t="s">
         <v>4</v>
       </c>
-      <c r="AP1" s="103"/>
-      <c r="AQ1" s="103"/>
-      <c r="AR1" s="103"/>
-      <c r="AS1" s="103"/>
-      <c r="AT1" s="103"/>
-      <c r="AU1" s="103"/>
-      <c r="AV1" s="103"/>
+      <c r="AP1" s="90"/>
+      <c r="AQ1" s="90"/>
+      <c r="AR1" s="90"/>
+      <c r="AS1" s="90"/>
+      <c r="AT1" s="90"/>
+      <c r="AU1" s="90"/>
+      <c r="AV1" s="90"/>
     </row>
     <row r="2" spans="1:48" x14ac:dyDescent="0.45">
-      <c r="A2" s="101"/>
-      <c r="B2" s="102"/>
-      <c r="C2" s="102"/>
-      <c r="D2" s="102"/>
-      <c r="E2" s="102"/>
-      <c r="F2" s="102"/>
-      <c r="G2" s="102"/>
-      <c r="H2" s="102"/>
-      <c r="I2" s="97" t="str">
+      <c r="A2" s="88"/>
+      <c r="B2" s="89"/>
+      <c r="C2" s="89"/>
+      <c r="D2" s="89"/>
+      <c r="E2" s="89"/>
+      <c r="F2" s="89"/>
+      <c r="G2" s="89"/>
+      <c r="H2" s="89"/>
+      <c r="I2" s="84" t="str">
         <f>改版履歴!I2</f>
         <v>メインメニュー画面</v>
       </c>
-      <c r="J2" s="97"/>
-      <c r="K2" s="97"/>
-      <c r="L2" s="97"/>
-      <c r="M2" s="97"/>
-      <c r="N2" s="97"/>
-      <c r="O2" s="97"/>
-      <c r="P2" s="97"/>
-      <c r="Q2" s="104">
+      <c r="J2" s="84"/>
+      <c r="K2" s="84"/>
+      <c r="L2" s="84"/>
+      <c r="M2" s="84"/>
+      <c r="N2" s="84"/>
+      <c r="O2" s="84"/>
+      <c r="P2" s="84"/>
+      <c r="Q2" s="91">
         <f ca="1">改版履歴!Q2</f>
         <v>43933</v>
       </c>
-      <c r="R2" s="97"/>
-      <c r="S2" s="97"/>
-      <c r="T2" s="97"/>
-      <c r="U2" s="97"/>
-      <c r="V2" s="97"/>
-      <c r="W2" s="97"/>
-      <c r="X2" s="97"/>
-      <c r="Y2" s="97" t="str">
+      <c r="R2" s="84"/>
+      <c r="S2" s="84"/>
+      <c r="T2" s="84"/>
+      <c r="U2" s="84"/>
+      <c r="V2" s="84"/>
+      <c r="W2" s="84"/>
+      <c r="X2" s="84"/>
+      <c r="Y2" s="84" t="str">
         <f ca="1">改版履歴!Y2</f>
         <v>Giphe</v>
       </c>
-      <c r="Z2" s="97"/>
-      <c r="AA2" s="97"/>
-      <c r="AB2" s="97"/>
-      <c r="AC2" s="97"/>
-      <c r="AD2" s="97"/>
-      <c r="AE2" s="97"/>
-      <c r="AF2" s="97"/>
-      <c r="AG2" s="97" t="str">
+      <c r="Z2" s="84"/>
+      <c r="AA2" s="84"/>
+      <c r="AB2" s="84"/>
+      <c r="AC2" s="84"/>
+      <c r="AD2" s="84"/>
+      <c r="AE2" s="84"/>
+      <c r="AF2" s="84"/>
+      <c r="AG2" s="84" t="str">
         <f ca="1">改版履歴!AG2</f>
         <v>1.0</v>
       </c>
-      <c r="AH2" s="97"/>
-      <c r="AI2" s="97"/>
-      <c r="AJ2" s="97"/>
-      <c r="AK2" s="97"/>
-      <c r="AL2" s="97"/>
-      <c r="AM2" s="97"/>
-      <c r="AN2" s="97"/>
-      <c r="AO2" s="97" t="str">
+      <c r="AH2" s="84"/>
+      <c r="AI2" s="84"/>
+      <c r="AJ2" s="84"/>
+      <c r="AK2" s="84"/>
+      <c r="AL2" s="84"/>
+      <c r="AM2" s="84"/>
+      <c r="AN2" s="84"/>
+      <c r="AO2" s="84" t="str">
         <f>改版履歴!AO2</f>
         <v>PGUSED020</v>
       </c>
-      <c r="AP2" s="97"/>
-      <c r="AQ2" s="97"/>
-      <c r="AR2" s="97"/>
-      <c r="AS2" s="97"/>
-      <c r="AT2" s="97"/>
-      <c r="AU2" s="97"/>
-      <c r="AV2" s="97"/>
+      <c r="AP2" s="84"/>
+      <c r="AQ2" s="84"/>
+      <c r="AR2" s="84"/>
+      <c r="AS2" s="84"/>
+      <c r="AT2" s="84"/>
+      <c r="AU2" s="84"/>
+      <c r="AV2" s="84"/>
     </row>
     <row r="4" spans="1:48" s="49" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A4" s="23"/>
@@ -14790,215 +14790,215 @@
   <sheetFormatPr defaultColWidth="3.09765625" defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <sheetData>
     <row r="1" spans="1:59" x14ac:dyDescent="0.45">
-      <c r="A1" s="99" t="str">
+      <c r="A1" s="86" t="str">
         <f ca="1">RIGHT(CELL("filename",A1),LEN(CELL("filename",A1))-FIND("]",CELL("filename",A1)))</f>
         <v>改版履歴</v>
       </c>
-      <c r="B1" s="100"/>
-      <c r="C1" s="100"/>
-      <c r="D1" s="100"/>
-      <c r="E1" s="100"/>
-      <c r="F1" s="100"/>
-      <c r="G1" s="100"/>
-      <c r="H1" s="100"/>
-      <c r="I1" s="103" t="s">
+      <c r="B1" s="87"/>
+      <c r="C1" s="87"/>
+      <c r="D1" s="87"/>
+      <c r="E1" s="87"/>
+      <c r="F1" s="87"/>
+      <c r="G1" s="87"/>
+      <c r="H1" s="87"/>
+      <c r="I1" s="90" t="s">
         <v>0</v>
       </c>
-      <c r="J1" s="103"/>
-      <c r="K1" s="103"/>
-      <c r="L1" s="103"/>
-      <c r="M1" s="103"/>
-      <c r="N1" s="103"/>
-      <c r="O1" s="103"/>
-      <c r="P1" s="103"/>
-      <c r="Q1" s="103" t="s">
+      <c r="J1" s="90"/>
+      <c r="K1" s="90"/>
+      <c r="L1" s="90"/>
+      <c r="M1" s="90"/>
+      <c r="N1" s="90"/>
+      <c r="O1" s="90"/>
+      <c r="P1" s="90"/>
+      <c r="Q1" s="90" t="s">
         <v>1</v>
       </c>
-      <c r="R1" s="103"/>
-      <c r="S1" s="103"/>
-      <c r="T1" s="103"/>
-      <c r="U1" s="103"/>
-      <c r="V1" s="103"/>
-      <c r="W1" s="103"/>
-      <c r="X1" s="103"/>
-      <c r="Y1" s="103" t="s">
+      <c r="R1" s="90"/>
+      <c r="S1" s="90"/>
+      <c r="T1" s="90"/>
+      <c r="U1" s="90"/>
+      <c r="V1" s="90"/>
+      <c r="W1" s="90"/>
+      <c r="X1" s="90"/>
+      <c r="Y1" s="90" t="s">
         <v>2</v>
       </c>
-      <c r="Z1" s="103"/>
-      <c r="AA1" s="103"/>
-      <c r="AB1" s="103"/>
-      <c r="AC1" s="103"/>
-      <c r="AD1" s="103"/>
-      <c r="AE1" s="103"/>
-      <c r="AF1" s="103"/>
-      <c r="AG1" s="103" t="s">
+      <c r="Z1" s="90"/>
+      <c r="AA1" s="90"/>
+      <c r="AB1" s="90"/>
+      <c r="AC1" s="90"/>
+      <c r="AD1" s="90"/>
+      <c r="AE1" s="90"/>
+      <c r="AF1" s="90"/>
+      <c r="AG1" s="90" t="s">
         <v>3</v>
       </c>
-      <c r="AH1" s="103"/>
-      <c r="AI1" s="103"/>
-      <c r="AJ1" s="103"/>
-      <c r="AK1" s="103"/>
-      <c r="AL1" s="103"/>
-      <c r="AM1" s="103"/>
-      <c r="AN1" s="103"/>
-      <c r="AO1" s="103" t="s">
+      <c r="AH1" s="90"/>
+      <c r="AI1" s="90"/>
+      <c r="AJ1" s="90"/>
+      <c r="AK1" s="90"/>
+      <c r="AL1" s="90"/>
+      <c r="AM1" s="90"/>
+      <c r="AN1" s="90"/>
+      <c r="AO1" s="90" t="s">
         <v>4</v>
       </c>
-      <c r="AP1" s="103"/>
-      <c r="AQ1" s="103"/>
-      <c r="AR1" s="103"/>
-      <c r="AS1" s="103"/>
-      <c r="AT1" s="103"/>
-      <c r="AU1" s="103"/>
-      <c r="AV1" s="103"/>
+      <c r="AP1" s="90"/>
+      <c r="AQ1" s="90"/>
+      <c r="AR1" s="90"/>
+      <c r="AS1" s="90"/>
+      <c r="AT1" s="90"/>
+      <c r="AU1" s="90"/>
+      <c r="AV1" s="90"/>
     </row>
     <row r="2" spans="1:59" x14ac:dyDescent="0.45">
-      <c r="A2" s="101"/>
-      <c r="B2" s="102"/>
-      <c r="C2" s="102"/>
-      <c r="D2" s="102"/>
-      <c r="E2" s="102"/>
-      <c r="F2" s="102"/>
-      <c r="G2" s="102"/>
-      <c r="H2" s="102"/>
-      <c r="I2" s="97" t="str">
+      <c r="A2" s="88"/>
+      <c r="B2" s="89"/>
+      <c r="C2" s="89"/>
+      <c r="D2" s="89"/>
+      <c r="E2" s="89"/>
+      <c r="F2" s="89"/>
+      <c r="G2" s="89"/>
+      <c r="H2" s="89"/>
+      <c r="I2" s="84" t="str">
         <f>表紙!$AX$4</f>
         <v>メインメニュー画面</v>
       </c>
-      <c r="J2" s="97"/>
-      <c r="K2" s="97"/>
-      <c r="L2" s="97"/>
-      <c r="M2" s="97"/>
-      <c r="N2" s="97"/>
-      <c r="O2" s="97"/>
-      <c r="P2" s="97"/>
-      <c r="Q2" s="104">
+      <c r="J2" s="84"/>
+      <c r="K2" s="84"/>
+      <c r="L2" s="84"/>
+      <c r="M2" s="84"/>
+      <c r="N2" s="84"/>
+      <c r="O2" s="84"/>
+      <c r="P2" s="84"/>
+      <c r="Q2" s="91">
         <f ca="1">INDIRECT("A"&amp;(COUNTA(A:H)+2))</f>
         <v>43933</v>
       </c>
-      <c r="R2" s="104"/>
-      <c r="S2" s="104"/>
-      <c r="T2" s="104"/>
-      <c r="U2" s="104"/>
-      <c r="V2" s="104"/>
-      <c r="W2" s="104"/>
-      <c r="X2" s="104"/>
-      <c r="Y2" s="105" t="str">
+      <c r="R2" s="91"/>
+      <c r="S2" s="91"/>
+      <c r="T2" s="91"/>
+      <c r="U2" s="91"/>
+      <c r="V2" s="91"/>
+      <c r="W2" s="91"/>
+      <c r="X2" s="91"/>
+      <c r="Y2" s="92" t="str">
         <f ca="1">INDIRECT("AO"&amp;(COUNTA(AO:AV)+1))</f>
         <v>Giphe</v>
       </c>
-      <c r="Z2" s="105"/>
-      <c r="AA2" s="105"/>
-      <c r="AB2" s="105"/>
-      <c r="AC2" s="105"/>
-      <c r="AD2" s="105"/>
-      <c r="AE2" s="105"/>
-      <c r="AF2" s="105"/>
-      <c r="AG2" s="105" t="str">
+      <c r="Z2" s="92"/>
+      <c r="AA2" s="92"/>
+      <c r="AB2" s="92"/>
+      <c r="AC2" s="92"/>
+      <c r="AD2" s="92"/>
+      <c r="AE2" s="92"/>
+      <c r="AF2" s="92"/>
+      <c r="AG2" s="92" t="str">
         <f ca="1">INDIRECT("I"&amp;(COUNTA(I:L)+1))</f>
         <v>1.0</v>
       </c>
-      <c r="AH2" s="105"/>
-      <c r="AI2" s="105"/>
-      <c r="AJ2" s="105"/>
-      <c r="AK2" s="105"/>
-      <c r="AL2" s="105"/>
-      <c r="AM2" s="105"/>
-      <c r="AN2" s="105"/>
-      <c r="AO2" s="97" t="str">
+      <c r="AH2" s="92"/>
+      <c r="AI2" s="92"/>
+      <c r="AJ2" s="92"/>
+      <c r="AK2" s="92"/>
+      <c r="AL2" s="92"/>
+      <c r="AM2" s="92"/>
+      <c r="AN2" s="92"/>
+      <c r="AO2" s="84" t="str">
         <f>表紙!$BC$4</f>
         <v>PGUSED020</v>
       </c>
-      <c r="AP2" s="97"/>
-      <c r="AQ2" s="97"/>
-      <c r="AR2" s="97"/>
-      <c r="AS2" s="97"/>
-      <c r="AT2" s="97"/>
-      <c r="AU2" s="97"/>
-      <c r="AV2" s="97"/>
-      <c r="AX2" s="83"/>
-      <c r="AY2" s="83"/>
-      <c r="AZ2" s="83"/>
-      <c r="BA2" s="83"/>
-      <c r="BB2" s="83"/>
-      <c r="BC2" s="84"/>
-      <c r="BD2" s="84"/>
-      <c r="BE2" s="84"/>
-      <c r="BF2" s="84"/>
-      <c r="BG2" s="84"/>
+      <c r="AP2" s="84"/>
+      <c r="AQ2" s="84"/>
+      <c r="AR2" s="84"/>
+      <c r="AS2" s="84"/>
+      <c r="AT2" s="84"/>
+      <c r="AU2" s="84"/>
+      <c r="AV2" s="84"/>
+      <c r="AX2" s="104"/>
+      <c r="AY2" s="104"/>
+      <c r="AZ2" s="104"/>
+      <c r="BA2" s="104"/>
+      <c r="BB2" s="104"/>
+      <c r="BC2" s="105"/>
+      <c r="BD2" s="105"/>
+      <c r="BE2" s="105"/>
+      <c r="BF2" s="105"/>
+      <c r="BG2" s="105"/>
     </row>
     <row r="3" spans="1:59" x14ac:dyDescent="0.45">
-      <c r="AX3" s="83"/>
-      <c r="AY3" s="83"/>
-      <c r="AZ3" s="83"/>
-      <c r="BA3" s="83"/>
-      <c r="BB3" s="83"/>
-      <c r="BC3" s="84"/>
-      <c r="BD3" s="84"/>
-      <c r="BE3" s="84"/>
-      <c r="BF3" s="84"/>
-      <c r="BG3" s="84"/>
+      <c r="AX3" s="104"/>
+      <c r="AY3" s="104"/>
+      <c r="AZ3" s="104"/>
+      <c r="BA3" s="104"/>
+      <c r="BB3" s="104"/>
+      <c r="BC3" s="105"/>
+      <c r="BD3" s="105"/>
+      <c r="BE3" s="105"/>
+      <c r="BF3" s="105"/>
+      <c r="BG3" s="105"/>
     </row>
     <row r="4" spans="1:59" x14ac:dyDescent="0.45">
-      <c r="A4" s="98" t="s">
+      <c r="A4" s="85" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="98"/>
-      <c r="C4" s="98"/>
-      <c r="D4" s="98"/>
-      <c r="E4" s="98"/>
-      <c r="F4" s="98"/>
-      <c r="G4" s="98"/>
-      <c r="H4" s="98"/>
-      <c r="I4" s="92" t="s">
+      <c r="B4" s="85"/>
+      <c r="C4" s="85"/>
+      <c r="D4" s="85"/>
+      <c r="E4" s="85"/>
+      <c r="F4" s="85"/>
+      <c r="G4" s="85"/>
+      <c r="H4" s="85"/>
+      <c r="I4" s="100" t="s">
         <v>5</v>
       </c>
-      <c r="J4" s="93"/>
-      <c r="K4" s="93"/>
-      <c r="L4" s="94"/>
-      <c r="M4" s="89" t="s">
+      <c r="J4" s="101"/>
+      <c r="K4" s="101"/>
+      <c r="L4" s="102"/>
+      <c r="M4" s="93" t="s">
         <v>6</v>
       </c>
-      <c r="N4" s="90"/>
-      <c r="O4" s="90"/>
-      <c r="P4" s="90"/>
-      <c r="Q4" s="90"/>
-      <c r="R4" s="90"/>
-      <c r="S4" s="90"/>
-      <c r="T4" s="90"/>
-      <c r="U4" s="90"/>
-      <c r="V4" s="90"/>
-      <c r="W4" s="90"/>
-      <c r="X4" s="90"/>
-      <c r="Y4" s="90"/>
-      <c r="Z4" s="90"/>
-      <c r="AA4" s="90"/>
-      <c r="AB4" s="90"/>
-      <c r="AC4" s="90"/>
-      <c r="AD4" s="90"/>
-      <c r="AE4" s="90"/>
-      <c r="AF4" s="90"/>
-      <c r="AG4" s="90"/>
-      <c r="AH4" s="90"/>
-      <c r="AI4" s="90"/>
-      <c r="AJ4" s="90"/>
-      <c r="AK4" s="90"/>
-      <c r="AL4" s="90"/>
-      <c r="AM4" s="90"/>
-      <c r="AN4" s="91"/>
-      <c r="AO4" s="89" t="s">
+      <c r="N4" s="94"/>
+      <c r="O4" s="94"/>
+      <c r="P4" s="94"/>
+      <c r="Q4" s="94"/>
+      <c r="R4" s="94"/>
+      <c r="S4" s="94"/>
+      <c r="T4" s="94"/>
+      <c r="U4" s="94"/>
+      <c r="V4" s="94"/>
+      <c r="W4" s="94"/>
+      <c r="X4" s="94"/>
+      <c r="Y4" s="94"/>
+      <c r="Z4" s="94"/>
+      <c r="AA4" s="94"/>
+      <c r="AB4" s="94"/>
+      <c r="AC4" s="94"/>
+      <c r="AD4" s="94"/>
+      <c r="AE4" s="94"/>
+      <c r="AF4" s="94"/>
+      <c r="AG4" s="94"/>
+      <c r="AH4" s="94"/>
+      <c r="AI4" s="94"/>
+      <c r="AJ4" s="94"/>
+      <c r="AK4" s="94"/>
+      <c r="AL4" s="94"/>
+      <c r="AM4" s="94"/>
+      <c r="AN4" s="95"/>
+      <c r="AO4" s="93" t="s">
         <v>2</v>
       </c>
-      <c r="AP4" s="90"/>
-      <c r="AQ4" s="90"/>
-      <c r="AR4" s="90"/>
-      <c r="AS4" s="90"/>
-      <c r="AT4" s="90"/>
-      <c r="AU4" s="90"/>
-      <c r="AV4" s="91"/>
+      <c r="AP4" s="94"/>
+      <c r="AQ4" s="94"/>
+      <c r="AR4" s="94"/>
+      <c r="AS4" s="94"/>
+      <c r="AT4" s="94"/>
+      <c r="AU4" s="94"/>
+      <c r="AV4" s="95"/>
     </row>
     <row r="5" spans="1:59" x14ac:dyDescent="0.45">
-      <c r="A5" s="96">
+      <c r="A5" s="83">
         <v>43933</v>
       </c>
       <c r="B5" s="82"/>
@@ -15008,52 +15008,52 @@
       <c r="F5" s="82"/>
       <c r="G5" s="82"/>
       <c r="H5" s="82"/>
-      <c r="I5" s="95" t="s">
+      <c r="I5" s="103" t="s">
         <v>9</v>
       </c>
-      <c r="J5" s="95"/>
-      <c r="K5" s="95"/>
-      <c r="L5" s="95"/>
-      <c r="M5" s="85" t="s">
+      <c r="J5" s="103"/>
+      <c r="K5" s="103"/>
+      <c r="L5" s="103"/>
+      <c r="M5" s="96" t="s">
         <v>7</v>
       </c>
-      <c r="N5" s="86"/>
-      <c r="O5" s="86"/>
-      <c r="P5" s="86"/>
-      <c r="Q5" s="86"/>
-      <c r="R5" s="86"/>
-      <c r="S5" s="86"/>
-      <c r="T5" s="86"/>
-      <c r="U5" s="86"/>
-      <c r="V5" s="86"/>
-      <c r="W5" s="86"/>
-      <c r="X5" s="86"/>
-      <c r="Y5" s="86"/>
-      <c r="Z5" s="86"/>
-      <c r="AA5" s="86"/>
-      <c r="AB5" s="86"/>
-      <c r="AC5" s="86"/>
-      <c r="AD5" s="86"/>
-      <c r="AE5" s="86"/>
-      <c r="AF5" s="86"/>
-      <c r="AG5" s="86"/>
-      <c r="AH5" s="86"/>
-      <c r="AI5" s="86"/>
-      <c r="AJ5" s="86"/>
-      <c r="AK5" s="86"/>
-      <c r="AL5" s="86"/>
-      <c r="AM5" s="86"/>
-      <c r="AN5" s="87"/>
-      <c r="AO5" s="85" t="s">
+      <c r="N5" s="97"/>
+      <c r="O5" s="97"/>
+      <c r="P5" s="97"/>
+      <c r="Q5" s="97"/>
+      <c r="R5" s="97"/>
+      <c r="S5" s="97"/>
+      <c r="T5" s="97"/>
+      <c r="U5" s="97"/>
+      <c r="V5" s="97"/>
+      <c r="W5" s="97"/>
+      <c r="X5" s="97"/>
+      <c r="Y5" s="97"/>
+      <c r="Z5" s="97"/>
+      <c r="AA5" s="97"/>
+      <c r="AB5" s="97"/>
+      <c r="AC5" s="97"/>
+      <c r="AD5" s="97"/>
+      <c r="AE5" s="97"/>
+      <c r="AF5" s="97"/>
+      <c r="AG5" s="97"/>
+      <c r="AH5" s="97"/>
+      <c r="AI5" s="97"/>
+      <c r="AJ5" s="97"/>
+      <c r="AK5" s="97"/>
+      <c r="AL5" s="97"/>
+      <c r="AM5" s="97"/>
+      <c r="AN5" s="98"/>
+      <c r="AO5" s="96" t="s">
         <v>8</v>
       </c>
-      <c r="AP5" s="86"/>
-      <c r="AQ5" s="86"/>
-      <c r="AR5" s="86"/>
-      <c r="AS5" s="86"/>
-      <c r="AT5" s="86"/>
-      <c r="AU5" s="86"/>
-      <c r="AV5" s="87"/>
+      <c r="AP5" s="97"/>
+      <c r="AQ5" s="97"/>
+      <c r="AR5" s="97"/>
+      <c r="AS5" s="97"/>
+      <c r="AT5" s="97"/>
+      <c r="AU5" s="97"/>
+      <c r="AV5" s="98"/>
     </row>
     <row r="6" spans="1:59" x14ac:dyDescent="0.45">
       <c r="A6" s="82"/>
@@ -15064,46 +15064,46 @@
       <c r="F6" s="82"/>
       <c r="G6" s="82"/>
       <c r="H6" s="82"/>
-      <c r="I6" s="88"/>
-      <c r="J6" s="88"/>
-      <c r="K6" s="88"/>
-      <c r="L6" s="88"/>
-      <c r="M6" s="85"/>
-      <c r="N6" s="86"/>
-      <c r="O6" s="86"/>
-      <c r="P6" s="86"/>
-      <c r="Q6" s="86"/>
-      <c r="R6" s="86"/>
-      <c r="S6" s="86"/>
-      <c r="T6" s="86"/>
-      <c r="U6" s="86"/>
-      <c r="V6" s="86"/>
-      <c r="W6" s="86"/>
-      <c r="X6" s="86"/>
-      <c r="Y6" s="86"/>
-      <c r="Z6" s="86"/>
-      <c r="AA6" s="86"/>
-      <c r="AB6" s="86"/>
-      <c r="AC6" s="86"/>
-      <c r="AD6" s="86"/>
-      <c r="AE6" s="86"/>
-      <c r="AF6" s="86"/>
-      <c r="AG6" s="86"/>
-      <c r="AH6" s="86"/>
-      <c r="AI6" s="86"/>
-      <c r="AJ6" s="86"/>
-      <c r="AK6" s="86"/>
-      <c r="AL6" s="86"/>
-      <c r="AM6" s="86"/>
-      <c r="AN6" s="87"/>
-      <c r="AO6" s="85"/>
-      <c r="AP6" s="86"/>
-      <c r="AQ6" s="86"/>
-      <c r="AR6" s="86"/>
-      <c r="AS6" s="86"/>
-      <c r="AT6" s="86"/>
-      <c r="AU6" s="86"/>
-      <c r="AV6" s="87"/>
+      <c r="I6" s="99"/>
+      <c r="J6" s="99"/>
+      <c r="K6" s="99"/>
+      <c r="L6" s="99"/>
+      <c r="M6" s="96"/>
+      <c r="N6" s="97"/>
+      <c r="O6" s="97"/>
+      <c r="P6" s="97"/>
+      <c r="Q6" s="97"/>
+      <c r="R6" s="97"/>
+      <c r="S6" s="97"/>
+      <c r="T6" s="97"/>
+      <c r="U6" s="97"/>
+      <c r="V6" s="97"/>
+      <c r="W6" s="97"/>
+      <c r="X6" s="97"/>
+      <c r="Y6" s="97"/>
+      <c r="Z6" s="97"/>
+      <c r="AA6" s="97"/>
+      <c r="AB6" s="97"/>
+      <c r="AC6" s="97"/>
+      <c r="AD6" s="97"/>
+      <c r="AE6" s="97"/>
+      <c r="AF6" s="97"/>
+      <c r="AG6" s="97"/>
+      <c r="AH6" s="97"/>
+      <c r="AI6" s="97"/>
+      <c r="AJ6" s="97"/>
+      <c r="AK6" s="97"/>
+      <c r="AL6" s="97"/>
+      <c r="AM6" s="97"/>
+      <c r="AN6" s="98"/>
+      <c r="AO6" s="96"/>
+      <c r="AP6" s="97"/>
+      <c r="AQ6" s="97"/>
+      <c r="AR6" s="97"/>
+      <c r="AS6" s="97"/>
+      <c r="AT6" s="97"/>
+      <c r="AU6" s="97"/>
+      <c r="AV6" s="98"/>
     </row>
     <row r="7" spans="1:59" x14ac:dyDescent="0.45">
       <c r="A7" s="82"/>
@@ -15114,46 +15114,46 @@
       <c r="F7" s="82"/>
       <c r="G7" s="82"/>
       <c r="H7" s="82"/>
-      <c r="I7" s="88"/>
-      <c r="J7" s="88"/>
-      <c r="K7" s="88"/>
-      <c r="L7" s="88"/>
-      <c r="M7" s="85"/>
-      <c r="N7" s="86"/>
-      <c r="O7" s="86"/>
-      <c r="P7" s="86"/>
-      <c r="Q7" s="86"/>
-      <c r="R7" s="86"/>
-      <c r="S7" s="86"/>
-      <c r="T7" s="86"/>
-      <c r="U7" s="86"/>
-      <c r="V7" s="86"/>
-      <c r="W7" s="86"/>
-      <c r="X7" s="86"/>
-      <c r="Y7" s="86"/>
-      <c r="Z7" s="86"/>
-      <c r="AA7" s="86"/>
-      <c r="AB7" s="86"/>
-      <c r="AC7" s="86"/>
-      <c r="AD7" s="86"/>
-      <c r="AE7" s="86"/>
-      <c r="AF7" s="86"/>
-      <c r="AG7" s="86"/>
-      <c r="AH7" s="86"/>
-      <c r="AI7" s="86"/>
-      <c r="AJ7" s="86"/>
-      <c r="AK7" s="86"/>
-      <c r="AL7" s="86"/>
-      <c r="AM7" s="86"/>
-      <c r="AN7" s="87"/>
-      <c r="AO7" s="85"/>
-      <c r="AP7" s="86"/>
-      <c r="AQ7" s="86"/>
-      <c r="AR7" s="86"/>
-      <c r="AS7" s="86"/>
-      <c r="AT7" s="86"/>
-      <c r="AU7" s="86"/>
-      <c r="AV7" s="87"/>
+      <c r="I7" s="99"/>
+      <c r="J7" s="99"/>
+      <c r="K7" s="99"/>
+      <c r="L7" s="99"/>
+      <c r="M7" s="96"/>
+      <c r="N7" s="97"/>
+      <c r="O7" s="97"/>
+      <c r="P7" s="97"/>
+      <c r="Q7" s="97"/>
+      <c r="R7" s="97"/>
+      <c r="S7" s="97"/>
+      <c r="T7" s="97"/>
+      <c r="U7" s="97"/>
+      <c r="V7" s="97"/>
+      <c r="W7" s="97"/>
+      <c r="X7" s="97"/>
+      <c r="Y7" s="97"/>
+      <c r="Z7" s="97"/>
+      <c r="AA7" s="97"/>
+      <c r="AB7" s="97"/>
+      <c r="AC7" s="97"/>
+      <c r="AD7" s="97"/>
+      <c r="AE7" s="97"/>
+      <c r="AF7" s="97"/>
+      <c r="AG7" s="97"/>
+      <c r="AH7" s="97"/>
+      <c r="AI7" s="97"/>
+      <c r="AJ7" s="97"/>
+      <c r="AK7" s="97"/>
+      <c r="AL7" s="97"/>
+      <c r="AM7" s="97"/>
+      <c r="AN7" s="98"/>
+      <c r="AO7" s="96"/>
+      <c r="AP7" s="97"/>
+      <c r="AQ7" s="97"/>
+      <c r="AR7" s="97"/>
+      <c r="AS7" s="97"/>
+      <c r="AT7" s="97"/>
+      <c r="AU7" s="97"/>
+      <c r="AV7" s="98"/>
     </row>
     <row r="8" spans="1:59" x14ac:dyDescent="0.45">
       <c r="A8" s="82"/>
@@ -15164,46 +15164,46 @@
       <c r="F8" s="82"/>
       <c r="G8" s="82"/>
       <c r="H8" s="82"/>
-      <c r="I8" s="88"/>
-      <c r="J8" s="88"/>
-      <c r="K8" s="88"/>
-      <c r="L8" s="88"/>
-      <c r="M8" s="85"/>
-      <c r="N8" s="86"/>
-      <c r="O8" s="86"/>
-      <c r="P8" s="86"/>
-      <c r="Q8" s="86"/>
-      <c r="R8" s="86"/>
-      <c r="S8" s="86"/>
-      <c r="T8" s="86"/>
-      <c r="U8" s="86"/>
-      <c r="V8" s="86"/>
-      <c r="W8" s="86"/>
-      <c r="X8" s="86"/>
-      <c r="Y8" s="86"/>
-      <c r="Z8" s="86"/>
-      <c r="AA8" s="86"/>
-      <c r="AB8" s="86"/>
-      <c r="AC8" s="86"/>
-      <c r="AD8" s="86"/>
-      <c r="AE8" s="86"/>
-      <c r="AF8" s="86"/>
-      <c r="AG8" s="86"/>
-      <c r="AH8" s="86"/>
-      <c r="AI8" s="86"/>
-      <c r="AJ8" s="86"/>
-      <c r="AK8" s="86"/>
-      <c r="AL8" s="86"/>
-      <c r="AM8" s="86"/>
-      <c r="AN8" s="87"/>
-      <c r="AO8" s="85"/>
-      <c r="AP8" s="86"/>
-      <c r="AQ8" s="86"/>
-      <c r="AR8" s="86"/>
-      <c r="AS8" s="86"/>
-      <c r="AT8" s="86"/>
-      <c r="AU8" s="86"/>
-      <c r="AV8" s="87"/>
+      <c r="I8" s="99"/>
+      <c r="J8" s="99"/>
+      <c r="K8" s="99"/>
+      <c r="L8" s="99"/>
+      <c r="M8" s="96"/>
+      <c r="N8" s="97"/>
+      <c r="O8" s="97"/>
+      <c r="P8" s="97"/>
+      <c r="Q8" s="97"/>
+      <c r="R8" s="97"/>
+      <c r="S8" s="97"/>
+      <c r="T8" s="97"/>
+      <c r="U8" s="97"/>
+      <c r="V8" s="97"/>
+      <c r="W8" s="97"/>
+      <c r="X8" s="97"/>
+      <c r="Y8" s="97"/>
+      <c r="Z8" s="97"/>
+      <c r="AA8" s="97"/>
+      <c r="AB8" s="97"/>
+      <c r="AC8" s="97"/>
+      <c r="AD8" s="97"/>
+      <c r="AE8" s="97"/>
+      <c r="AF8" s="97"/>
+      <c r="AG8" s="97"/>
+      <c r="AH8" s="97"/>
+      <c r="AI8" s="97"/>
+      <c r="AJ8" s="97"/>
+      <c r="AK8" s="97"/>
+      <c r="AL8" s="97"/>
+      <c r="AM8" s="97"/>
+      <c r="AN8" s="98"/>
+      <c r="AO8" s="96"/>
+      <c r="AP8" s="97"/>
+      <c r="AQ8" s="97"/>
+      <c r="AR8" s="97"/>
+      <c r="AS8" s="97"/>
+      <c r="AT8" s="97"/>
+      <c r="AU8" s="97"/>
+      <c r="AV8" s="98"/>
     </row>
     <row r="9" spans="1:59" x14ac:dyDescent="0.45">
       <c r="A9" s="82"/>
@@ -15214,46 +15214,46 @@
       <c r="F9" s="82"/>
       <c r="G9" s="82"/>
       <c r="H9" s="82"/>
-      <c r="I9" s="88"/>
-      <c r="J9" s="88"/>
-      <c r="K9" s="88"/>
-      <c r="L9" s="88"/>
-      <c r="M9" s="85"/>
-      <c r="N9" s="86"/>
-      <c r="O9" s="86"/>
-      <c r="P9" s="86"/>
-      <c r="Q9" s="86"/>
-      <c r="R9" s="86"/>
-      <c r="S9" s="86"/>
-      <c r="T9" s="86"/>
-      <c r="U9" s="86"/>
-      <c r="V9" s="86"/>
-      <c r="W9" s="86"/>
-      <c r="X9" s="86"/>
-      <c r="Y9" s="86"/>
-      <c r="Z9" s="86"/>
-      <c r="AA9" s="86"/>
-      <c r="AB9" s="86"/>
-      <c r="AC9" s="86"/>
-      <c r="AD9" s="86"/>
-      <c r="AE9" s="86"/>
-      <c r="AF9" s="86"/>
-      <c r="AG9" s="86"/>
-      <c r="AH9" s="86"/>
-      <c r="AI9" s="86"/>
-      <c r="AJ9" s="86"/>
-      <c r="AK9" s="86"/>
-      <c r="AL9" s="86"/>
-      <c r="AM9" s="86"/>
-      <c r="AN9" s="87"/>
-      <c r="AO9" s="85"/>
-      <c r="AP9" s="86"/>
-      <c r="AQ9" s="86"/>
-      <c r="AR9" s="86"/>
-      <c r="AS9" s="86"/>
-      <c r="AT9" s="86"/>
-      <c r="AU9" s="86"/>
-      <c r="AV9" s="87"/>
+      <c r="I9" s="99"/>
+      <c r="J9" s="99"/>
+      <c r="K9" s="99"/>
+      <c r="L9" s="99"/>
+      <c r="M9" s="96"/>
+      <c r="N9" s="97"/>
+      <c r="O9" s="97"/>
+      <c r="P9" s="97"/>
+      <c r="Q9" s="97"/>
+      <c r="R9" s="97"/>
+      <c r="S9" s="97"/>
+      <c r="T9" s="97"/>
+      <c r="U9" s="97"/>
+      <c r="V9" s="97"/>
+      <c r="W9" s="97"/>
+      <c r="X9" s="97"/>
+      <c r="Y9" s="97"/>
+      <c r="Z9" s="97"/>
+      <c r="AA9" s="97"/>
+      <c r="AB9" s="97"/>
+      <c r="AC9" s="97"/>
+      <c r="AD9" s="97"/>
+      <c r="AE9" s="97"/>
+      <c r="AF9" s="97"/>
+      <c r="AG9" s="97"/>
+      <c r="AH9" s="97"/>
+      <c r="AI9" s="97"/>
+      <c r="AJ9" s="97"/>
+      <c r="AK9" s="97"/>
+      <c r="AL9" s="97"/>
+      <c r="AM9" s="97"/>
+      <c r="AN9" s="98"/>
+      <c r="AO9" s="96"/>
+      <c r="AP9" s="97"/>
+      <c r="AQ9" s="97"/>
+      <c r="AR9" s="97"/>
+      <c r="AS9" s="97"/>
+      <c r="AT9" s="97"/>
+      <c r="AU9" s="97"/>
+      <c r="AV9" s="98"/>
     </row>
     <row r="10" spans="1:59" x14ac:dyDescent="0.45">
       <c r="A10" s="82"/>
@@ -15264,46 +15264,46 @@
       <c r="F10" s="82"/>
       <c r="G10" s="82"/>
       <c r="H10" s="82"/>
-      <c r="I10" s="88"/>
-      <c r="J10" s="88"/>
-      <c r="K10" s="88"/>
-      <c r="L10" s="88"/>
-      <c r="M10" s="85"/>
-      <c r="N10" s="86"/>
-      <c r="O10" s="86"/>
-      <c r="P10" s="86"/>
-      <c r="Q10" s="86"/>
-      <c r="R10" s="86"/>
-      <c r="S10" s="86"/>
-      <c r="T10" s="86"/>
-      <c r="U10" s="86"/>
-      <c r="V10" s="86"/>
-      <c r="W10" s="86"/>
-      <c r="X10" s="86"/>
-      <c r="Y10" s="86"/>
-      <c r="Z10" s="86"/>
-      <c r="AA10" s="86"/>
-      <c r="AB10" s="86"/>
-      <c r="AC10" s="86"/>
-      <c r="AD10" s="86"/>
-      <c r="AE10" s="86"/>
-      <c r="AF10" s="86"/>
-      <c r="AG10" s="86"/>
-      <c r="AH10" s="86"/>
-      <c r="AI10" s="86"/>
-      <c r="AJ10" s="86"/>
-      <c r="AK10" s="86"/>
-      <c r="AL10" s="86"/>
-      <c r="AM10" s="86"/>
-      <c r="AN10" s="87"/>
-      <c r="AO10" s="85"/>
-      <c r="AP10" s="86"/>
-      <c r="AQ10" s="86"/>
-      <c r="AR10" s="86"/>
-      <c r="AS10" s="86"/>
-      <c r="AT10" s="86"/>
-      <c r="AU10" s="86"/>
-      <c r="AV10" s="87"/>
+      <c r="I10" s="99"/>
+      <c r="J10" s="99"/>
+      <c r="K10" s="99"/>
+      <c r="L10" s="99"/>
+      <c r="M10" s="96"/>
+      <c r="N10" s="97"/>
+      <c r="O10" s="97"/>
+      <c r="P10" s="97"/>
+      <c r="Q10" s="97"/>
+      <c r="R10" s="97"/>
+      <c r="S10" s="97"/>
+      <c r="T10" s="97"/>
+      <c r="U10" s="97"/>
+      <c r="V10" s="97"/>
+      <c r="W10" s="97"/>
+      <c r="X10" s="97"/>
+      <c r="Y10" s="97"/>
+      <c r="Z10" s="97"/>
+      <c r="AA10" s="97"/>
+      <c r="AB10" s="97"/>
+      <c r="AC10" s="97"/>
+      <c r="AD10" s="97"/>
+      <c r="AE10" s="97"/>
+      <c r="AF10" s="97"/>
+      <c r="AG10" s="97"/>
+      <c r="AH10" s="97"/>
+      <c r="AI10" s="97"/>
+      <c r="AJ10" s="97"/>
+      <c r="AK10" s="97"/>
+      <c r="AL10" s="97"/>
+      <c r="AM10" s="97"/>
+      <c r="AN10" s="98"/>
+      <c r="AO10" s="96"/>
+      <c r="AP10" s="97"/>
+      <c r="AQ10" s="97"/>
+      <c r="AR10" s="97"/>
+      <c r="AS10" s="97"/>
+      <c r="AT10" s="97"/>
+      <c r="AU10" s="97"/>
+      <c r="AV10" s="98"/>
     </row>
     <row r="11" spans="1:59" x14ac:dyDescent="0.45">
       <c r="A11" s="82"/>
@@ -15314,46 +15314,46 @@
       <c r="F11" s="82"/>
       <c r="G11" s="82"/>
       <c r="H11" s="82"/>
-      <c r="I11" s="88"/>
-      <c r="J11" s="88"/>
-      <c r="K11" s="88"/>
-      <c r="L11" s="88"/>
-      <c r="M11" s="85"/>
-      <c r="N11" s="86"/>
-      <c r="O11" s="86"/>
-      <c r="P11" s="86"/>
-      <c r="Q11" s="86"/>
-      <c r="R11" s="86"/>
-      <c r="S11" s="86"/>
-      <c r="T11" s="86"/>
-      <c r="U11" s="86"/>
-      <c r="V11" s="86"/>
-      <c r="W11" s="86"/>
-      <c r="X11" s="86"/>
-      <c r="Y11" s="86"/>
-      <c r="Z11" s="86"/>
-      <c r="AA11" s="86"/>
-      <c r="AB11" s="86"/>
-      <c r="AC11" s="86"/>
-      <c r="AD11" s="86"/>
-      <c r="AE11" s="86"/>
-      <c r="AF11" s="86"/>
-      <c r="AG11" s="86"/>
-      <c r="AH11" s="86"/>
-      <c r="AI11" s="86"/>
-      <c r="AJ11" s="86"/>
-      <c r="AK11" s="86"/>
-      <c r="AL11" s="86"/>
-      <c r="AM11" s="86"/>
-      <c r="AN11" s="87"/>
-      <c r="AO11" s="85"/>
-      <c r="AP11" s="86"/>
-      <c r="AQ11" s="86"/>
-      <c r="AR11" s="86"/>
-      <c r="AS11" s="86"/>
-      <c r="AT11" s="86"/>
-      <c r="AU11" s="86"/>
-      <c r="AV11" s="87"/>
+      <c r="I11" s="99"/>
+      <c r="J11" s="99"/>
+      <c r="K11" s="99"/>
+      <c r="L11" s="99"/>
+      <c r="M11" s="96"/>
+      <c r="N11" s="97"/>
+      <c r="O11" s="97"/>
+      <c r="P11" s="97"/>
+      <c r="Q11" s="97"/>
+      <c r="R11" s="97"/>
+      <c r="S11" s="97"/>
+      <c r="T11" s="97"/>
+      <c r="U11" s="97"/>
+      <c r="V11" s="97"/>
+      <c r="W11" s="97"/>
+      <c r="X11" s="97"/>
+      <c r="Y11" s="97"/>
+      <c r="Z11" s="97"/>
+      <c r="AA11" s="97"/>
+      <c r="AB11" s="97"/>
+      <c r="AC11" s="97"/>
+      <c r="AD11" s="97"/>
+      <c r="AE11" s="97"/>
+      <c r="AF11" s="97"/>
+      <c r="AG11" s="97"/>
+      <c r="AH11" s="97"/>
+      <c r="AI11" s="97"/>
+      <c r="AJ11" s="97"/>
+      <c r="AK11" s="97"/>
+      <c r="AL11" s="97"/>
+      <c r="AM11" s="97"/>
+      <c r="AN11" s="98"/>
+      <c r="AO11" s="96"/>
+      <c r="AP11" s="97"/>
+      <c r="AQ11" s="97"/>
+      <c r="AR11" s="97"/>
+      <c r="AS11" s="97"/>
+      <c r="AT11" s="97"/>
+      <c r="AU11" s="97"/>
+      <c r="AV11" s="98"/>
     </row>
     <row r="12" spans="1:59" x14ac:dyDescent="0.45">
       <c r="A12" s="82"/>
@@ -15364,46 +15364,46 @@
       <c r="F12" s="82"/>
       <c r="G12" s="82"/>
       <c r="H12" s="82"/>
-      <c r="I12" s="88"/>
-      <c r="J12" s="88"/>
-      <c r="K12" s="88"/>
-      <c r="L12" s="88"/>
-      <c r="M12" s="85"/>
-      <c r="N12" s="86"/>
-      <c r="O12" s="86"/>
-      <c r="P12" s="86"/>
-      <c r="Q12" s="86"/>
-      <c r="R12" s="86"/>
-      <c r="S12" s="86"/>
-      <c r="T12" s="86"/>
-      <c r="U12" s="86"/>
-      <c r="V12" s="86"/>
-      <c r="W12" s="86"/>
-      <c r="X12" s="86"/>
-      <c r="Y12" s="86"/>
-      <c r="Z12" s="86"/>
-      <c r="AA12" s="86"/>
-      <c r="AB12" s="86"/>
-      <c r="AC12" s="86"/>
-      <c r="AD12" s="86"/>
-      <c r="AE12" s="86"/>
-      <c r="AF12" s="86"/>
-      <c r="AG12" s="86"/>
-      <c r="AH12" s="86"/>
-      <c r="AI12" s="86"/>
-      <c r="AJ12" s="86"/>
-      <c r="AK12" s="86"/>
-      <c r="AL12" s="86"/>
-      <c r="AM12" s="86"/>
-      <c r="AN12" s="87"/>
-      <c r="AO12" s="85"/>
-      <c r="AP12" s="86"/>
-      <c r="AQ12" s="86"/>
-      <c r="AR12" s="86"/>
-      <c r="AS12" s="86"/>
-      <c r="AT12" s="86"/>
-      <c r="AU12" s="86"/>
-      <c r="AV12" s="87"/>
+      <c r="I12" s="99"/>
+      <c r="J12" s="99"/>
+      <c r="K12" s="99"/>
+      <c r="L12" s="99"/>
+      <c r="M12" s="96"/>
+      <c r="N12" s="97"/>
+      <c r="O12" s="97"/>
+      <c r="P12" s="97"/>
+      <c r="Q12" s="97"/>
+      <c r="R12" s="97"/>
+      <c r="S12" s="97"/>
+      <c r="T12" s="97"/>
+      <c r="U12" s="97"/>
+      <c r="V12" s="97"/>
+      <c r="W12" s="97"/>
+      <c r="X12" s="97"/>
+      <c r="Y12" s="97"/>
+      <c r="Z12" s="97"/>
+      <c r="AA12" s="97"/>
+      <c r="AB12" s="97"/>
+      <c r="AC12" s="97"/>
+      <c r="AD12" s="97"/>
+      <c r="AE12" s="97"/>
+      <c r="AF12" s="97"/>
+      <c r="AG12" s="97"/>
+      <c r="AH12" s="97"/>
+      <c r="AI12" s="97"/>
+      <c r="AJ12" s="97"/>
+      <c r="AK12" s="97"/>
+      <c r="AL12" s="97"/>
+      <c r="AM12" s="97"/>
+      <c r="AN12" s="98"/>
+      <c r="AO12" s="96"/>
+      <c r="AP12" s="97"/>
+      <c r="AQ12" s="97"/>
+      <c r="AR12" s="97"/>
+      <c r="AS12" s="97"/>
+      <c r="AT12" s="97"/>
+      <c r="AU12" s="97"/>
+      <c r="AV12" s="98"/>
     </row>
     <row r="13" spans="1:59" x14ac:dyDescent="0.45">
       <c r="A13" s="82"/>
@@ -15414,46 +15414,46 @@
       <c r="F13" s="82"/>
       <c r="G13" s="82"/>
       <c r="H13" s="82"/>
-      <c r="I13" s="88"/>
-      <c r="J13" s="88"/>
-      <c r="K13" s="88"/>
-      <c r="L13" s="88"/>
-      <c r="M13" s="85"/>
-      <c r="N13" s="86"/>
-      <c r="O13" s="86"/>
-      <c r="P13" s="86"/>
-      <c r="Q13" s="86"/>
-      <c r="R13" s="86"/>
-      <c r="S13" s="86"/>
-      <c r="T13" s="86"/>
-      <c r="U13" s="86"/>
-      <c r="V13" s="86"/>
-      <c r="W13" s="86"/>
-      <c r="X13" s="86"/>
-      <c r="Y13" s="86"/>
-      <c r="Z13" s="86"/>
-      <c r="AA13" s="86"/>
-      <c r="AB13" s="86"/>
-      <c r="AC13" s="86"/>
-      <c r="AD13" s="86"/>
-      <c r="AE13" s="86"/>
-      <c r="AF13" s="86"/>
-      <c r="AG13" s="86"/>
-      <c r="AH13" s="86"/>
-      <c r="AI13" s="86"/>
-      <c r="AJ13" s="86"/>
-      <c r="AK13" s="86"/>
-      <c r="AL13" s="86"/>
-      <c r="AM13" s="86"/>
-      <c r="AN13" s="87"/>
-      <c r="AO13" s="85"/>
-      <c r="AP13" s="86"/>
-      <c r="AQ13" s="86"/>
-      <c r="AR13" s="86"/>
-      <c r="AS13" s="86"/>
-      <c r="AT13" s="86"/>
-      <c r="AU13" s="86"/>
-      <c r="AV13" s="87"/>
+      <c r="I13" s="99"/>
+      <c r="J13" s="99"/>
+      <c r="K13" s="99"/>
+      <c r="L13" s="99"/>
+      <c r="M13" s="96"/>
+      <c r="N13" s="97"/>
+      <c r="O13" s="97"/>
+      <c r="P13" s="97"/>
+      <c r="Q13" s="97"/>
+      <c r="R13" s="97"/>
+      <c r="S13" s="97"/>
+      <c r="T13" s="97"/>
+      <c r="U13" s="97"/>
+      <c r="V13" s="97"/>
+      <c r="W13" s="97"/>
+      <c r="X13" s="97"/>
+      <c r="Y13" s="97"/>
+      <c r="Z13" s="97"/>
+      <c r="AA13" s="97"/>
+      <c r="AB13" s="97"/>
+      <c r="AC13" s="97"/>
+      <c r="AD13" s="97"/>
+      <c r="AE13" s="97"/>
+      <c r="AF13" s="97"/>
+      <c r="AG13" s="97"/>
+      <c r="AH13" s="97"/>
+      <c r="AI13" s="97"/>
+      <c r="AJ13" s="97"/>
+      <c r="AK13" s="97"/>
+      <c r="AL13" s="97"/>
+      <c r="AM13" s="97"/>
+      <c r="AN13" s="98"/>
+      <c r="AO13" s="96"/>
+      <c r="AP13" s="97"/>
+      <c r="AQ13" s="97"/>
+      <c r="AR13" s="97"/>
+      <c r="AS13" s="97"/>
+      <c r="AT13" s="97"/>
+      <c r="AU13" s="97"/>
+      <c r="AV13" s="98"/>
     </row>
     <row r="14" spans="1:59" x14ac:dyDescent="0.45">
       <c r="A14" s="82"/>
@@ -15464,46 +15464,46 @@
       <c r="F14" s="82"/>
       <c r="G14" s="82"/>
       <c r="H14" s="82"/>
-      <c r="I14" s="88"/>
-      <c r="J14" s="88"/>
-      <c r="K14" s="88"/>
-      <c r="L14" s="88"/>
-      <c r="M14" s="85"/>
-      <c r="N14" s="86"/>
-      <c r="O14" s="86"/>
-      <c r="P14" s="86"/>
-      <c r="Q14" s="86"/>
-      <c r="R14" s="86"/>
-      <c r="S14" s="86"/>
-      <c r="T14" s="86"/>
-      <c r="U14" s="86"/>
-      <c r="V14" s="86"/>
-      <c r="W14" s="86"/>
-      <c r="X14" s="86"/>
-      <c r="Y14" s="86"/>
-      <c r="Z14" s="86"/>
-      <c r="AA14" s="86"/>
-      <c r="AB14" s="86"/>
-      <c r="AC14" s="86"/>
-      <c r="AD14" s="86"/>
-      <c r="AE14" s="86"/>
-      <c r="AF14" s="86"/>
-      <c r="AG14" s="86"/>
-      <c r="AH14" s="86"/>
-      <c r="AI14" s="86"/>
-      <c r="AJ14" s="86"/>
-      <c r="AK14" s="86"/>
-      <c r="AL14" s="86"/>
-      <c r="AM14" s="86"/>
-      <c r="AN14" s="87"/>
-      <c r="AO14" s="85"/>
-      <c r="AP14" s="86"/>
-      <c r="AQ14" s="86"/>
-      <c r="AR14" s="86"/>
-      <c r="AS14" s="86"/>
-      <c r="AT14" s="86"/>
-      <c r="AU14" s="86"/>
-      <c r="AV14" s="87"/>
+      <c r="I14" s="99"/>
+      <c r="J14" s="99"/>
+      <c r="K14" s="99"/>
+      <c r="L14" s="99"/>
+      <c r="M14" s="96"/>
+      <c r="N14" s="97"/>
+      <c r="O14" s="97"/>
+      <c r="P14" s="97"/>
+      <c r="Q14" s="97"/>
+      <c r="R14" s="97"/>
+      <c r="S14" s="97"/>
+      <c r="T14" s="97"/>
+      <c r="U14" s="97"/>
+      <c r="V14" s="97"/>
+      <c r="W14" s="97"/>
+      <c r="X14" s="97"/>
+      <c r="Y14" s="97"/>
+      <c r="Z14" s="97"/>
+      <c r="AA14" s="97"/>
+      <c r="AB14" s="97"/>
+      <c r="AC14" s="97"/>
+      <c r="AD14" s="97"/>
+      <c r="AE14" s="97"/>
+      <c r="AF14" s="97"/>
+      <c r="AG14" s="97"/>
+      <c r="AH14" s="97"/>
+      <c r="AI14" s="97"/>
+      <c r="AJ14" s="97"/>
+      <c r="AK14" s="97"/>
+      <c r="AL14" s="97"/>
+      <c r="AM14" s="97"/>
+      <c r="AN14" s="98"/>
+      <c r="AO14" s="96"/>
+      <c r="AP14" s="97"/>
+      <c r="AQ14" s="97"/>
+      <c r="AR14" s="97"/>
+      <c r="AS14" s="97"/>
+      <c r="AT14" s="97"/>
+      <c r="AU14" s="97"/>
+      <c r="AV14" s="98"/>
     </row>
     <row r="15" spans="1:59" x14ac:dyDescent="0.45">
       <c r="A15" s="82"/>
@@ -15514,46 +15514,46 @@
       <c r="F15" s="82"/>
       <c r="G15" s="82"/>
       <c r="H15" s="82"/>
-      <c r="I15" s="88"/>
-      <c r="J15" s="88"/>
-      <c r="K15" s="88"/>
-      <c r="L15" s="88"/>
-      <c r="M15" s="85"/>
-      <c r="N15" s="86"/>
-      <c r="O15" s="86"/>
-      <c r="P15" s="86"/>
-      <c r="Q15" s="86"/>
-      <c r="R15" s="86"/>
-      <c r="S15" s="86"/>
-      <c r="T15" s="86"/>
-      <c r="U15" s="86"/>
-      <c r="V15" s="86"/>
-      <c r="W15" s="86"/>
-      <c r="X15" s="86"/>
-      <c r="Y15" s="86"/>
-      <c r="Z15" s="86"/>
-      <c r="AA15" s="86"/>
-      <c r="AB15" s="86"/>
-      <c r="AC15" s="86"/>
-      <c r="AD15" s="86"/>
-      <c r="AE15" s="86"/>
-      <c r="AF15" s="86"/>
-      <c r="AG15" s="86"/>
-      <c r="AH15" s="86"/>
-      <c r="AI15" s="86"/>
-      <c r="AJ15" s="86"/>
-      <c r="AK15" s="86"/>
-      <c r="AL15" s="86"/>
-      <c r="AM15" s="86"/>
-      <c r="AN15" s="87"/>
-      <c r="AO15" s="85"/>
-      <c r="AP15" s="86"/>
-      <c r="AQ15" s="86"/>
-      <c r="AR15" s="86"/>
-      <c r="AS15" s="86"/>
-      <c r="AT15" s="86"/>
-      <c r="AU15" s="86"/>
-      <c r="AV15" s="87"/>
+      <c r="I15" s="99"/>
+      <c r="J15" s="99"/>
+      <c r="K15" s="99"/>
+      <c r="L15" s="99"/>
+      <c r="M15" s="96"/>
+      <c r="N15" s="97"/>
+      <c r="O15" s="97"/>
+      <c r="P15" s="97"/>
+      <c r="Q15" s="97"/>
+      <c r="R15" s="97"/>
+      <c r="S15" s="97"/>
+      <c r="T15" s="97"/>
+      <c r="U15" s="97"/>
+      <c r="V15" s="97"/>
+      <c r="W15" s="97"/>
+      <c r="X15" s="97"/>
+      <c r="Y15" s="97"/>
+      <c r="Z15" s="97"/>
+      <c r="AA15" s="97"/>
+      <c r="AB15" s="97"/>
+      <c r="AC15" s="97"/>
+      <c r="AD15" s="97"/>
+      <c r="AE15" s="97"/>
+      <c r="AF15" s="97"/>
+      <c r="AG15" s="97"/>
+      <c r="AH15" s="97"/>
+      <c r="AI15" s="97"/>
+      <c r="AJ15" s="97"/>
+      <c r="AK15" s="97"/>
+      <c r="AL15" s="97"/>
+      <c r="AM15" s="97"/>
+      <c r="AN15" s="98"/>
+      <c r="AO15" s="96"/>
+      <c r="AP15" s="97"/>
+      <c r="AQ15" s="97"/>
+      <c r="AR15" s="97"/>
+      <c r="AS15" s="97"/>
+      <c r="AT15" s="97"/>
+      <c r="AU15" s="97"/>
+      <c r="AV15" s="98"/>
     </row>
     <row r="16" spans="1:59" x14ac:dyDescent="0.45">
       <c r="A16" s="82"/>
@@ -15564,49 +15564,100 @@
       <c r="F16" s="82"/>
       <c r="G16" s="82"/>
       <c r="H16" s="82"/>
-      <c r="I16" s="88"/>
-      <c r="J16" s="88"/>
-      <c r="K16" s="88"/>
-      <c r="L16" s="88"/>
-      <c r="M16" s="85"/>
-      <c r="N16" s="86"/>
-      <c r="O16" s="86"/>
-      <c r="P16" s="86"/>
-      <c r="Q16" s="86"/>
-      <c r="R16" s="86"/>
-      <c r="S16" s="86"/>
-      <c r="T16" s="86"/>
-      <c r="U16" s="86"/>
-      <c r="V16" s="86"/>
-      <c r="W16" s="86"/>
-      <c r="X16" s="86"/>
-      <c r="Y16" s="86"/>
-      <c r="Z16" s="86"/>
-      <c r="AA16" s="86"/>
-      <c r="AB16" s="86"/>
-      <c r="AC16" s="86"/>
-      <c r="AD16" s="86"/>
-      <c r="AE16" s="86"/>
-      <c r="AF16" s="86"/>
-      <c r="AG16" s="86"/>
-      <c r="AH16" s="86"/>
-      <c r="AI16" s="86"/>
-      <c r="AJ16" s="86"/>
-      <c r="AK16" s="86"/>
-      <c r="AL16" s="86"/>
-      <c r="AM16" s="86"/>
-      <c r="AN16" s="87"/>
-      <c r="AO16" s="85"/>
-      <c r="AP16" s="86"/>
-      <c r="AQ16" s="86"/>
-      <c r="AR16" s="86"/>
-      <c r="AS16" s="86"/>
-      <c r="AT16" s="86"/>
-      <c r="AU16" s="86"/>
-      <c r="AV16" s="87"/>
+      <c r="I16" s="99"/>
+      <c r="J16" s="99"/>
+      <c r="K16" s="99"/>
+      <c r="L16" s="99"/>
+      <c r="M16" s="96"/>
+      <c r="N16" s="97"/>
+      <c r="O16" s="97"/>
+      <c r="P16" s="97"/>
+      <c r="Q16" s="97"/>
+      <c r="R16" s="97"/>
+      <c r="S16" s="97"/>
+      <c r="T16" s="97"/>
+      <c r="U16" s="97"/>
+      <c r="V16" s="97"/>
+      <c r="W16" s="97"/>
+      <c r="X16" s="97"/>
+      <c r="Y16" s="97"/>
+      <c r="Z16" s="97"/>
+      <c r="AA16" s="97"/>
+      <c r="AB16" s="97"/>
+      <c r="AC16" s="97"/>
+      <c r="AD16" s="97"/>
+      <c r="AE16" s="97"/>
+      <c r="AF16" s="97"/>
+      <c r="AG16" s="97"/>
+      <c r="AH16" s="97"/>
+      <c r="AI16" s="97"/>
+      <c r="AJ16" s="97"/>
+      <c r="AK16" s="97"/>
+      <c r="AL16" s="97"/>
+      <c r="AM16" s="97"/>
+      <c r="AN16" s="98"/>
+      <c r="AO16" s="96"/>
+      <c r="AP16" s="97"/>
+      <c r="AQ16" s="97"/>
+      <c r="AR16" s="97"/>
+      <c r="AS16" s="97"/>
+      <c r="AT16" s="97"/>
+      <c r="AU16" s="97"/>
+      <c r="AV16" s="98"/>
     </row>
   </sheetData>
   <mergeCells count="67">
+    <mergeCell ref="AX2:BB2"/>
+    <mergeCell ref="AX3:BB3"/>
+    <mergeCell ref="BC2:BG2"/>
+    <mergeCell ref="BC3:BG3"/>
+    <mergeCell ref="AO10:AV10"/>
+    <mergeCell ref="AO6:AV6"/>
+    <mergeCell ref="AO7:AV7"/>
+    <mergeCell ref="AO8:AV8"/>
+    <mergeCell ref="AO9:AV9"/>
+    <mergeCell ref="AO16:AV16"/>
+    <mergeCell ref="AO11:AV11"/>
+    <mergeCell ref="AO12:AV12"/>
+    <mergeCell ref="AO13:AV13"/>
+    <mergeCell ref="AO14:AV14"/>
+    <mergeCell ref="AO15:AV15"/>
+    <mergeCell ref="I16:L16"/>
+    <mergeCell ref="M4:AN4"/>
+    <mergeCell ref="M5:AN5"/>
+    <mergeCell ref="M6:AN6"/>
+    <mergeCell ref="M7:AN7"/>
+    <mergeCell ref="M8:AN8"/>
+    <mergeCell ref="M9:AN9"/>
+    <mergeCell ref="M10:AN10"/>
+    <mergeCell ref="M11:AN11"/>
+    <mergeCell ref="M12:AN12"/>
+    <mergeCell ref="M13:AN13"/>
+    <mergeCell ref="M14:AN14"/>
+    <mergeCell ref="M15:AN15"/>
+    <mergeCell ref="M16:AN16"/>
+    <mergeCell ref="A16:H16"/>
+    <mergeCell ref="I4:L4"/>
+    <mergeCell ref="I5:L5"/>
+    <mergeCell ref="I6:L6"/>
+    <mergeCell ref="A15:H15"/>
+    <mergeCell ref="I15:L15"/>
+    <mergeCell ref="A14:H14"/>
+    <mergeCell ref="I14:L14"/>
+    <mergeCell ref="A13:H13"/>
+    <mergeCell ref="I13:L13"/>
+    <mergeCell ref="A12:H12"/>
+    <mergeCell ref="I12:L12"/>
+    <mergeCell ref="A11:H11"/>
+    <mergeCell ref="I11:L11"/>
+    <mergeCell ref="A10:H10"/>
+    <mergeCell ref="I10:L10"/>
+    <mergeCell ref="A9:H9"/>
+    <mergeCell ref="I9:L9"/>
+    <mergeCell ref="A8:H8"/>
+    <mergeCell ref="I8:L8"/>
+    <mergeCell ref="A7:H7"/>
+    <mergeCell ref="I7:L7"/>
     <mergeCell ref="A6:H6"/>
     <mergeCell ref="A5:H5"/>
     <mergeCell ref="AO2:AV2"/>
@@ -15623,57 +15674,6 @@
     <mergeCell ref="AG2:AN2"/>
     <mergeCell ref="AO4:AV4"/>
     <mergeCell ref="AO5:AV5"/>
-    <mergeCell ref="A9:H9"/>
-    <mergeCell ref="I9:L9"/>
-    <mergeCell ref="A8:H8"/>
-    <mergeCell ref="I8:L8"/>
-    <mergeCell ref="A7:H7"/>
-    <mergeCell ref="I7:L7"/>
-    <mergeCell ref="A16:H16"/>
-    <mergeCell ref="I4:L4"/>
-    <mergeCell ref="I5:L5"/>
-    <mergeCell ref="I6:L6"/>
-    <mergeCell ref="A15:H15"/>
-    <mergeCell ref="I15:L15"/>
-    <mergeCell ref="A14:H14"/>
-    <mergeCell ref="I14:L14"/>
-    <mergeCell ref="A13:H13"/>
-    <mergeCell ref="I13:L13"/>
-    <mergeCell ref="A12:H12"/>
-    <mergeCell ref="I12:L12"/>
-    <mergeCell ref="A11:H11"/>
-    <mergeCell ref="I11:L11"/>
-    <mergeCell ref="A10:H10"/>
-    <mergeCell ref="I10:L10"/>
-    <mergeCell ref="I16:L16"/>
-    <mergeCell ref="M4:AN4"/>
-    <mergeCell ref="M5:AN5"/>
-    <mergeCell ref="M6:AN6"/>
-    <mergeCell ref="M7:AN7"/>
-    <mergeCell ref="M8:AN8"/>
-    <mergeCell ref="M9:AN9"/>
-    <mergeCell ref="M10:AN10"/>
-    <mergeCell ref="M11:AN11"/>
-    <mergeCell ref="M12:AN12"/>
-    <mergeCell ref="M13:AN13"/>
-    <mergeCell ref="M14:AN14"/>
-    <mergeCell ref="M15:AN15"/>
-    <mergeCell ref="M16:AN16"/>
-    <mergeCell ref="AO16:AV16"/>
-    <mergeCell ref="AO11:AV11"/>
-    <mergeCell ref="AO12:AV12"/>
-    <mergeCell ref="AO13:AV13"/>
-    <mergeCell ref="AO14:AV14"/>
-    <mergeCell ref="AO15:AV15"/>
-    <mergeCell ref="AX2:BB2"/>
-    <mergeCell ref="AX3:BB3"/>
-    <mergeCell ref="BC2:BG2"/>
-    <mergeCell ref="BC3:BG3"/>
-    <mergeCell ref="AO10:AV10"/>
-    <mergeCell ref="AO6:AV6"/>
-    <mergeCell ref="AO7:AV7"/>
-    <mergeCell ref="AO8:AV8"/>
-    <mergeCell ref="AO9:AV9"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -15695,132 +15695,132 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:48" x14ac:dyDescent="0.45">
-      <c r="A1" s="99" t="str">
+      <c r="A1" s="86" t="str">
         <f ca="1">RIGHT(CELL("filename",A1),LEN(CELL("filename",A1))-FIND("]",CELL("filename",A1)))</f>
         <v>概要設計</v>
       </c>
-      <c r="B1" s="100"/>
-      <c r="C1" s="100"/>
-      <c r="D1" s="100"/>
-      <c r="E1" s="100"/>
-      <c r="F1" s="100"/>
-      <c r="G1" s="100"/>
-      <c r="H1" s="100"/>
-      <c r="I1" s="103" t="s">
+      <c r="B1" s="87"/>
+      <c r="C1" s="87"/>
+      <c r="D1" s="87"/>
+      <c r="E1" s="87"/>
+      <c r="F1" s="87"/>
+      <c r="G1" s="87"/>
+      <c r="H1" s="87"/>
+      <c r="I1" s="90" t="s">
         <v>0</v>
       </c>
-      <c r="J1" s="103"/>
-      <c r="K1" s="103"/>
-      <c r="L1" s="103"/>
-      <c r="M1" s="103"/>
-      <c r="N1" s="103"/>
-      <c r="O1" s="103"/>
-      <c r="P1" s="103"/>
-      <c r="Q1" s="103" t="s">
+      <c r="J1" s="90"/>
+      <c r="K1" s="90"/>
+      <c r="L1" s="90"/>
+      <c r="M1" s="90"/>
+      <c r="N1" s="90"/>
+      <c r="O1" s="90"/>
+      <c r="P1" s="90"/>
+      <c r="Q1" s="90" t="s">
         <v>1</v>
       </c>
-      <c r="R1" s="103"/>
-      <c r="S1" s="103"/>
-      <c r="T1" s="103"/>
-      <c r="U1" s="103"/>
-      <c r="V1" s="103"/>
-      <c r="W1" s="103"/>
-      <c r="X1" s="103"/>
-      <c r="Y1" s="103" t="s">
+      <c r="R1" s="90"/>
+      <c r="S1" s="90"/>
+      <c r="T1" s="90"/>
+      <c r="U1" s="90"/>
+      <c r="V1" s="90"/>
+      <c r="W1" s="90"/>
+      <c r="X1" s="90"/>
+      <c r="Y1" s="90" t="s">
         <v>2</v>
       </c>
-      <c r="Z1" s="103"/>
-      <c r="AA1" s="103"/>
-      <c r="AB1" s="103"/>
-      <c r="AC1" s="103"/>
-      <c r="AD1" s="103"/>
-      <c r="AE1" s="103"/>
-      <c r="AF1" s="103"/>
-      <c r="AG1" s="103" t="s">
+      <c r="Z1" s="90"/>
+      <c r="AA1" s="90"/>
+      <c r="AB1" s="90"/>
+      <c r="AC1" s="90"/>
+      <c r="AD1" s="90"/>
+      <c r="AE1" s="90"/>
+      <c r="AF1" s="90"/>
+      <c r="AG1" s="90" t="s">
         <v>3</v>
       </c>
-      <c r="AH1" s="103"/>
-      <c r="AI1" s="103"/>
-      <c r="AJ1" s="103"/>
-      <c r="AK1" s="103"/>
-      <c r="AL1" s="103"/>
-      <c r="AM1" s="103"/>
-      <c r="AN1" s="103"/>
-      <c r="AO1" s="103" t="s">
+      <c r="AH1" s="90"/>
+      <c r="AI1" s="90"/>
+      <c r="AJ1" s="90"/>
+      <c r="AK1" s="90"/>
+      <c r="AL1" s="90"/>
+      <c r="AM1" s="90"/>
+      <c r="AN1" s="90"/>
+      <c r="AO1" s="90" t="s">
         <v>4</v>
       </c>
-      <c r="AP1" s="103"/>
-      <c r="AQ1" s="103"/>
-      <c r="AR1" s="103"/>
-      <c r="AS1" s="103"/>
-      <c r="AT1" s="103"/>
-      <c r="AU1" s="103"/>
-      <c r="AV1" s="103"/>
+      <c r="AP1" s="90"/>
+      <c r="AQ1" s="90"/>
+      <c r="AR1" s="90"/>
+      <c r="AS1" s="90"/>
+      <c r="AT1" s="90"/>
+      <c r="AU1" s="90"/>
+      <c r="AV1" s="90"/>
     </row>
     <row r="2" spans="1:48" x14ac:dyDescent="0.45">
-      <c r="A2" s="101"/>
-      <c r="B2" s="102"/>
-      <c r="C2" s="102"/>
-      <c r="D2" s="102"/>
-      <c r="E2" s="102"/>
-      <c r="F2" s="102"/>
-      <c r="G2" s="102"/>
-      <c r="H2" s="102"/>
-      <c r="I2" s="97" t="str">
+      <c r="A2" s="88"/>
+      <c r="B2" s="89"/>
+      <c r="C2" s="89"/>
+      <c r="D2" s="89"/>
+      <c r="E2" s="89"/>
+      <c r="F2" s="89"/>
+      <c r="G2" s="89"/>
+      <c r="H2" s="89"/>
+      <c r="I2" s="84" t="str">
         <f>改版履歴!I2</f>
         <v>メインメニュー画面</v>
       </c>
-      <c r="J2" s="97"/>
-      <c r="K2" s="97"/>
-      <c r="L2" s="97"/>
-      <c r="M2" s="97"/>
-      <c r="N2" s="97"/>
-      <c r="O2" s="97"/>
-      <c r="P2" s="97"/>
-      <c r="Q2" s="104">
+      <c r="J2" s="84"/>
+      <c r="K2" s="84"/>
+      <c r="L2" s="84"/>
+      <c r="M2" s="84"/>
+      <c r="N2" s="84"/>
+      <c r="O2" s="84"/>
+      <c r="P2" s="84"/>
+      <c r="Q2" s="91">
         <f ca="1">改版履歴!Q2</f>
         <v>43933</v>
       </c>
-      <c r="R2" s="97"/>
-      <c r="S2" s="97"/>
-      <c r="T2" s="97"/>
-      <c r="U2" s="97"/>
-      <c r="V2" s="97"/>
-      <c r="W2" s="97"/>
-      <c r="X2" s="97"/>
-      <c r="Y2" s="97" t="str">
+      <c r="R2" s="84"/>
+      <c r="S2" s="84"/>
+      <c r="T2" s="84"/>
+      <c r="U2" s="84"/>
+      <c r="V2" s="84"/>
+      <c r="W2" s="84"/>
+      <c r="X2" s="84"/>
+      <c r="Y2" s="84" t="str">
         <f ca="1">改版履歴!Y2</f>
         <v>Giphe</v>
       </c>
-      <c r="Z2" s="97"/>
-      <c r="AA2" s="97"/>
-      <c r="AB2" s="97"/>
-      <c r="AC2" s="97"/>
-      <c r="AD2" s="97"/>
-      <c r="AE2" s="97"/>
-      <c r="AF2" s="97"/>
-      <c r="AG2" s="97" t="str">
+      <c r="Z2" s="84"/>
+      <c r="AA2" s="84"/>
+      <c r="AB2" s="84"/>
+      <c r="AC2" s="84"/>
+      <c r="AD2" s="84"/>
+      <c r="AE2" s="84"/>
+      <c r="AF2" s="84"/>
+      <c r="AG2" s="84" t="str">
         <f ca="1">改版履歴!AG2</f>
         <v>1.0</v>
       </c>
-      <c r="AH2" s="97"/>
-      <c r="AI2" s="97"/>
-      <c r="AJ2" s="97"/>
-      <c r="AK2" s="97"/>
-      <c r="AL2" s="97"/>
-      <c r="AM2" s="97"/>
-      <c r="AN2" s="97"/>
-      <c r="AO2" s="97" t="str">
+      <c r="AH2" s="84"/>
+      <c r="AI2" s="84"/>
+      <c r="AJ2" s="84"/>
+      <c r="AK2" s="84"/>
+      <c r="AL2" s="84"/>
+      <c r="AM2" s="84"/>
+      <c r="AN2" s="84"/>
+      <c r="AO2" s="84" t="str">
         <f>改版履歴!AO2</f>
         <v>PGUSED020</v>
       </c>
-      <c r="AP2" s="97"/>
-      <c r="AQ2" s="97"/>
-      <c r="AR2" s="97"/>
-      <c r="AS2" s="97"/>
-      <c r="AT2" s="97"/>
-      <c r="AU2" s="97"/>
-      <c r="AV2" s="97"/>
+      <c r="AP2" s="84"/>
+      <c r="AQ2" s="84"/>
+      <c r="AR2" s="84"/>
+      <c r="AS2" s="84"/>
+      <c r="AT2" s="84"/>
+      <c r="AU2" s="84"/>
+      <c r="AV2" s="84"/>
     </row>
     <row r="4" spans="1:48" s="49" customFormat="1" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A4" s="24"/>
@@ -22091,132 +22091,132 @@
   <sheetFormatPr defaultColWidth="3.09765625" defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <sheetData>
     <row r="1" spans="1:48" x14ac:dyDescent="0.45">
-      <c r="A1" s="99" t="str">
+      <c r="A1" s="86" t="str">
         <f ca="1">RIGHT(CELL("filename",A1),LEN(CELL("filename",A1))-FIND("]",CELL("filename",A1)))</f>
         <v>IOデータ</v>
       </c>
-      <c r="B1" s="100"/>
-      <c r="C1" s="100"/>
-      <c r="D1" s="100"/>
-      <c r="E1" s="100"/>
-      <c r="F1" s="100"/>
-      <c r="G1" s="100"/>
-      <c r="H1" s="100"/>
-      <c r="I1" s="103" t="s">
+      <c r="B1" s="87"/>
+      <c r="C1" s="87"/>
+      <c r="D1" s="87"/>
+      <c r="E1" s="87"/>
+      <c r="F1" s="87"/>
+      <c r="G1" s="87"/>
+      <c r="H1" s="87"/>
+      <c r="I1" s="90" t="s">
         <v>0</v>
       </c>
-      <c r="J1" s="103"/>
-      <c r="K1" s="103"/>
-      <c r="L1" s="103"/>
-      <c r="M1" s="103"/>
-      <c r="N1" s="103"/>
-      <c r="O1" s="103"/>
-      <c r="P1" s="103"/>
-      <c r="Q1" s="103" t="s">
+      <c r="J1" s="90"/>
+      <c r="K1" s="90"/>
+      <c r="L1" s="90"/>
+      <c r="M1" s="90"/>
+      <c r="N1" s="90"/>
+      <c r="O1" s="90"/>
+      <c r="P1" s="90"/>
+      <c r="Q1" s="90" t="s">
         <v>1</v>
       </c>
-      <c r="R1" s="103"/>
-      <c r="S1" s="103"/>
-      <c r="T1" s="103"/>
-      <c r="U1" s="103"/>
-      <c r="V1" s="103"/>
-      <c r="W1" s="103"/>
-      <c r="X1" s="103"/>
-      <c r="Y1" s="103" t="s">
+      <c r="R1" s="90"/>
+      <c r="S1" s="90"/>
+      <c r="T1" s="90"/>
+      <c r="U1" s="90"/>
+      <c r="V1" s="90"/>
+      <c r="W1" s="90"/>
+      <c r="X1" s="90"/>
+      <c r="Y1" s="90" t="s">
         <v>2</v>
       </c>
-      <c r="Z1" s="103"/>
-      <c r="AA1" s="103"/>
-      <c r="AB1" s="103"/>
-      <c r="AC1" s="103"/>
-      <c r="AD1" s="103"/>
-      <c r="AE1" s="103"/>
-      <c r="AF1" s="103"/>
-      <c r="AG1" s="103" t="s">
+      <c r="Z1" s="90"/>
+      <c r="AA1" s="90"/>
+      <c r="AB1" s="90"/>
+      <c r="AC1" s="90"/>
+      <c r="AD1" s="90"/>
+      <c r="AE1" s="90"/>
+      <c r="AF1" s="90"/>
+      <c r="AG1" s="90" t="s">
         <v>3</v>
       </c>
-      <c r="AH1" s="103"/>
-      <c r="AI1" s="103"/>
-      <c r="AJ1" s="103"/>
-      <c r="AK1" s="103"/>
-      <c r="AL1" s="103"/>
-      <c r="AM1" s="103"/>
-      <c r="AN1" s="103"/>
-      <c r="AO1" s="103" t="s">
+      <c r="AH1" s="90"/>
+      <c r="AI1" s="90"/>
+      <c r="AJ1" s="90"/>
+      <c r="AK1" s="90"/>
+      <c r="AL1" s="90"/>
+      <c r="AM1" s="90"/>
+      <c r="AN1" s="90"/>
+      <c r="AO1" s="90" t="s">
         <v>4</v>
       </c>
-      <c r="AP1" s="103"/>
-      <c r="AQ1" s="103"/>
-      <c r="AR1" s="103"/>
-      <c r="AS1" s="103"/>
-      <c r="AT1" s="103"/>
-      <c r="AU1" s="103"/>
-      <c r="AV1" s="103"/>
+      <c r="AP1" s="90"/>
+      <c r="AQ1" s="90"/>
+      <c r="AR1" s="90"/>
+      <c r="AS1" s="90"/>
+      <c r="AT1" s="90"/>
+      <c r="AU1" s="90"/>
+      <c r="AV1" s="90"/>
     </row>
     <row r="2" spans="1:48" x14ac:dyDescent="0.45">
-      <c r="A2" s="101"/>
-      <c r="B2" s="102"/>
-      <c r="C2" s="102"/>
-      <c r="D2" s="102"/>
-      <c r="E2" s="102"/>
-      <c r="F2" s="102"/>
-      <c r="G2" s="102"/>
-      <c r="H2" s="102"/>
-      <c r="I2" s="97" t="str">
+      <c r="A2" s="88"/>
+      <c r="B2" s="89"/>
+      <c r="C2" s="89"/>
+      <c r="D2" s="89"/>
+      <c r="E2" s="89"/>
+      <c r="F2" s="89"/>
+      <c r="G2" s="89"/>
+      <c r="H2" s="89"/>
+      <c r="I2" s="84" t="str">
         <f>改版履歴!I2</f>
         <v>メインメニュー画面</v>
       </c>
-      <c r="J2" s="97"/>
-      <c r="K2" s="97"/>
-      <c r="L2" s="97"/>
-      <c r="M2" s="97"/>
-      <c r="N2" s="97"/>
-      <c r="O2" s="97"/>
-      <c r="P2" s="97"/>
-      <c r="Q2" s="104">
+      <c r="J2" s="84"/>
+      <c r="K2" s="84"/>
+      <c r="L2" s="84"/>
+      <c r="M2" s="84"/>
+      <c r="N2" s="84"/>
+      <c r="O2" s="84"/>
+      <c r="P2" s="84"/>
+      <c r="Q2" s="91">
         <f ca="1">改版履歴!Q2</f>
         <v>43933</v>
       </c>
-      <c r="R2" s="97"/>
-      <c r="S2" s="97"/>
-      <c r="T2" s="97"/>
-      <c r="U2" s="97"/>
-      <c r="V2" s="97"/>
-      <c r="W2" s="97"/>
-      <c r="X2" s="97"/>
-      <c r="Y2" s="97" t="str">
+      <c r="R2" s="84"/>
+      <c r="S2" s="84"/>
+      <c r="T2" s="84"/>
+      <c r="U2" s="84"/>
+      <c r="V2" s="84"/>
+      <c r="W2" s="84"/>
+      <c r="X2" s="84"/>
+      <c r="Y2" s="84" t="str">
         <f ca="1">改版履歴!Y2</f>
         <v>Giphe</v>
       </c>
-      <c r="Z2" s="97"/>
-      <c r="AA2" s="97"/>
-      <c r="AB2" s="97"/>
-      <c r="AC2" s="97"/>
-      <c r="AD2" s="97"/>
-      <c r="AE2" s="97"/>
-      <c r="AF2" s="97"/>
-      <c r="AG2" s="97" t="str">
+      <c r="Z2" s="84"/>
+      <c r="AA2" s="84"/>
+      <c r="AB2" s="84"/>
+      <c r="AC2" s="84"/>
+      <c r="AD2" s="84"/>
+      <c r="AE2" s="84"/>
+      <c r="AF2" s="84"/>
+      <c r="AG2" s="84" t="str">
         <f ca="1">改版履歴!AG2</f>
         <v>1.0</v>
       </c>
-      <c r="AH2" s="97"/>
-      <c r="AI2" s="97"/>
-      <c r="AJ2" s="97"/>
-      <c r="AK2" s="97"/>
-      <c r="AL2" s="97"/>
-      <c r="AM2" s="97"/>
-      <c r="AN2" s="97"/>
-      <c r="AO2" s="97" t="str">
+      <c r="AH2" s="84"/>
+      <c r="AI2" s="84"/>
+      <c r="AJ2" s="84"/>
+      <c r="AK2" s="84"/>
+      <c r="AL2" s="84"/>
+      <c r="AM2" s="84"/>
+      <c r="AN2" s="84"/>
+      <c r="AO2" s="84" t="str">
         <f>改版履歴!AO2</f>
         <v>PGUSED020</v>
       </c>
-      <c r="AP2" s="97"/>
-      <c r="AQ2" s="97"/>
-      <c r="AR2" s="97"/>
-      <c r="AS2" s="97"/>
-      <c r="AT2" s="97"/>
-      <c r="AU2" s="97"/>
-      <c r="AV2" s="97"/>
+      <c r="AP2" s="84"/>
+      <c r="AQ2" s="84"/>
+      <c r="AR2" s="84"/>
+      <c r="AS2" s="84"/>
+      <c r="AT2" s="84"/>
+      <c r="AU2" s="84"/>
+      <c r="AV2" s="84"/>
     </row>
     <row r="4" spans="1:48" s="26" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A4" s="26" t="s">
@@ -23041,18 +23041,28 @@
     <row r="25" spans="1:48" s="26" customFormat="1" x14ac:dyDescent="0.45"/>
   </sheetData>
   <mergeCells count="50">
-    <mergeCell ref="A14:T14"/>
-    <mergeCell ref="A17:T17"/>
-    <mergeCell ref="U14:AD14"/>
-    <mergeCell ref="AE17:AV17"/>
-    <mergeCell ref="A20:Y20"/>
-    <mergeCell ref="U17:AD17"/>
-    <mergeCell ref="A15:T15"/>
-    <mergeCell ref="U15:AD15"/>
-    <mergeCell ref="AE15:AV15"/>
-    <mergeCell ref="A16:T16"/>
-    <mergeCell ref="U16:AD16"/>
-    <mergeCell ref="AE16:AV16"/>
+    <mergeCell ref="I2:P2"/>
+    <mergeCell ref="Q2:X2"/>
+    <mergeCell ref="Y2:AF2"/>
+    <mergeCell ref="AG2:AN2"/>
+    <mergeCell ref="A10:T10"/>
+    <mergeCell ref="U10:AD10"/>
+    <mergeCell ref="Z5:AV5"/>
+    <mergeCell ref="A6:Y6"/>
+    <mergeCell ref="Z6:AV6"/>
+    <mergeCell ref="AO2:AV2"/>
+    <mergeCell ref="AE9:AV9"/>
+    <mergeCell ref="A9:T9"/>
+    <mergeCell ref="U9:AD9"/>
+    <mergeCell ref="A5:Y5"/>
+    <mergeCell ref="A1:H2"/>
+    <mergeCell ref="I1:P1"/>
+    <mergeCell ref="A23:Y23"/>
+    <mergeCell ref="Z20:AV20"/>
+    <mergeCell ref="Z21:AV21"/>
+    <mergeCell ref="Z22:AV22"/>
+    <mergeCell ref="Z23:AV23"/>
+    <mergeCell ref="A22:Y22"/>
     <mergeCell ref="Q1:X1"/>
     <mergeCell ref="Y1:AF1"/>
     <mergeCell ref="AG1:AN1"/>
@@ -23069,28 +23079,18 @@
     <mergeCell ref="A13:T13"/>
     <mergeCell ref="U12:AD12"/>
     <mergeCell ref="U13:AD13"/>
-    <mergeCell ref="A23:Y23"/>
-    <mergeCell ref="Z20:AV20"/>
-    <mergeCell ref="Z21:AV21"/>
-    <mergeCell ref="Z22:AV22"/>
-    <mergeCell ref="Z23:AV23"/>
-    <mergeCell ref="A22:Y22"/>
-    <mergeCell ref="I2:P2"/>
-    <mergeCell ref="Q2:X2"/>
-    <mergeCell ref="Y2:AF2"/>
-    <mergeCell ref="AG2:AN2"/>
-    <mergeCell ref="A10:T10"/>
-    <mergeCell ref="U10:AD10"/>
-    <mergeCell ref="Z5:AV5"/>
-    <mergeCell ref="A6:Y6"/>
-    <mergeCell ref="Z6:AV6"/>
-    <mergeCell ref="AO2:AV2"/>
-    <mergeCell ref="AE9:AV9"/>
-    <mergeCell ref="A9:T9"/>
-    <mergeCell ref="U9:AD9"/>
-    <mergeCell ref="A5:Y5"/>
-    <mergeCell ref="A1:H2"/>
-    <mergeCell ref="I1:P1"/>
+    <mergeCell ref="A14:T14"/>
+    <mergeCell ref="A17:T17"/>
+    <mergeCell ref="U14:AD14"/>
+    <mergeCell ref="AE17:AV17"/>
+    <mergeCell ref="A20:Y20"/>
+    <mergeCell ref="U17:AD17"/>
+    <mergeCell ref="A15:T15"/>
+    <mergeCell ref="U15:AD15"/>
+    <mergeCell ref="AE15:AV15"/>
+    <mergeCell ref="A16:T16"/>
+    <mergeCell ref="U16:AD16"/>
+    <mergeCell ref="AE16:AV16"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -23110,132 +23110,132 @@
   <sheetFormatPr defaultColWidth="3.09765625" defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <sheetData>
     <row r="1" spans="1:48" x14ac:dyDescent="0.45">
-      <c r="A1" s="99" t="str">
+      <c r="A1" s="86" t="str">
         <f ca="1">RIGHT(CELL("filename",A1),LEN(CELL("filename",A1))-FIND("]",CELL("filename",A1)))</f>
         <v>画面項目</v>
       </c>
-      <c r="B1" s="100"/>
-      <c r="C1" s="100"/>
-      <c r="D1" s="100"/>
-      <c r="E1" s="100"/>
-      <c r="F1" s="100"/>
-      <c r="G1" s="100"/>
-      <c r="H1" s="100"/>
-      <c r="I1" s="103" t="s">
+      <c r="B1" s="87"/>
+      <c r="C1" s="87"/>
+      <c r="D1" s="87"/>
+      <c r="E1" s="87"/>
+      <c r="F1" s="87"/>
+      <c r="G1" s="87"/>
+      <c r="H1" s="87"/>
+      <c r="I1" s="90" t="s">
         <v>0</v>
       </c>
-      <c r="J1" s="103"/>
-      <c r="K1" s="103"/>
-      <c r="L1" s="103"/>
-      <c r="M1" s="103"/>
-      <c r="N1" s="103"/>
-      <c r="O1" s="103"/>
-      <c r="P1" s="103"/>
-      <c r="Q1" s="103" t="s">
+      <c r="J1" s="90"/>
+      <c r="K1" s="90"/>
+      <c r="L1" s="90"/>
+      <c r="M1" s="90"/>
+      <c r="N1" s="90"/>
+      <c r="O1" s="90"/>
+      <c r="P1" s="90"/>
+      <c r="Q1" s="90" t="s">
         <v>1</v>
       </c>
-      <c r="R1" s="103"/>
-      <c r="S1" s="103"/>
-      <c r="T1" s="103"/>
-      <c r="U1" s="103"/>
-      <c r="V1" s="103"/>
-      <c r="W1" s="103"/>
-      <c r="X1" s="103"/>
-      <c r="Y1" s="103" t="s">
+      <c r="R1" s="90"/>
+      <c r="S1" s="90"/>
+      <c r="T1" s="90"/>
+      <c r="U1" s="90"/>
+      <c r="V1" s="90"/>
+      <c r="W1" s="90"/>
+      <c r="X1" s="90"/>
+      <c r="Y1" s="90" t="s">
         <v>2</v>
       </c>
-      <c r="Z1" s="103"/>
-      <c r="AA1" s="103"/>
-      <c r="AB1" s="103"/>
-      <c r="AC1" s="103"/>
-      <c r="AD1" s="103"/>
-      <c r="AE1" s="103"/>
-      <c r="AF1" s="103"/>
-      <c r="AG1" s="103" t="s">
+      <c r="Z1" s="90"/>
+      <c r="AA1" s="90"/>
+      <c r="AB1" s="90"/>
+      <c r="AC1" s="90"/>
+      <c r="AD1" s="90"/>
+      <c r="AE1" s="90"/>
+      <c r="AF1" s="90"/>
+      <c r="AG1" s="90" t="s">
         <v>3</v>
       </c>
-      <c r="AH1" s="103"/>
-      <c r="AI1" s="103"/>
-      <c r="AJ1" s="103"/>
-      <c r="AK1" s="103"/>
-      <c r="AL1" s="103"/>
-      <c r="AM1" s="103"/>
-      <c r="AN1" s="103"/>
-      <c r="AO1" s="103" t="s">
+      <c r="AH1" s="90"/>
+      <c r="AI1" s="90"/>
+      <c r="AJ1" s="90"/>
+      <c r="AK1" s="90"/>
+      <c r="AL1" s="90"/>
+      <c r="AM1" s="90"/>
+      <c r="AN1" s="90"/>
+      <c r="AO1" s="90" t="s">
         <v>4</v>
       </c>
-      <c r="AP1" s="103"/>
-      <c r="AQ1" s="103"/>
-      <c r="AR1" s="103"/>
-      <c r="AS1" s="103"/>
-      <c r="AT1" s="103"/>
-      <c r="AU1" s="103"/>
-      <c r="AV1" s="103"/>
+      <c r="AP1" s="90"/>
+      <c r="AQ1" s="90"/>
+      <c r="AR1" s="90"/>
+      <c r="AS1" s="90"/>
+      <c r="AT1" s="90"/>
+      <c r="AU1" s="90"/>
+      <c r="AV1" s="90"/>
     </row>
     <row r="2" spans="1:48" x14ac:dyDescent="0.45">
-      <c r="A2" s="101"/>
-      <c r="B2" s="102"/>
-      <c r="C2" s="102"/>
-      <c r="D2" s="102"/>
-      <c r="E2" s="102"/>
-      <c r="F2" s="102"/>
-      <c r="G2" s="102"/>
-      <c r="H2" s="102"/>
-      <c r="I2" s="97" t="str">
+      <c r="A2" s="88"/>
+      <c r="B2" s="89"/>
+      <c r="C2" s="89"/>
+      <c r="D2" s="89"/>
+      <c r="E2" s="89"/>
+      <c r="F2" s="89"/>
+      <c r="G2" s="89"/>
+      <c r="H2" s="89"/>
+      <c r="I2" s="84" t="str">
         <f>改版履歴!I2</f>
         <v>メインメニュー画面</v>
       </c>
-      <c r="J2" s="97"/>
-      <c r="K2" s="97"/>
-      <c r="L2" s="97"/>
-      <c r="M2" s="97"/>
-      <c r="N2" s="97"/>
-      <c r="O2" s="97"/>
-      <c r="P2" s="97"/>
-      <c r="Q2" s="104">
+      <c r="J2" s="84"/>
+      <c r="K2" s="84"/>
+      <c r="L2" s="84"/>
+      <c r="M2" s="84"/>
+      <c r="N2" s="84"/>
+      <c r="O2" s="84"/>
+      <c r="P2" s="84"/>
+      <c r="Q2" s="91">
         <f ca="1">改版履歴!Q2</f>
         <v>43933</v>
       </c>
-      <c r="R2" s="97"/>
-      <c r="S2" s="97"/>
-      <c r="T2" s="97"/>
-      <c r="U2" s="97"/>
-      <c r="V2" s="97"/>
-      <c r="W2" s="97"/>
-      <c r="X2" s="97"/>
-      <c r="Y2" s="97" t="str">
+      <c r="R2" s="84"/>
+      <c r="S2" s="84"/>
+      <c r="T2" s="84"/>
+      <c r="U2" s="84"/>
+      <c r="V2" s="84"/>
+      <c r="W2" s="84"/>
+      <c r="X2" s="84"/>
+      <c r="Y2" s="84" t="str">
         <f ca="1">改版履歴!Y2</f>
         <v>Giphe</v>
       </c>
-      <c r="Z2" s="97"/>
-      <c r="AA2" s="97"/>
-      <c r="AB2" s="97"/>
-      <c r="AC2" s="97"/>
-      <c r="AD2" s="97"/>
-      <c r="AE2" s="97"/>
-      <c r="AF2" s="97"/>
-      <c r="AG2" s="97" t="str">
+      <c r="Z2" s="84"/>
+      <c r="AA2" s="84"/>
+      <c r="AB2" s="84"/>
+      <c r="AC2" s="84"/>
+      <c r="AD2" s="84"/>
+      <c r="AE2" s="84"/>
+      <c r="AF2" s="84"/>
+      <c r="AG2" s="84" t="str">
         <f ca="1">改版履歴!AG2</f>
         <v>1.0</v>
       </c>
-      <c r="AH2" s="97"/>
-      <c r="AI2" s="97"/>
-      <c r="AJ2" s="97"/>
-      <c r="AK2" s="97"/>
-      <c r="AL2" s="97"/>
-      <c r="AM2" s="97"/>
-      <c r="AN2" s="97"/>
-      <c r="AO2" s="97" t="str">
+      <c r="AH2" s="84"/>
+      <c r="AI2" s="84"/>
+      <c r="AJ2" s="84"/>
+      <c r="AK2" s="84"/>
+      <c r="AL2" s="84"/>
+      <c r="AM2" s="84"/>
+      <c r="AN2" s="84"/>
+      <c r="AO2" s="84" t="str">
         <f>改版履歴!AO2</f>
         <v>PGUSED020</v>
       </c>
-      <c r="AP2" s="97"/>
-      <c r="AQ2" s="97"/>
-      <c r="AR2" s="97"/>
-      <c r="AS2" s="97"/>
-      <c r="AT2" s="97"/>
-      <c r="AU2" s="97"/>
-      <c r="AV2" s="97"/>
+      <c r="AP2" s="84"/>
+      <c r="AQ2" s="84"/>
+      <c r="AR2" s="84"/>
+      <c r="AS2" s="84"/>
+      <c r="AT2" s="84"/>
+      <c r="AU2" s="84"/>
+      <c r="AV2" s="84"/>
     </row>
     <row r="4" spans="1:48" s="56" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A4" s="56" t="s">
@@ -23716,17 +23716,62 @@
     <row r="15" spans="1:48" s="56" customFormat="1" x14ac:dyDescent="0.45"/>
   </sheetData>
   <mergeCells count="83">
-    <mergeCell ref="AN13:AV13"/>
-    <mergeCell ref="AD12:AG12"/>
-    <mergeCell ref="AD13:AG13"/>
-    <mergeCell ref="AN5:AV5"/>
-    <mergeCell ref="AN6:AV6"/>
-    <mergeCell ref="AN7:AV7"/>
-    <mergeCell ref="AN8:AV8"/>
-    <mergeCell ref="AN9:AV9"/>
-    <mergeCell ref="AN10:AV10"/>
-    <mergeCell ref="AN11:AV11"/>
-    <mergeCell ref="AN12:AV12"/>
+    <mergeCell ref="AO2:AV2"/>
+    <mergeCell ref="A1:H2"/>
+    <mergeCell ref="I1:P1"/>
+    <mergeCell ref="Q1:X1"/>
+    <mergeCell ref="Y1:AF1"/>
+    <mergeCell ref="AG1:AN1"/>
+    <mergeCell ref="AO1:AV1"/>
+    <mergeCell ref="I2:P2"/>
+    <mergeCell ref="Q2:X2"/>
+    <mergeCell ref="Y2:AF2"/>
+    <mergeCell ref="AG2:AN2"/>
+    <mergeCell ref="A10:G10"/>
+    <mergeCell ref="A11:G11"/>
+    <mergeCell ref="A12:G12"/>
+    <mergeCell ref="A13:G13"/>
+    <mergeCell ref="N5:Q5"/>
+    <mergeCell ref="N6:Q6"/>
+    <mergeCell ref="N7:Q7"/>
+    <mergeCell ref="A5:G5"/>
+    <mergeCell ref="A6:G6"/>
+    <mergeCell ref="A7:G7"/>
+    <mergeCell ref="A8:G8"/>
+    <mergeCell ref="A9:G9"/>
+    <mergeCell ref="N8:Q8"/>
+    <mergeCell ref="N9:Q9"/>
+    <mergeCell ref="H11:L11"/>
+    <mergeCell ref="H12:L12"/>
+    <mergeCell ref="R11:U11"/>
+    <mergeCell ref="R12:U12"/>
+    <mergeCell ref="R13:U13"/>
+    <mergeCell ref="N10:Q10"/>
+    <mergeCell ref="N11:Q11"/>
+    <mergeCell ref="N12:Q12"/>
+    <mergeCell ref="N13:Q13"/>
+    <mergeCell ref="R10:U10"/>
+    <mergeCell ref="R5:U5"/>
+    <mergeCell ref="R6:U6"/>
+    <mergeCell ref="R7:U7"/>
+    <mergeCell ref="R8:U8"/>
+    <mergeCell ref="R9:U9"/>
+    <mergeCell ref="V13:Y13"/>
+    <mergeCell ref="Z5:AC5"/>
+    <mergeCell ref="Z6:AC6"/>
+    <mergeCell ref="Z7:AC7"/>
+    <mergeCell ref="Z8:AC8"/>
+    <mergeCell ref="Z9:AC9"/>
+    <mergeCell ref="Z10:AC10"/>
+    <mergeCell ref="Z11:AC11"/>
+    <mergeCell ref="Z12:AC12"/>
+    <mergeCell ref="V10:Y10"/>
+    <mergeCell ref="V11:Y11"/>
+    <mergeCell ref="V5:Y5"/>
+    <mergeCell ref="V6:Y6"/>
+    <mergeCell ref="V7:Y7"/>
+    <mergeCell ref="V8:Y8"/>
+    <mergeCell ref="V9:Y9"/>
     <mergeCell ref="H13:L13"/>
     <mergeCell ref="AD5:AG5"/>
     <mergeCell ref="AD6:AG6"/>
@@ -23743,62 +23788,17 @@
     <mergeCell ref="H10:L10"/>
     <mergeCell ref="Z13:AC13"/>
     <mergeCell ref="V12:Y12"/>
-    <mergeCell ref="V13:Y13"/>
-    <mergeCell ref="Z5:AC5"/>
-    <mergeCell ref="Z6:AC6"/>
-    <mergeCell ref="Z7:AC7"/>
-    <mergeCell ref="Z8:AC8"/>
-    <mergeCell ref="Z9:AC9"/>
-    <mergeCell ref="Z10:AC10"/>
-    <mergeCell ref="Z11:AC11"/>
-    <mergeCell ref="Z12:AC12"/>
-    <mergeCell ref="V10:Y10"/>
-    <mergeCell ref="V11:Y11"/>
-    <mergeCell ref="V5:Y5"/>
-    <mergeCell ref="V6:Y6"/>
-    <mergeCell ref="V7:Y7"/>
-    <mergeCell ref="V8:Y8"/>
-    <mergeCell ref="V9:Y9"/>
-    <mergeCell ref="R5:U5"/>
-    <mergeCell ref="R6:U6"/>
-    <mergeCell ref="R7:U7"/>
-    <mergeCell ref="R8:U8"/>
-    <mergeCell ref="R9:U9"/>
-    <mergeCell ref="R11:U11"/>
-    <mergeCell ref="R12:U12"/>
-    <mergeCell ref="R13:U13"/>
-    <mergeCell ref="N10:Q10"/>
-    <mergeCell ref="N11:Q11"/>
-    <mergeCell ref="N12:Q12"/>
-    <mergeCell ref="N13:Q13"/>
-    <mergeCell ref="R10:U10"/>
-    <mergeCell ref="A10:G10"/>
-    <mergeCell ref="A11:G11"/>
-    <mergeCell ref="A12:G12"/>
-    <mergeCell ref="A13:G13"/>
-    <mergeCell ref="N5:Q5"/>
-    <mergeCell ref="N6:Q6"/>
-    <mergeCell ref="N7:Q7"/>
-    <mergeCell ref="A5:G5"/>
-    <mergeCell ref="A6:G6"/>
-    <mergeCell ref="A7:G7"/>
-    <mergeCell ref="A8:G8"/>
-    <mergeCell ref="A9:G9"/>
-    <mergeCell ref="N8:Q8"/>
-    <mergeCell ref="N9:Q9"/>
-    <mergeCell ref="H11:L11"/>
-    <mergeCell ref="H12:L12"/>
-    <mergeCell ref="AO2:AV2"/>
-    <mergeCell ref="A1:H2"/>
-    <mergeCell ref="I1:P1"/>
-    <mergeCell ref="Q1:X1"/>
-    <mergeCell ref="Y1:AF1"/>
-    <mergeCell ref="AG1:AN1"/>
-    <mergeCell ref="AO1:AV1"/>
-    <mergeCell ref="I2:P2"/>
-    <mergeCell ref="Q2:X2"/>
-    <mergeCell ref="Y2:AF2"/>
-    <mergeCell ref="AG2:AN2"/>
+    <mergeCell ref="AN13:AV13"/>
+    <mergeCell ref="AD12:AG12"/>
+    <mergeCell ref="AD13:AG13"/>
+    <mergeCell ref="AN5:AV5"/>
+    <mergeCell ref="AN6:AV6"/>
+    <mergeCell ref="AN7:AV7"/>
+    <mergeCell ref="AN8:AV8"/>
+    <mergeCell ref="AN9:AV9"/>
+    <mergeCell ref="AN10:AV10"/>
+    <mergeCell ref="AN11:AV11"/>
+    <mergeCell ref="AN12:AV12"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -23817,132 +23817,132 @@
   <sheetFormatPr defaultColWidth="3.09765625" defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <sheetData>
     <row r="1" spans="1:48" x14ac:dyDescent="0.45">
-      <c r="A1" s="99" t="str">
+      <c r="A1" s="86" t="str">
         <f ca="1">RIGHT(CELL("filename",A1),LEN(CELL("filename",A1))-FIND("]",CELL("filename",A1)))</f>
         <v>画面表示時</v>
       </c>
-      <c r="B1" s="100"/>
-      <c r="C1" s="100"/>
-      <c r="D1" s="100"/>
-      <c r="E1" s="100"/>
-      <c r="F1" s="100"/>
-      <c r="G1" s="100"/>
-      <c r="H1" s="100"/>
-      <c r="I1" s="103" t="s">
+      <c r="B1" s="87"/>
+      <c r="C1" s="87"/>
+      <c r="D1" s="87"/>
+      <c r="E1" s="87"/>
+      <c r="F1" s="87"/>
+      <c r="G1" s="87"/>
+      <c r="H1" s="87"/>
+      <c r="I1" s="90" t="s">
         <v>0</v>
       </c>
-      <c r="J1" s="103"/>
-      <c r="K1" s="103"/>
-      <c r="L1" s="103"/>
-      <c r="M1" s="103"/>
-      <c r="N1" s="103"/>
-      <c r="O1" s="103"/>
-      <c r="P1" s="103"/>
-      <c r="Q1" s="103" t="s">
+      <c r="J1" s="90"/>
+      <c r="K1" s="90"/>
+      <c r="L1" s="90"/>
+      <c r="M1" s="90"/>
+      <c r="N1" s="90"/>
+      <c r="O1" s="90"/>
+      <c r="P1" s="90"/>
+      <c r="Q1" s="90" t="s">
         <v>1</v>
       </c>
-      <c r="R1" s="103"/>
-      <c r="S1" s="103"/>
-      <c r="T1" s="103"/>
-      <c r="U1" s="103"/>
-      <c r="V1" s="103"/>
-      <c r="W1" s="103"/>
-      <c r="X1" s="103"/>
-      <c r="Y1" s="103" t="s">
+      <c r="R1" s="90"/>
+      <c r="S1" s="90"/>
+      <c r="T1" s="90"/>
+      <c r="U1" s="90"/>
+      <c r="V1" s="90"/>
+      <c r="W1" s="90"/>
+      <c r="X1" s="90"/>
+      <c r="Y1" s="90" t="s">
         <v>2</v>
       </c>
-      <c r="Z1" s="103"/>
-      <c r="AA1" s="103"/>
-      <c r="AB1" s="103"/>
-      <c r="AC1" s="103"/>
-      <c r="AD1" s="103"/>
-      <c r="AE1" s="103"/>
-      <c r="AF1" s="103"/>
-      <c r="AG1" s="103" t="s">
+      <c r="Z1" s="90"/>
+      <c r="AA1" s="90"/>
+      <c r="AB1" s="90"/>
+      <c r="AC1" s="90"/>
+      <c r="AD1" s="90"/>
+      <c r="AE1" s="90"/>
+      <c r="AF1" s="90"/>
+      <c r="AG1" s="90" t="s">
         <v>3</v>
       </c>
-      <c r="AH1" s="103"/>
-      <c r="AI1" s="103"/>
-      <c r="AJ1" s="103"/>
-      <c r="AK1" s="103"/>
-      <c r="AL1" s="103"/>
-      <c r="AM1" s="103"/>
-      <c r="AN1" s="103"/>
-      <c r="AO1" s="103" t="s">
+      <c r="AH1" s="90"/>
+      <c r="AI1" s="90"/>
+      <c r="AJ1" s="90"/>
+      <c r="AK1" s="90"/>
+      <c r="AL1" s="90"/>
+      <c r="AM1" s="90"/>
+      <c r="AN1" s="90"/>
+      <c r="AO1" s="90" t="s">
         <v>4</v>
       </c>
-      <c r="AP1" s="103"/>
-      <c r="AQ1" s="103"/>
-      <c r="AR1" s="103"/>
-      <c r="AS1" s="103"/>
-      <c r="AT1" s="103"/>
-      <c r="AU1" s="103"/>
-      <c r="AV1" s="103"/>
+      <c r="AP1" s="90"/>
+      <c r="AQ1" s="90"/>
+      <c r="AR1" s="90"/>
+      <c r="AS1" s="90"/>
+      <c r="AT1" s="90"/>
+      <c r="AU1" s="90"/>
+      <c r="AV1" s="90"/>
     </row>
     <row r="2" spans="1:48" x14ac:dyDescent="0.45">
-      <c r="A2" s="101"/>
-      <c r="B2" s="102"/>
-      <c r="C2" s="102"/>
-      <c r="D2" s="102"/>
-      <c r="E2" s="102"/>
-      <c r="F2" s="102"/>
-      <c r="G2" s="102"/>
-      <c r="H2" s="102"/>
-      <c r="I2" s="97" t="str">
+      <c r="A2" s="88"/>
+      <c r="B2" s="89"/>
+      <c r="C2" s="89"/>
+      <c r="D2" s="89"/>
+      <c r="E2" s="89"/>
+      <c r="F2" s="89"/>
+      <c r="G2" s="89"/>
+      <c r="H2" s="89"/>
+      <c r="I2" s="84" t="str">
         <f>改版履歴!I2</f>
         <v>メインメニュー画面</v>
       </c>
-      <c r="J2" s="97"/>
-      <c r="K2" s="97"/>
-      <c r="L2" s="97"/>
-      <c r="M2" s="97"/>
-      <c r="N2" s="97"/>
-      <c r="O2" s="97"/>
-      <c r="P2" s="97"/>
-      <c r="Q2" s="104">
+      <c r="J2" s="84"/>
+      <c r="K2" s="84"/>
+      <c r="L2" s="84"/>
+      <c r="M2" s="84"/>
+      <c r="N2" s="84"/>
+      <c r="O2" s="84"/>
+      <c r="P2" s="84"/>
+      <c r="Q2" s="91">
         <f ca="1">改版履歴!Q2</f>
         <v>43933</v>
       </c>
-      <c r="R2" s="97"/>
-      <c r="S2" s="97"/>
-      <c r="T2" s="97"/>
-      <c r="U2" s="97"/>
-      <c r="V2" s="97"/>
-      <c r="W2" s="97"/>
-      <c r="X2" s="97"/>
-      <c r="Y2" s="97" t="str">
+      <c r="R2" s="84"/>
+      <c r="S2" s="84"/>
+      <c r="T2" s="84"/>
+      <c r="U2" s="84"/>
+      <c r="V2" s="84"/>
+      <c r="W2" s="84"/>
+      <c r="X2" s="84"/>
+      <c r="Y2" s="84" t="str">
         <f ca="1">改版履歴!Y2</f>
         <v>Giphe</v>
       </c>
-      <c r="Z2" s="97"/>
-      <c r="AA2" s="97"/>
-      <c r="AB2" s="97"/>
-      <c r="AC2" s="97"/>
-      <c r="AD2" s="97"/>
-      <c r="AE2" s="97"/>
-      <c r="AF2" s="97"/>
-      <c r="AG2" s="97" t="str">
+      <c r="Z2" s="84"/>
+      <c r="AA2" s="84"/>
+      <c r="AB2" s="84"/>
+      <c r="AC2" s="84"/>
+      <c r="AD2" s="84"/>
+      <c r="AE2" s="84"/>
+      <c r="AF2" s="84"/>
+      <c r="AG2" s="84" t="str">
         <f ca="1">改版履歴!AG2</f>
         <v>1.0</v>
       </c>
-      <c r="AH2" s="97"/>
-      <c r="AI2" s="97"/>
-      <c r="AJ2" s="97"/>
-      <c r="AK2" s="97"/>
-      <c r="AL2" s="97"/>
-      <c r="AM2" s="97"/>
-      <c r="AN2" s="97"/>
-      <c r="AO2" s="97" t="str">
+      <c r="AH2" s="84"/>
+      <c r="AI2" s="84"/>
+      <c r="AJ2" s="84"/>
+      <c r="AK2" s="84"/>
+      <c r="AL2" s="84"/>
+      <c r="AM2" s="84"/>
+      <c r="AN2" s="84"/>
+      <c r="AO2" s="84" t="str">
         <f>改版履歴!AO2</f>
         <v>PGUSED020</v>
       </c>
-      <c r="AP2" s="97"/>
-      <c r="AQ2" s="97"/>
-      <c r="AR2" s="97"/>
-      <c r="AS2" s="97"/>
-      <c r="AT2" s="97"/>
-      <c r="AU2" s="97"/>
-      <c r="AV2" s="97"/>
+      <c r="AP2" s="84"/>
+      <c r="AQ2" s="84"/>
+      <c r="AR2" s="84"/>
+      <c r="AS2" s="84"/>
+      <c r="AT2" s="84"/>
+      <c r="AU2" s="84"/>
+      <c r="AV2" s="84"/>
     </row>
     <row r="4" spans="1:48" s="26" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A4" s="23"/>
@@ -24225,38 +24225,38 @@
     </row>
     <row r="39" spans="4:32" s="49" customFormat="1" x14ac:dyDescent="0.45"/>
     <row r="40" spans="4:32" s="49" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="E40" s="123" t="s">
+      <c r="E40" s="114" t="s">
         <v>182</v>
       </c>
-      <c r="F40" s="124"/>
-      <c r="G40" s="124"/>
-      <c r="H40" s="124"/>
-      <c r="I40" s="124"/>
-      <c r="J40" s="124"/>
-      <c r="K40" s="124"/>
-      <c r="L40" s="124"/>
-      <c r="M40" s="124"/>
-      <c r="N40" s="125"/>
-      <c r="O40" s="123" t="s">
+      <c r="F40" s="115"/>
+      <c r="G40" s="115"/>
+      <c r="H40" s="115"/>
+      <c r="I40" s="115"/>
+      <c r="J40" s="115"/>
+      <c r="K40" s="115"/>
+      <c r="L40" s="115"/>
+      <c r="M40" s="115"/>
+      <c r="N40" s="116"/>
+      <c r="O40" s="114" t="s">
         <v>183</v>
       </c>
-      <c r="P40" s="124"/>
-      <c r="Q40" s="124"/>
-      <c r="R40" s="124"/>
-      <c r="S40" s="124"/>
-      <c r="T40" s="124"/>
-      <c r="U40" s="124"/>
-      <c r="V40" s="124"/>
-      <c r="W40" s="124"/>
-      <c r="X40" s="124"/>
-      <c r="Y40" s="124"/>
-      <c r="Z40" s="124"/>
-      <c r="AA40" s="124"/>
-      <c r="AB40" s="124"/>
-      <c r="AC40" s="124"/>
-      <c r="AD40" s="124"/>
-      <c r="AE40" s="124"/>
-      <c r="AF40" s="125"/>
+      <c r="P40" s="115"/>
+      <c r="Q40" s="115"/>
+      <c r="R40" s="115"/>
+      <c r="S40" s="115"/>
+      <c r="T40" s="115"/>
+      <c r="U40" s="115"/>
+      <c r="V40" s="115"/>
+      <c r="W40" s="115"/>
+      <c r="X40" s="115"/>
+      <c r="Y40" s="115"/>
+      <c r="Z40" s="115"/>
+      <c r="AA40" s="115"/>
+      <c r="AB40" s="115"/>
+      <c r="AC40" s="115"/>
+      <c r="AD40" s="115"/>
+      <c r="AE40" s="115"/>
+      <c r="AF40" s="116"/>
     </row>
     <row r="41" spans="4:32" s="49" customFormat="1" x14ac:dyDescent="0.45">
       <c r="E41" s="107" t="s">
@@ -24305,26 +24305,26 @@
       <c r="L42" s="108"/>
       <c r="M42" s="108"/>
       <c r="N42" s="109"/>
-      <c r="O42" s="120" t="s">
+      <c r="O42" s="117" t="s">
         <v>192</v>
       </c>
-      <c r="P42" s="121"/>
-      <c r="Q42" s="121"/>
-      <c r="R42" s="121"/>
-      <c r="S42" s="121"/>
-      <c r="T42" s="121"/>
-      <c r="U42" s="121"/>
-      <c r="V42" s="121"/>
-      <c r="W42" s="121"/>
-      <c r="X42" s="121"/>
-      <c r="Y42" s="121"/>
-      <c r="Z42" s="121"/>
-      <c r="AA42" s="121"/>
-      <c r="AB42" s="121"/>
-      <c r="AC42" s="121"/>
-      <c r="AD42" s="121"/>
-      <c r="AE42" s="121"/>
-      <c r="AF42" s="122"/>
+      <c r="P42" s="118"/>
+      <c r="Q42" s="118"/>
+      <c r="R42" s="118"/>
+      <c r="S42" s="118"/>
+      <c r="T42" s="118"/>
+      <c r="U42" s="118"/>
+      <c r="V42" s="118"/>
+      <c r="W42" s="118"/>
+      <c r="X42" s="118"/>
+      <c r="Y42" s="118"/>
+      <c r="Z42" s="118"/>
+      <c r="AA42" s="118"/>
+      <c r="AB42" s="118"/>
+      <c r="AC42" s="118"/>
+      <c r="AD42" s="118"/>
+      <c r="AE42" s="118"/>
+      <c r="AF42" s="119"/>
     </row>
     <row r="43" spans="4:32" s="49" customFormat="1" x14ac:dyDescent="0.45">
       <c r="E43" s="107" t="s">
@@ -24339,26 +24339,26 @@
       <c r="L43" s="108"/>
       <c r="M43" s="108"/>
       <c r="N43" s="109"/>
-      <c r="O43" s="120" t="s">
+      <c r="O43" s="117" t="s">
         <v>193</v>
       </c>
-      <c r="P43" s="121"/>
-      <c r="Q43" s="121"/>
-      <c r="R43" s="121"/>
-      <c r="S43" s="121"/>
-      <c r="T43" s="121"/>
-      <c r="U43" s="121"/>
-      <c r="V43" s="121"/>
-      <c r="W43" s="121"/>
-      <c r="X43" s="121"/>
-      <c r="Y43" s="121"/>
-      <c r="Z43" s="121"/>
-      <c r="AA43" s="121"/>
-      <c r="AB43" s="121"/>
-      <c r="AC43" s="121"/>
-      <c r="AD43" s="121"/>
-      <c r="AE43" s="121"/>
-      <c r="AF43" s="122"/>
+      <c r="P43" s="118"/>
+      <c r="Q43" s="118"/>
+      <c r="R43" s="118"/>
+      <c r="S43" s="118"/>
+      <c r="T43" s="118"/>
+      <c r="U43" s="118"/>
+      <c r="V43" s="118"/>
+      <c r="W43" s="118"/>
+      <c r="X43" s="118"/>
+      <c r="Y43" s="118"/>
+      <c r="Z43" s="118"/>
+      <c r="AA43" s="118"/>
+      <c r="AB43" s="118"/>
+      <c r="AC43" s="118"/>
+      <c r="AD43" s="118"/>
+      <c r="AE43" s="118"/>
+      <c r="AF43" s="119"/>
     </row>
     <row r="44" spans="4:32" s="49" customFormat="1" x14ac:dyDescent="0.45">
       <c r="E44" s="50" t="s">
@@ -24611,18 +24611,18 @@
       <c r="AG67" s="65"/>
     </row>
     <row r="68" spans="5:33" s="49" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="F68" s="114" t="s">
+      <c r="F68" s="120" t="s">
         <v>211</v>
       </c>
-      <c r="G68" s="115"/>
-      <c r="H68" s="115"/>
-      <c r="I68" s="115"/>
-      <c r="J68" s="115"/>
-      <c r="K68" s="115"/>
-      <c r="L68" s="115"/>
-      <c r="M68" s="115"/>
-      <c r="N68" s="115"/>
-      <c r="O68" s="116"/>
+      <c r="G68" s="121"/>
+      <c r="H68" s="121"/>
+      <c r="I68" s="121"/>
+      <c r="J68" s="121"/>
+      <c r="K68" s="121"/>
+      <c r="L68" s="121"/>
+      <c r="M68" s="121"/>
+      <c r="N68" s="121"/>
+      <c r="O68" s="122"/>
       <c r="P68" s="68" t="s">
         <v>205</v>
       </c>
@@ -24645,16 +24645,16 @@
       <c r="AG68" s="65"/>
     </row>
     <row r="69" spans="5:33" s="49" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="F69" s="117"/>
-      <c r="G69" s="118"/>
-      <c r="H69" s="118"/>
-      <c r="I69" s="118"/>
-      <c r="J69" s="118"/>
-      <c r="K69" s="118"/>
-      <c r="L69" s="118"/>
-      <c r="M69" s="118"/>
-      <c r="N69" s="118"/>
-      <c r="O69" s="119"/>
+      <c r="F69" s="123"/>
+      <c r="G69" s="124"/>
+      <c r="H69" s="124"/>
+      <c r="I69" s="124"/>
+      <c r="J69" s="124"/>
+      <c r="K69" s="124"/>
+      <c r="L69" s="124"/>
+      <c r="M69" s="124"/>
+      <c r="N69" s="124"/>
+      <c r="O69" s="125"/>
       <c r="P69" s="68" t="s">
         <v>208</v>
       </c>
@@ -24791,18 +24791,18 @@
       <c r="AG76" s="65"/>
     </row>
     <row r="77" spans="5:33" s="49" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="F77" s="114" t="s">
+      <c r="F77" s="120" t="s">
         <v>211</v>
       </c>
-      <c r="G77" s="115"/>
-      <c r="H77" s="115"/>
-      <c r="I77" s="115"/>
-      <c r="J77" s="115"/>
-      <c r="K77" s="115"/>
-      <c r="L77" s="115"/>
-      <c r="M77" s="115"/>
-      <c r="N77" s="115"/>
-      <c r="O77" s="116"/>
+      <c r="G77" s="121"/>
+      <c r="H77" s="121"/>
+      <c r="I77" s="121"/>
+      <c r="J77" s="121"/>
+      <c r="K77" s="121"/>
+      <c r="L77" s="121"/>
+      <c r="M77" s="121"/>
+      <c r="N77" s="121"/>
+      <c r="O77" s="122"/>
       <c r="P77" s="68" t="s">
         <v>204</v>
       </c>
@@ -24825,16 +24825,16 @@
       <c r="AG77" s="65"/>
     </row>
     <row r="78" spans="5:33" s="49" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="F78" s="117"/>
-      <c r="G78" s="118"/>
-      <c r="H78" s="118"/>
-      <c r="I78" s="118"/>
-      <c r="J78" s="118"/>
-      <c r="K78" s="118"/>
-      <c r="L78" s="118"/>
-      <c r="M78" s="118"/>
-      <c r="N78" s="118"/>
-      <c r="O78" s="119"/>
+      <c r="F78" s="123"/>
+      <c r="G78" s="124"/>
+      <c r="H78" s="124"/>
+      <c r="I78" s="124"/>
+      <c r="J78" s="124"/>
+      <c r="K78" s="124"/>
+      <c r="L78" s="124"/>
+      <c r="M78" s="124"/>
+      <c r="N78" s="124"/>
+      <c r="O78" s="125"/>
       <c r="P78" s="68" t="s">
         <v>208</v>
       </c>
@@ -24944,6 +24944,19 @@
     <row r="90" spans="4:5" s="26" customFormat="1" x14ac:dyDescent="0.45"/>
   </sheetData>
   <mergeCells count="24">
+    <mergeCell ref="F77:O78"/>
+    <mergeCell ref="F68:O69"/>
+    <mergeCell ref="E43:N43"/>
+    <mergeCell ref="O43:AF43"/>
+    <mergeCell ref="O44:AF44"/>
+    <mergeCell ref="E45:N45"/>
+    <mergeCell ref="O45:AF45"/>
+    <mergeCell ref="E40:N40"/>
+    <mergeCell ref="O40:AF40"/>
+    <mergeCell ref="E41:N41"/>
+    <mergeCell ref="O41:AF41"/>
+    <mergeCell ref="E42:N42"/>
+    <mergeCell ref="O42:AF42"/>
     <mergeCell ref="AO2:AV2"/>
     <mergeCell ref="A1:H2"/>
     <mergeCell ref="I1:P1"/>
@@ -24955,19 +24968,6 @@
     <mergeCell ref="Q2:X2"/>
     <mergeCell ref="Y2:AF2"/>
     <mergeCell ref="AG2:AN2"/>
-    <mergeCell ref="E40:N40"/>
-    <mergeCell ref="O40:AF40"/>
-    <mergeCell ref="E41:N41"/>
-    <mergeCell ref="O41:AF41"/>
-    <mergeCell ref="E42:N42"/>
-    <mergeCell ref="O42:AF42"/>
-    <mergeCell ref="F77:O78"/>
-    <mergeCell ref="F68:O69"/>
-    <mergeCell ref="E43:N43"/>
-    <mergeCell ref="O43:AF43"/>
-    <mergeCell ref="O44:AF44"/>
-    <mergeCell ref="E45:N45"/>
-    <mergeCell ref="O45:AF45"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -24986,132 +24986,132 @@
   <sheetFormatPr defaultColWidth="3.09765625" defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <sheetData>
     <row r="1" spans="1:48" x14ac:dyDescent="0.45">
-      <c r="A1" s="99" t="str">
+      <c r="A1" s="86" t="str">
         <f ca="1">RIGHT(CELL("filename",A1),LEN(CELL("filename",A1))-FIND("]",CELL("filename",A1)))</f>
         <v>Status</v>
       </c>
-      <c r="B1" s="100"/>
-      <c r="C1" s="100"/>
-      <c r="D1" s="100"/>
-      <c r="E1" s="100"/>
-      <c r="F1" s="100"/>
-      <c r="G1" s="100"/>
-      <c r="H1" s="100"/>
-      <c r="I1" s="103" t="s">
+      <c r="B1" s="87"/>
+      <c r="C1" s="87"/>
+      <c r="D1" s="87"/>
+      <c r="E1" s="87"/>
+      <c r="F1" s="87"/>
+      <c r="G1" s="87"/>
+      <c r="H1" s="87"/>
+      <c r="I1" s="90" t="s">
         <v>0</v>
       </c>
-      <c r="J1" s="103"/>
-      <c r="K1" s="103"/>
-      <c r="L1" s="103"/>
-      <c r="M1" s="103"/>
-      <c r="N1" s="103"/>
-      <c r="O1" s="103"/>
-      <c r="P1" s="103"/>
-      <c r="Q1" s="103" t="s">
+      <c r="J1" s="90"/>
+      <c r="K1" s="90"/>
+      <c r="L1" s="90"/>
+      <c r="M1" s="90"/>
+      <c r="N1" s="90"/>
+      <c r="O1" s="90"/>
+      <c r="P1" s="90"/>
+      <c r="Q1" s="90" t="s">
         <v>1</v>
       </c>
-      <c r="R1" s="103"/>
-      <c r="S1" s="103"/>
-      <c r="T1" s="103"/>
-      <c r="U1" s="103"/>
-      <c r="V1" s="103"/>
-      <c r="W1" s="103"/>
-      <c r="X1" s="103"/>
-      <c r="Y1" s="103" t="s">
+      <c r="R1" s="90"/>
+      <c r="S1" s="90"/>
+      <c r="T1" s="90"/>
+      <c r="U1" s="90"/>
+      <c r="V1" s="90"/>
+      <c r="W1" s="90"/>
+      <c r="X1" s="90"/>
+      <c r="Y1" s="90" t="s">
         <v>2</v>
       </c>
-      <c r="Z1" s="103"/>
-      <c r="AA1" s="103"/>
-      <c r="AB1" s="103"/>
-      <c r="AC1" s="103"/>
-      <c r="AD1" s="103"/>
-      <c r="AE1" s="103"/>
-      <c r="AF1" s="103"/>
-      <c r="AG1" s="103" t="s">
+      <c r="Z1" s="90"/>
+      <c r="AA1" s="90"/>
+      <c r="AB1" s="90"/>
+      <c r="AC1" s="90"/>
+      <c r="AD1" s="90"/>
+      <c r="AE1" s="90"/>
+      <c r="AF1" s="90"/>
+      <c r="AG1" s="90" t="s">
         <v>3</v>
       </c>
-      <c r="AH1" s="103"/>
-      <c r="AI1" s="103"/>
-      <c r="AJ1" s="103"/>
-      <c r="AK1" s="103"/>
-      <c r="AL1" s="103"/>
-      <c r="AM1" s="103"/>
-      <c r="AN1" s="103"/>
-      <c r="AO1" s="103" t="s">
+      <c r="AH1" s="90"/>
+      <c r="AI1" s="90"/>
+      <c r="AJ1" s="90"/>
+      <c r="AK1" s="90"/>
+      <c r="AL1" s="90"/>
+      <c r="AM1" s="90"/>
+      <c r="AN1" s="90"/>
+      <c r="AO1" s="90" t="s">
         <v>4</v>
       </c>
-      <c r="AP1" s="103"/>
-      <c r="AQ1" s="103"/>
-      <c r="AR1" s="103"/>
-      <c r="AS1" s="103"/>
-      <c r="AT1" s="103"/>
-      <c r="AU1" s="103"/>
-      <c r="AV1" s="103"/>
+      <c r="AP1" s="90"/>
+      <c r="AQ1" s="90"/>
+      <c r="AR1" s="90"/>
+      <c r="AS1" s="90"/>
+      <c r="AT1" s="90"/>
+      <c r="AU1" s="90"/>
+      <c r="AV1" s="90"/>
     </row>
     <row r="2" spans="1:48" x14ac:dyDescent="0.45">
-      <c r="A2" s="101"/>
-      <c r="B2" s="102"/>
-      <c r="C2" s="102"/>
-      <c r="D2" s="102"/>
-      <c r="E2" s="102"/>
-      <c r="F2" s="102"/>
-      <c r="G2" s="102"/>
-      <c r="H2" s="102"/>
-      <c r="I2" s="97" t="str">
+      <c r="A2" s="88"/>
+      <c r="B2" s="89"/>
+      <c r="C2" s="89"/>
+      <c r="D2" s="89"/>
+      <c r="E2" s="89"/>
+      <c r="F2" s="89"/>
+      <c r="G2" s="89"/>
+      <c r="H2" s="89"/>
+      <c r="I2" s="84" t="str">
         <f>改版履歴!I2</f>
         <v>メインメニュー画面</v>
       </c>
-      <c r="J2" s="97"/>
-      <c r="K2" s="97"/>
-      <c r="L2" s="97"/>
-      <c r="M2" s="97"/>
-      <c r="N2" s="97"/>
-      <c r="O2" s="97"/>
-      <c r="P2" s="97"/>
-      <c r="Q2" s="104">
+      <c r="J2" s="84"/>
+      <c r="K2" s="84"/>
+      <c r="L2" s="84"/>
+      <c r="M2" s="84"/>
+      <c r="N2" s="84"/>
+      <c r="O2" s="84"/>
+      <c r="P2" s="84"/>
+      <c r="Q2" s="91">
         <f ca="1">改版履歴!Q2</f>
         <v>43933</v>
       </c>
-      <c r="R2" s="97"/>
-      <c r="S2" s="97"/>
-      <c r="T2" s="97"/>
-      <c r="U2" s="97"/>
-      <c r="V2" s="97"/>
-      <c r="W2" s="97"/>
-      <c r="X2" s="97"/>
-      <c r="Y2" s="97" t="str">
+      <c r="R2" s="84"/>
+      <c r="S2" s="84"/>
+      <c r="T2" s="84"/>
+      <c r="U2" s="84"/>
+      <c r="V2" s="84"/>
+      <c r="W2" s="84"/>
+      <c r="X2" s="84"/>
+      <c r="Y2" s="84" t="str">
         <f ca="1">改版履歴!Y2</f>
         <v>Giphe</v>
       </c>
-      <c r="Z2" s="97"/>
-      <c r="AA2" s="97"/>
-      <c r="AB2" s="97"/>
-      <c r="AC2" s="97"/>
-      <c r="AD2" s="97"/>
-      <c r="AE2" s="97"/>
-      <c r="AF2" s="97"/>
-      <c r="AG2" s="97" t="str">
+      <c r="Z2" s="84"/>
+      <c r="AA2" s="84"/>
+      <c r="AB2" s="84"/>
+      <c r="AC2" s="84"/>
+      <c r="AD2" s="84"/>
+      <c r="AE2" s="84"/>
+      <c r="AF2" s="84"/>
+      <c r="AG2" s="84" t="str">
         <f ca="1">改版履歴!AG2</f>
         <v>1.0</v>
       </c>
-      <c r="AH2" s="97"/>
-      <c r="AI2" s="97"/>
-      <c r="AJ2" s="97"/>
-      <c r="AK2" s="97"/>
-      <c r="AL2" s="97"/>
-      <c r="AM2" s="97"/>
-      <c r="AN2" s="97"/>
-      <c r="AO2" s="97" t="str">
+      <c r="AH2" s="84"/>
+      <c r="AI2" s="84"/>
+      <c r="AJ2" s="84"/>
+      <c r="AK2" s="84"/>
+      <c r="AL2" s="84"/>
+      <c r="AM2" s="84"/>
+      <c r="AN2" s="84"/>
+      <c r="AO2" s="84" t="str">
         <f>改版履歴!AO2</f>
         <v>PGUSED020</v>
       </c>
-      <c r="AP2" s="97"/>
-      <c r="AQ2" s="97"/>
-      <c r="AR2" s="97"/>
-      <c r="AS2" s="97"/>
-      <c r="AT2" s="97"/>
-      <c r="AU2" s="97"/>
-      <c r="AV2" s="97"/>
+      <c r="AP2" s="84"/>
+      <c r="AQ2" s="84"/>
+      <c r="AR2" s="84"/>
+      <c r="AS2" s="84"/>
+      <c r="AT2" s="84"/>
+      <c r="AU2" s="84"/>
+      <c r="AV2" s="84"/>
     </row>
     <row r="4" spans="1:48" s="56" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A4" s="23"/>
@@ -25394,38 +25394,38 @@
     </row>
     <row r="39" spans="4:32" s="56" customFormat="1" x14ac:dyDescent="0.45"/>
     <row r="40" spans="4:32" s="56" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="E40" s="123" t="s">
+      <c r="E40" s="114" t="s">
         <v>182</v>
       </c>
-      <c r="F40" s="124"/>
-      <c r="G40" s="124"/>
-      <c r="H40" s="124"/>
-      <c r="I40" s="124"/>
-      <c r="J40" s="124"/>
-      <c r="K40" s="124"/>
-      <c r="L40" s="124"/>
-      <c r="M40" s="124"/>
-      <c r="N40" s="125"/>
-      <c r="O40" s="123" t="s">
+      <c r="F40" s="115"/>
+      <c r="G40" s="115"/>
+      <c r="H40" s="115"/>
+      <c r="I40" s="115"/>
+      <c r="J40" s="115"/>
+      <c r="K40" s="115"/>
+      <c r="L40" s="115"/>
+      <c r="M40" s="115"/>
+      <c r="N40" s="116"/>
+      <c r="O40" s="114" t="s">
         <v>183</v>
       </c>
-      <c r="P40" s="124"/>
-      <c r="Q40" s="124"/>
-      <c r="R40" s="124"/>
-      <c r="S40" s="124"/>
-      <c r="T40" s="124"/>
-      <c r="U40" s="124"/>
-      <c r="V40" s="124"/>
-      <c r="W40" s="124"/>
-      <c r="X40" s="124"/>
-      <c r="Y40" s="124"/>
-      <c r="Z40" s="124"/>
-      <c r="AA40" s="124"/>
-      <c r="AB40" s="124"/>
-      <c r="AC40" s="124"/>
-      <c r="AD40" s="124"/>
-      <c r="AE40" s="124"/>
-      <c r="AF40" s="125"/>
+      <c r="P40" s="115"/>
+      <c r="Q40" s="115"/>
+      <c r="R40" s="115"/>
+      <c r="S40" s="115"/>
+      <c r="T40" s="115"/>
+      <c r="U40" s="115"/>
+      <c r="V40" s="115"/>
+      <c r="W40" s="115"/>
+      <c r="X40" s="115"/>
+      <c r="Y40" s="115"/>
+      <c r="Z40" s="115"/>
+      <c r="AA40" s="115"/>
+      <c r="AB40" s="115"/>
+      <c r="AC40" s="115"/>
+      <c r="AD40" s="115"/>
+      <c r="AE40" s="115"/>
+      <c r="AF40" s="116"/>
     </row>
     <row r="41" spans="4:32" s="56" customFormat="1" x14ac:dyDescent="0.45">
       <c r="E41" s="107" t="s">
@@ -25474,26 +25474,26 @@
       <c r="L42" s="108"/>
       <c r="M42" s="108"/>
       <c r="N42" s="109"/>
-      <c r="O42" s="120" t="s">
+      <c r="O42" s="117" t="s">
         <v>192</v>
       </c>
-      <c r="P42" s="121"/>
-      <c r="Q42" s="121"/>
-      <c r="R42" s="121"/>
-      <c r="S42" s="121"/>
-      <c r="T42" s="121"/>
-      <c r="U42" s="121"/>
-      <c r="V42" s="121"/>
-      <c r="W42" s="121"/>
-      <c r="X42" s="121"/>
-      <c r="Y42" s="121"/>
-      <c r="Z42" s="121"/>
-      <c r="AA42" s="121"/>
-      <c r="AB42" s="121"/>
-      <c r="AC42" s="121"/>
-      <c r="AD42" s="121"/>
-      <c r="AE42" s="121"/>
-      <c r="AF42" s="122"/>
+      <c r="P42" s="118"/>
+      <c r="Q42" s="118"/>
+      <c r="R42" s="118"/>
+      <c r="S42" s="118"/>
+      <c r="T42" s="118"/>
+      <c r="U42" s="118"/>
+      <c r="V42" s="118"/>
+      <c r="W42" s="118"/>
+      <c r="X42" s="118"/>
+      <c r="Y42" s="118"/>
+      <c r="Z42" s="118"/>
+      <c r="AA42" s="118"/>
+      <c r="AB42" s="118"/>
+      <c r="AC42" s="118"/>
+      <c r="AD42" s="118"/>
+      <c r="AE42" s="118"/>
+      <c r="AF42" s="119"/>
     </row>
     <row r="43" spans="4:32" s="56" customFormat="1" x14ac:dyDescent="0.45">
       <c r="E43" s="107" t="s">
@@ -25508,26 +25508,26 @@
       <c r="L43" s="108"/>
       <c r="M43" s="108"/>
       <c r="N43" s="109"/>
-      <c r="O43" s="120" t="s">
+      <c r="O43" s="117" t="s">
         <v>193</v>
       </c>
-      <c r="P43" s="121"/>
-      <c r="Q43" s="121"/>
-      <c r="R43" s="121"/>
-      <c r="S43" s="121"/>
-      <c r="T43" s="121"/>
-      <c r="U43" s="121"/>
-      <c r="V43" s="121"/>
-      <c r="W43" s="121"/>
-      <c r="X43" s="121"/>
-      <c r="Y43" s="121"/>
-      <c r="Z43" s="121"/>
-      <c r="AA43" s="121"/>
-      <c r="AB43" s="121"/>
-      <c r="AC43" s="121"/>
-      <c r="AD43" s="121"/>
-      <c r="AE43" s="121"/>
-      <c r="AF43" s="122"/>
+      <c r="P43" s="118"/>
+      <c r="Q43" s="118"/>
+      <c r="R43" s="118"/>
+      <c r="S43" s="118"/>
+      <c r="T43" s="118"/>
+      <c r="U43" s="118"/>
+      <c r="V43" s="118"/>
+      <c r="W43" s="118"/>
+      <c r="X43" s="118"/>
+      <c r="Y43" s="118"/>
+      <c r="Z43" s="118"/>
+      <c r="AA43" s="118"/>
+      <c r="AB43" s="118"/>
+      <c r="AC43" s="118"/>
+      <c r="AD43" s="118"/>
+      <c r="AE43" s="118"/>
+      <c r="AF43" s="119"/>
     </row>
     <row r="44" spans="4:32" s="56" customFormat="1" x14ac:dyDescent="0.45">
       <c r="E44" s="57" t="s">
@@ -25780,18 +25780,18 @@
       <c r="AG67" s="65"/>
     </row>
     <row r="68" spans="5:33" s="56" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="F68" s="114" t="s">
+      <c r="F68" s="120" t="s">
         <v>211</v>
       </c>
-      <c r="G68" s="115"/>
-      <c r="H68" s="115"/>
-      <c r="I68" s="115"/>
-      <c r="J68" s="115"/>
-      <c r="K68" s="115"/>
-      <c r="L68" s="115"/>
-      <c r="M68" s="115"/>
-      <c r="N68" s="115"/>
-      <c r="O68" s="116"/>
+      <c r="G68" s="121"/>
+      <c r="H68" s="121"/>
+      <c r="I68" s="121"/>
+      <c r="J68" s="121"/>
+      <c r="K68" s="121"/>
+      <c r="L68" s="121"/>
+      <c r="M68" s="121"/>
+      <c r="N68" s="121"/>
+      <c r="O68" s="122"/>
       <c r="P68" s="68" t="s">
         <v>205</v>
       </c>
@@ -25814,16 +25814,16 @@
       <c r="AG68" s="65"/>
     </row>
     <row r="69" spans="5:33" s="56" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="F69" s="117"/>
-      <c r="G69" s="118"/>
-      <c r="H69" s="118"/>
-      <c r="I69" s="118"/>
-      <c r="J69" s="118"/>
-      <c r="K69" s="118"/>
-      <c r="L69" s="118"/>
-      <c r="M69" s="118"/>
-      <c r="N69" s="118"/>
-      <c r="O69" s="119"/>
+      <c r="F69" s="123"/>
+      <c r="G69" s="124"/>
+      <c r="H69" s="124"/>
+      <c r="I69" s="124"/>
+      <c r="J69" s="124"/>
+      <c r="K69" s="124"/>
+      <c r="L69" s="124"/>
+      <c r="M69" s="124"/>
+      <c r="N69" s="124"/>
+      <c r="O69" s="125"/>
       <c r="P69" s="68" t="s">
         <v>208</v>
       </c>
@@ -25960,18 +25960,18 @@
       <c r="AG76" s="65"/>
     </row>
     <row r="77" spans="5:33" s="56" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="F77" s="114" t="s">
+      <c r="F77" s="120" t="s">
         <v>211</v>
       </c>
-      <c r="G77" s="115"/>
-      <c r="H77" s="115"/>
-      <c r="I77" s="115"/>
-      <c r="J77" s="115"/>
-      <c r="K77" s="115"/>
-      <c r="L77" s="115"/>
-      <c r="M77" s="115"/>
-      <c r="N77" s="115"/>
-      <c r="O77" s="116"/>
+      <c r="G77" s="121"/>
+      <c r="H77" s="121"/>
+      <c r="I77" s="121"/>
+      <c r="J77" s="121"/>
+      <c r="K77" s="121"/>
+      <c r="L77" s="121"/>
+      <c r="M77" s="121"/>
+      <c r="N77" s="121"/>
+      <c r="O77" s="122"/>
       <c r="P77" s="68" t="s">
         <v>204</v>
       </c>
@@ -25994,16 +25994,16 @@
       <c r="AG77" s="65"/>
     </row>
     <row r="78" spans="5:33" s="56" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="F78" s="117"/>
-      <c r="G78" s="118"/>
-      <c r="H78" s="118"/>
-      <c r="I78" s="118"/>
-      <c r="J78" s="118"/>
-      <c r="K78" s="118"/>
-      <c r="L78" s="118"/>
-      <c r="M78" s="118"/>
-      <c r="N78" s="118"/>
-      <c r="O78" s="119"/>
+      <c r="F78" s="123"/>
+      <c r="G78" s="124"/>
+      <c r="H78" s="124"/>
+      <c r="I78" s="124"/>
+      <c r="J78" s="124"/>
+      <c r="K78" s="124"/>
+      <c r="L78" s="124"/>
+      <c r="M78" s="124"/>
+      <c r="N78" s="124"/>
+      <c r="O78" s="125"/>
       <c r="P78" s="68" t="s">
         <v>208</v>
       </c>
@@ -26113,13 +26113,13 @@
     <row r="90" spans="4:5" s="56" customFormat="1" x14ac:dyDescent="0.45"/>
   </sheetData>
   <mergeCells count="24">
-    <mergeCell ref="F77:O78"/>
-    <mergeCell ref="E43:N43"/>
-    <mergeCell ref="O43:AF43"/>
-    <mergeCell ref="O44:AF44"/>
-    <mergeCell ref="E45:N45"/>
-    <mergeCell ref="O45:AF45"/>
-    <mergeCell ref="F68:O69"/>
+    <mergeCell ref="AG1:AN1"/>
+    <mergeCell ref="AO1:AV1"/>
+    <mergeCell ref="I2:P2"/>
+    <mergeCell ref="Q2:X2"/>
+    <mergeCell ref="Y2:AF2"/>
+    <mergeCell ref="AG2:AN2"/>
+    <mergeCell ref="AO2:AV2"/>
     <mergeCell ref="E42:N42"/>
     <mergeCell ref="O42:AF42"/>
     <mergeCell ref="A1:H2"/>
@@ -26130,13 +26130,13 @@
     <mergeCell ref="O40:AF40"/>
     <mergeCell ref="E41:N41"/>
     <mergeCell ref="O41:AF41"/>
-    <mergeCell ref="AG1:AN1"/>
-    <mergeCell ref="AO1:AV1"/>
-    <mergeCell ref="I2:P2"/>
-    <mergeCell ref="Q2:X2"/>
-    <mergeCell ref="Y2:AF2"/>
-    <mergeCell ref="AG2:AN2"/>
-    <mergeCell ref="AO2:AV2"/>
+    <mergeCell ref="F77:O78"/>
+    <mergeCell ref="E43:N43"/>
+    <mergeCell ref="O43:AF43"/>
+    <mergeCell ref="O44:AF44"/>
+    <mergeCell ref="E45:N45"/>
+    <mergeCell ref="O45:AF45"/>
+    <mergeCell ref="F68:O69"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -26155,132 +26155,132 @@
   <sheetFormatPr defaultColWidth="3.09765625" defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <sheetData>
     <row r="1" spans="1:48" x14ac:dyDescent="0.45">
-      <c r="A1" s="99" t="str">
+      <c r="A1" s="86" t="str">
         <f ca="1">RIGHT(CELL("filename",A1),LEN(CELL("filename",A1))-FIND("]",CELL("filename",A1)))</f>
         <v>Item</v>
       </c>
-      <c r="B1" s="100"/>
-      <c r="C1" s="100"/>
-      <c r="D1" s="100"/>
-      <c r="E1" s="100"/>
-      <c r="F1" s="100"/>
-      <c r="G1" s="100"/>
-      <c r="H1" s="100"/>
-      <c r="I1" s="103" t="s">
+      <c r="B1" s="87"/>
+      <c r="C1" s="87"/>
+      <c r="D1" s="87"/>
+      <c r="E1" s="87"/>
+      <c r="F1" s="87"/>
+      <c r="G1" s="87"/>
+      <c r="H1" s="87"/>
+      <c r="I1" s="90" t="s">
         <v>0</v>
       </c>
-      <c r="J1" s="103"/>
-      <c r="K1" s="103"/>
-      <c r="L1" s="103"/>
-      <c r="M1" s="103"/>
-      <c r="N1" s="103"/>
-      <c r="O1" s="103"/>
-      <c r="P1" s="103"/>
-      <c r="Q1" s="103" t="s">
+      <c r="J1" s="90"/>
+      <c r="K1" s="90"/>
+      <c r="L1" s="90"/>
+      <c r="M1" s="90"/>
+      <c r="N1" s="90"/>
+      <c r="O1" s="90"/>
+      <c r="P1" s="90"/>
+      <c r="Q1" s="90" t="s">
         <v>1</v>
       </c>
-      <c r="R1" s="103"/>
-      <c r="S1" s="103"/>
-      <c r="T1" s="103"/>
-      <c r="U1" s="103"/>
-      <c r="V1" s="103"/>
-      <c r="W1" s="103"/>
-      <c r="X1" s="103"/>
-      <c r="Y1" s="103" t="s">
+      <c r="R1" s="90"/>
+      <c r="S1" s="90"/>
+      <c r="T1" s="90"/>
+      <c r="U1" s="90"/>
+      <c r="V1" s="90"/>
+      <c r="W1" s="90"/>
+      <c r="X1" s="90"/>
+      <c r="Y1" s="90" t="s">
         <v>2</v>
       </c>
-      <c r="Z1" s="103"/>
-      <c r="AA1" s="103"/>
-      <c r="AB1" s="103"/>
-      <c r="AC1" s="103"/>
-      <c r="AD1" s="103"/>
-      <c r="AE1" s="103"/>
-      <c r="AF1" s="103"/>
-      <c r="AG1" s="103" t="s">
+      <c r="Z1" s="90"/>
+      <c r="AA1" s="90"/>
+      <c r="AB1" s="90"/>
+      <c r="AC1" s="90"/>
+      <c r="AD1" s="90"/>
+      <c r="AE1" s="90"/>
+      <c r="AF1" s="90"/>
+      <c r="AG1" s="90" t="s">
         <v>3</v>
       </c>
-      <c r="AH1" s="103"/>
-      <c r="AI1" s="103"/>
-      <c r="AJ1" s="103"/>
-      <c r="AK1" s="103"/>
-      <c r="AL1" s="103"/>
-      <c r="AM1" s="103"/>
-      <c r="AN1" s="103"/>
-      <c r="AO1" s="103" t="s">
+      <c r="AH1" s="90"/>
+      <c r="AI1" s="90"/>
+      <c r="AJ1" s="90"/>
+      <c r="AK1" s="90"/>
+      <c r="AL1" s="90"/>
+      <c r="AM1" s="90"/>
+      <c r="AN1" s="90"/>
+      <c r="AO1" s="90" t="s">
         <v>4</v>
       </c>
-      <c r="AP1" s="103"/>
-      <c r="AQ1" s="103"/>
-      <c r="AR1" s="103"/>
-      <c r="AS1" s="103"/>
-      <c r="AT1" s="103"/>
-      <c r="AU1" s="103"/>
-      <c r="AV1" s="103"/>
+      <c r="AP1" s="90"/>
+      <c r="AQ1" s="90"/>
+      <c r="AR1" s="90"/>
+      <c r="AS1" s="90"/>
+      <c r="AT1" s="90"/>
+      <c r="AU1" s="90"/>
+      <c r="AV1" s="90"/>
     </row>
     <row r="2" spans="1:48" x14ac:dyDescent="0.45">
-      <c r="A2" s="101"/>
-      <c r="B2" s="102"/>
-      <c r="C2" s="102"/>
-      <c r="D2" s="102"/>
-      <c r="E2" s="102"/>
-      <c r="F2" s="102"/>
-      <c r="G2" s="102"/>
-      <c r="H2" s="102"/>
-      <c r="I2" s="97" t="str">
+      <c r="A2" s="88"/>
+      <c r="B2" s="89"/>
+      <c r="C2" s="89"/>
+      <c r="D2" s="89"/>
+      <c r="E2" s="89"/>
+      <c r="F2" s="89"/>
+      <c r="G2" s="89"/>
+      <c r="H2" s="89"/>
+      <c r="I2" s="84" t="str">
         <f>改版履歴!I2</f>
         <v>メインメニュー画面</v>
       </c>
-      <c r="J2" s="97"/>
-      <c r="K2" s="97"/>
-      <c r="L2" s="97"/>
-      <c r="M2" s="97"/>
-      <c r="N2" s="97"/>
-      <c r="O2" s="97"/>
-      <c r="P2" s="97"/>
-      <c r="Q2" s="104">
+      <c r="J2" s="84"/>
+      <c r="K2" s="84"/>
+      <c r="L2" s="84"/>
+      <c r="M2" s="84"/>
+      <c r="N2" s="84"/>
+      <c r="O2" s="84"/>
+      <c r="P2" s="84"/>
+      <c r="Q2" s="91">
         <f ca="1">改版履歴!Q2</f>
         <v>43933</v>
       </c>
-      <c r="R2" s="97"/>
-      <c r="S2" s="97"/>
-      <c r="T2" s="97"/>
-      <c r="U2" s="97"/>
-      <c r="V2" s="97"/>
-      <c r="W2" s="97"/>
-      <c r="X2" s="97"/>
-      <c r="Y2" s="97" t="str">
+      <c r="R2" s="84"/>
+      <c r="S2" s="84"/>
+      <c r="T2" s="84"/>
+      <c r="U2" s="84"/>
+      <c r="V2" s="84"/>
+      <c r="W2" s="84"/>
+      <c r="X2" s="84"/>
+      <c r="Y2" s="84" t="str">
         <f ca="1">改版履歴!Y2</f>
         <v>Giphe</v>
       </c>
-      <c r="Z2" s="97"/>
-      <c r="AA2" s="97"/>
-      <c r="AB2" s="97"/>
-      <c r="AC2" s="97"/>
-      <c r="AD2" s="97"/>
-      <c r="AE2" s="97"/>
-      <c r="AF2" s="97"/>
-      <c r="AG2" s="97" t="str">
+      <c r="Z2" s="84"/>
+      <c r="AA2" s="84"/>
+      <c r="AB2" s="84"/>
+      <c r="AC2" s="84"/>
+      <c r="AD2" s="84"/>
+      <c r="AE2" s="84"/>
+      <c r="AF2" s="84"/>
+      <c r="AG2" s="84" t="str">
         <f ca="1">改版履歴!AG2</f>
         <v>1.0</v>
       </c>
-      <c r="AH2" s="97"/>
-      <c r="AI2" s="97"/>
-      <c r="AJ2" s="97"/>
-      <c r="AK2" s="97"/>
-      <c r="AL2" s="97"/>
-      <c r="AM2" s="97"/>
-      <c r="AN2" s="97"/>
-      <c r="AO2" s="97" t="str">
+      <c r="AH2" s="84"/>
+      <c r="AI2" s="84"/>
+      <c r="AJ2" s="84"/>
+      <c r="AK2" s="84"/>
+      <c r="AL2" s="84"/>
+      <c r="AM2" s="84"/>
+      <c r="AN2" s="84"/>
+      <c r="AO2" s="84" t="str">
         <f>改版履歴!AO2</f>
         <v>PGUSED020</v>
       </c>
-      <c r="AP2" s="97"/>
-      <c r="AQ2" s="97"/>
-      <c r="AR2" s="97"/>
-      <c r="AS2" s="97"/>
-      <c r="AT2" s="97"/>
-      <c r="AU2" s="97"/>
-      <c r="AV2" s="97"/>
+      <c r="AP2" s="84"/>
+      <c r="AQ2" s="84"/>
+      <c r="AR2" s="84"/>
+      <c r="AS2" s="84"/>
+      <c r="AT2" s="84"/>
+      <c r="AU2" s="84"/>
+      <c r="AV2" s="84"/>
     </row>
     <row r="4" spans="1:48" s="56" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A4" s="23"/>
@@ -26563,38 +26563,38 @@
     </row>
     <row r="39" spans="4:32" s="56" customFormat="1" x14ac:dyDescent="0.45"/>
     <row r="40" spans="4:32" s="56" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="E40" s="123" t="s">
+      <c r="E40" s="114" t="s">
         <v>182</v>
       </c>
-      <c r="F40" s="124"/>
-      <c r="G40" s="124"/>
-      <c r="H40" s="124"/>
-      <c r="I40" s="124"/>
-      <c r="J40" s="124"/>
-      <c r="K40" s="124"/>
-      <c r="L40" s="124"/>
-      <c r="M40" s="124"/>
-      <c r="N40" s="125"/>
-      <c r="O40" s="123" t="s">
+      <c r="F40" s="115"/>
+      <c r="G40" s="115"/>
+      <c r="H40" s="115"/>
+      <c r="I40" s="115"/>
+      <c r="J40" s="115"/>
+      <c r="K40" s="115"/>
+      <c r="L40" s="115"/>
+      <c r="M40" s="115"/>
+      <c r="N40" s="116"/>
+      <c r="O40" s="114" t="s">
         <v>183</v>
       </c>
-      <c r="P40" s="124"/>
-      <c r="Q40" s="124"/>
-      <c r="R40" s="124"/>
-      <c r="S40" s="124"/>
-      <c r="T40" s="124"/>
-      <c r="U40" s="124"/>
-      <c r="V40" s="124"/>
-      <c r="W40" s="124"/>
-      <c r="X40" s="124"/>
-      <c r="Y40" s="124"/>
-      <c r="Z40" s="124"/>
-      <c r="AA40" s="124"/>
-      <c r="AB40" s="124"/>
-      <c r="AC40" s="124"/>
-      <c r="AD40" s="124"/>
-      <c r="AE40" s="124"/>
-      <c r="AF40" s="125"/>
+      <c r="P40" s="115"/>
+      <c r="Q40" s="115"/>
+      <c r="R40" s="115"/>
+      <c r="S40" s="115"/>
+      <c r="T40" s="115"/>
+      <c r="U40" s="115"/>
+      <c r="V40" s="115"/>
+      <c r="W40" s="115"/>
+      <c r="X40" s="115"/>
+      <c r="Y40" s="115"/>
+      <c r="Z40" s="115"/>
+      <c r="AA40" s="115"/>
+      <c r="AB40" s="115"/>
+      <c r="AC40" s="115"/>
+      <c r="AD40" s="115"/>
+      <c r="AE40" s="115"/>
+      <c r="AF40" s="116"/>
     </row>
     <row r="41" spans="4:32" s="56" customFormat="1" x14ac:dyDescent="0.45">
       <c r="E41" s="107" t="s">
@@ -26643,26 +26643,26 @@
       <c r="L42" s="108"/>
       <c r="M42" s="108"/>
       <c r="N42" s="109"/>
-      <c r="O42" s="120" t="s">
+      <c r="O42" s="117" t="s">
         <v>192</v>
       </c>
-      <c r="P42" s="121"/>
-      <c r="Q42" s="121"/>
-      <c r="R42" s="121"/>
-      <c r="S42" s="121"/>
-      <c r="T42" s="121"/>
-      <c r="U42" s="121"/>
-      <c r="V42" s="121"/>
-      <c r="W42" s="121"/>
-      <c r="X42" s="121"/>
-      <c r="Y42" s="121"/>
-      <c r="Z42" s="121"/>
-      <c r="AA42" s="121"/>
-      <c r="AB42" s="121"/>
-      <c r="AC42" s="121"/>
-      <c r="AD42" s="121"/>
-      <c r="AE42" s="121"/>
-      <c r="AF42" s="122"/>
+      <c r="P42" s="118"/>
+      <c r="Q42" s="118"/>
+      <c r="R42" s="118"/>
+      <c r="S42" s="118"/>
+      <c r="T42" s="118"/>
+      <c r="U42" s="118"/>
+      <c r="V42" s="118"/>
+      <c r="W42" s="118"/>
+      <c r="X42" s="118"/>
+      <c r="Y42" s="118"/>
+      <c r="Z42" s="118"/>
+      <c r="AA42" s="118"/>
+      <c r="AB42" s="118"/>
+      <c r="AC42" s="118"/>
+      <c r="AD42" s="118"/>
+      <c r="AE42" s="118"/>
+      <c r="AF42" s="119"/>
     </row>
     <row r="43" spans="4:32" s="56" customFormat="1" x14ac:dyDescent="0.45">
       <c r="E43" s="107" t="s">
@@ -26677,26 +26677,26 @@
       <c r="L43" s="108"/>
       <c r="M43" s="108"/>
       <c r="N43" s="109"/>
-      <c r="O43" s="120" t="s">
+      <c r="O43" s="117" t="s">
         <v>193</v>
       </c>
-      <c r="P43" s="121"/>
-      <c r="Q43" s="121"/>
-      <c r="R43" s="121"/>
-      <c r="S43" s="121"/>
-      <c r="T43" s="121"/>
-      <c r="U43" s="121"/>
-      <c r="V43" s="121"/>
-      <c r="W43" s="121"/>
-      <c r="X43" s="121"/>
-      <c r="Y43" s="121"/>
-      <c r="Z43" s="121"/>
-      <c r="AA43" s="121"/>
-      <c r="AB43" s="121"/>
-      <c r="AC43" s="121"/>
-      <c r="AD43" s="121"/>
-      <c r="AE43" s="121"/>
-      <c r="AF43" s="122"/>
+      <c r="P43" s="118"/>
+      <c r="Q43" s="118"/>
+      <c r="R43" s="118"/>
+      <c r="S43" s="118"/>
+      <c r="T43" s="118"/>
+      <c r="U43" s="118"/>
+      <c r="V43" s="118"/>
+      <c r="W43" s="118"/>
+      <c r="X43" s="118"/>
+      <c r="Y43" s="118"/>
+      <c r="Z43" s="118"/>
+      <c r="AA43" s="118"/>
+      <c r="AB43" s="118"/>
+      <c r="AC43" s="118"/>
+      <c r="AD43" s="118"/>
+      <c r="AE43" s="118"/>
+      <c r="AF43" s="119"/>
     </row>
     <row r="44" spans="4:32" s="56" customFormat="1" x14ac:dyDescent="0.45">
       <c r="E44" s="57" t="s">
@@ -26949,18 +26949,18 @@
       <c r="AG67" s="65"/>
     </row>
     <row r="68" spans="5:33" s="56" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="F68" s="114" t="s">
+      <c r="F68" s="120" t="s">
         <v>211</v>
       </c>
-      <c r="G68" s="115"/>
-      <c r="H68" s="115"/>
-      <c r="I68" s="115"/>
-      <c r="J68" s="115"/>
-      <c r="K68" s="115"/>
-      <c r="L68" s="115"/>
-      <c r="M68" s="115"/>
-      <c r="N68" s="115"/>
-      <c r="O68" s="116"/>
+      <c r="G68" s="121"/>
+      <c r="H68" s="121"/>
+      <c r="I68" s="121"/>
+      <c r="J68" s="121"/>
+      <c r="K68" s="121"/>
+      <c r="L68" s="121"/>
+      <c r="M68" s="121"/>
+      <c r="N68" s="121"/>
+      <c r="O68" s="122"/>
       <c r="P68" s="68" t="s">
         <v>205</v>
       </c>
@@ -26983,16 +26983,16 @@
       <c r="AG68" s="65"/>
     </row>
     <row r="69" spans="5:33" s="56" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="F69" s="117"/>
-      <c r="G69" s="118"/>
-      <c r="H69" s="118"/>
-      <c r="I69" s="118"/>
-      <c r="J69" s="118"/>
-      <c r="K69" s="118"/>
-      <c r="L69" s="118"/>
-      <c r="M69" s="118"/>
-      <c r="N69" s="118"/>
-      <c r="O69" s="119"/>
+      <c r="F69" s="123"/>
+      <c r="G69" s="124"/>
+      <c r="H69" s="124"/>
+      <c r="I69" s="124"/>
+      <c r="J69" s="124"/>
+      <c r="K69" s="124"/>
+      <c r="L69" s="124"/>
+      <c r="M69" s="124"/>
+      <c r="N69" s="124"/>
+      <c r="O69" s="125"/>
       <c r="P69" s="68" t="s">
         <v>208</v>
       </c>
@@ -27129,18 +27129,18 @@
       <c r="AG76" s="65"/>
     </row>
     <row r="77" spans="5:33" s="56" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="F77" s="114" t="s">
+      <c r="F77" s="120" t="s">
         <v>211</v>
       </c>
-      <c r="G77" s="115"/>
-      <c r="H77" s="115"/>
-      <c r="I77" s="115"/>
-      <c r="J77" s="115"/>
-      <c r="K77" s="115"/>
-      <c r="L77" s="115"/>
-      <c r="M77" s="115"/>
-      <c r="N77" s="115"/>
-      <c r="O77" s="116"/>
+      <c r="G77" s="121"/>
+      <c r="H77" s="121"/>
+      <c r="I77" s="121"/>
+      <c r="J77" s="121"/>
+      <c r="K77" s="121"/>
+      <c r="L77" s="121"/>
+      <c r="M77" s="121"/>
+      <c r="N77" s="121"/>
+      <c r="O77" s="122"/>
       <c r="P77" s="68" t="s">
         <v>204</v>
       </c>
@@ -27163,16 +27163,16 @@
       <c r="AG77" s="65"/>
     </row>
     <row r="78" spans="5:33" s="56" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="F78" s="117"/>
-      <c r="G78" s="118"/>
-      <c r="H78" s="118"/>
-      <c r="I78" s="118"/>
-      <c r="J78" s="118"/>
-      <c r="K78" s="118"/>
-      <c r="L78" s="118"/>
-      <c r="M78" s="118"/>
-      <c r="N78" s="118"/>
-      <c r="O78" s="119"/>
+      <c r="F78" s="123"/>
+      <c r="G78" s="124"/>
+      <c r="H78" s="124"/>
+      <c r="I78" s="124"/>
+      <c r="J78" s="124"/>
+      <c r="K78" s="124"/>
+      <c r="L78" s="124"/>
+      <c r="M78" s="124"/>
+      <c r="N78" s="124"/>
+      <c r="O78" s="125"/>
       <c r="P78" s="68" t="s">
         <v>208</v>
       </c>
@@ -27282,13 +27282,13 @@
     <row r="90" spans="4:5" s="56" customFormat="1" x14ac:dyDescent="0.45"/>
   </sheetData>
   <mergeCells count="24">
-    <mergeCell ref="F77:O78"/>
-    <mergeCell ref="E43:N43"/>
-    <mergeCell ref="O43:AF43"/>
-    <mergeCell ref="O44:AF44"/>
-    <mergeCell ref="E45:N45"/>
-    <mergeCell ref="O45:AF45"/>
-    <mergeCell ref="F68:O69"/>
+    <mergeCell ref="AG1:AN1"/>
+    <mergeCell ref="AO1:AV1"/>
+    <mergeCell ref="I2:P2"/>
+    <mergeCell ref="Q2:X2"/>
+    <mergeCell ref="Y2:AF2"/>
+    <mergeCell ref="AG2:AN2"/>
+    <mergeCell ref="AO2:AV2"/>
     <mergeCell ref="E42:N42"/>
     <mergeCell ref="O42:AF42"/>
     <mergeCell ref="A1:H2"/>
@@ -27299,13 +27299,13 @@
     <mergeCell ref="O40:AF40"/>
     <mergeCell ref="E41:N41"/>
     <mergeCell ref="O41:AF41"/>
-    <mergeCell ref="AG1:AN1"/>
-    <mergeCell ref="AO1:AV1"/>
-    <mergeCell ref="I2:P2"/>
-    <mergeCell ref="Q2:X2"/>
-    <mergeCell ref="Y2:AF2"/>
-    <mergeCell ref="AG2:AN2"/>
-    <mergeCell ref="AO2:AV2"/>
+    <mergeCell ref="F77:O78"/>
+    <mergeCell ref="E43:N43"/>
+    <mergeCell ref="O43:AF43"/>
+    <mergeCell ref="O44:AF44"/>
+    <mergeCell ref="E45:N45"/>
+    <mergeCell ref="O45:AF45"/>
+    <mergeCell ref="F68:O69"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
